--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/sentry-tutorial/artifact/script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-10280" windowWidth="16800" windowHeight="10280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="424">
   <si>
     <t>jira</t>
   </si>
@@ -722,9 +722,6 @@
     <t>saveLocalStorage(var,key)</t>
   </si>
   <si>
-    <t>Hello World! It's now $(sysdate|now|yyyy-MM-dd HH:mm:ss.S)</t>
-  </si>
-  <si>
     <t>clickButton(name)</t>
   </si>
   <si>
@@ -1031,9 +1028,6 @@
     <t>assertModalDialogTitleByLocator(locator,title)</t>
   </si>
   <si>
-    <t>hello world (safe to remove)</t>
-  </si>
-  <si>
     <t>assertEmpty(text)</t>
   </si>
   <si>
@@ -1262,54 +1256,15 @@
     <t>saveResult(db,sql,output)</t>
   </si>
   <si>
-    <t>Greeting</t>
-  </si>
-  <si>
     <t>QAPAY01</t>
   </si>
   <si>
-    <t>qapay01 result</t>
-  </si>
-  <si>
     <t>qapay01</t>
   </si>
   <si>
     <t>${qapay01 select1}</t>
   </si>
   <si>
-    <t>${qapay01 result}</t>
-  </si>
-  <si>
-    <t>ISAM</t>
-  </si>
-  <si>
-    <t>isam result</t>
-  </si>
-  <si>
-    <t>isam</t>
-  </si>
-  <si>
-    <t>${isam select1}</t>
-  </si>
-  <si>
-    <t>${isam result}</t>
-  </si>
-  <si>
-    <t>NGP</t>
-  </si>
-  <si>
-    <t>ngp result</t>
-  </si>
-  <si>
-    <t>${ngp select1}</t>
-  </si>
-  <si>
-    <t>${ngp result}</t>
-  </si>
-  <si>
-    <t>ngpdb</t>
-  </si>
-  <si>
     <t>payroll_batch</t>
   </si>
   <si>
@@ -1356,6 +1311,24 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>What's the time now</t>
+  </si>
+  <si>
+    <t>my_db2 result</t>
+  </si>
+  <si>
+    <t>my_db2</t>
+  </si>
+  <si>
+    <t>${tell time}</t>
+  </si>
+  <si>
+    <t>${my_db2 result}</t>
+  </si>
+  <si>
+    <t>get current time from server</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
@@ -2024,13 +1997,13 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -2042,13 +2015,13 @@
         <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O1" t="s">
         <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="Q1" t="s">
         <v>57</v>
@@ -2063,15 +2036,15 @@
         <v>60</v>
       </c>
       <c r="U1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -2089,13 +2062,13 @@
         <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K2" t="s">
         <v>89</v>
@@ -2104,16 +2077,16 @@
         <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q2" t="s">
         <v>100</v>
@@ -2128,7 +2101,7 @@
         <v>187</v>
       </c>
       <c r="U2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2136,31 +2109,31 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E3" t="s">
         <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="I3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -2169,13 +2142,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q3" t="s">
         <v>101</v>
@@ -2187,10 +2160,10 @@
         <v>181</v>
       </c>
       <c r="T3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="U3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -2198,7 +2171,7 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -2207,19 +2180,19 @@
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K4" t="s">
         <v>90</v>
@@ -2228,16 +2201,16 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="R4" t="s">
         <v>177</v>
@@ -2249,7 +2222,7 @@
         <v>188</v>
       </c>
       <c r="U4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2257,19 +2230,19 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="I5" t="s">
         <v>75</v>
@@ -2281,16 +2254,16 @@
         <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q5" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R5" t="s">
         <v>178</v>
@@ -2302,7 +2275,7 @@
         <v>189</v>
       </c>
       <c r="U5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -2310,16 +2283,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -2331,13 +2304,13 @@
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Q6" t="s">
         <v>102</v>
@@ -2352,7 +2325,7 @@
         <v>190</v>
       </c>
       <c r="U6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2360,16 +2333,16 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>83</v>
@@ -2381,10 +2354,10 @@
         <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Q7" t="s">
         <v>103</v>
@@ -2396,24 +2369,24 @@
         <v>191</v>
       </c>
       <c r="U7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -2425,10 +2398,10 @@
         <v>95</v>
       </c>
       <c r="N8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q8" t="s">
         <v>104</v>
@@ -2440,7 +2413,7 @@
         <v>192</v>
       </c>
       <c r="U8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2448,16 +2421,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
@@ -2466,10 +2439,10 @@
         <v>96</v>
       </c>
       <c r="N9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q9" t="s">
         <v>214</v>
@@ -2478,18 +2451,18 @@
         <v>193</v>
       </c>
       <c r="U9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -2501,16 +2474,16 @@
         <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T10" t="s">
         <v>194</v>
       </c>
       <c r="U10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2518,10 +2491,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -2533,16 +2506,16 @@
         <v>97</v>
       </c>
       <c r="N11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q11" t="s">
+        <v>263</v>
+      </c>
+      <c r="T11" t="s">
         <v>264</v>
       </c>
-      <c r="T11" t="s">
-        <v>265</v>
-      </c>
       <c r="U11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2553,7 +2526,7 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" t="s">
         <v>84</v>
@@ -2562,7 +2535,7 @@
         <v>98</v>
       </c>
       <c r="N12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -2579,7 +2552,7 @@
         <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I13" t="s">
         <v>85</v>
@@ -2588,10 +2561,10 @@
         <v>99</v>
       </c>
       <c r="N13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T13" t="s">
         <v>196</v>
@@ -2599,19 +2572,19 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I14" t="s">
         <v>86</v>
       </c>
       <c r="N14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q14" t="s">
         <v>106</v>
@@ -2625,16 +2598,16 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I15" t="s">
         <v>87</v>
       </c>
       <c r="N15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q15" t="s">
         <v>107</v>
@@ -2645,19 +2618,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q16" t="s">
         <v>78</v>
@@ -2688,7 +2661,7 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
         <v>93</v>
@@ -2708,7 +2681,7 @@
         <v>65</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
@@ -2722,10 +2695,10 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
@@ -2736,13 +2709,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q21" t="s">
         <v>112</v>
@@ -2750,10 +2723,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q22" t="s">
         <v>113</v>
@@ -2761,10 +2734,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q23" t="s">
         <v>114</v>
@@ -2775,7 +2748,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q24" t="s">
         <v>115</v>
@@ -2797,7 +2770,7 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q26" t="s">
         <v>117</v>
@@ -2808,10 +2781,10 @@
         <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -2819,7 +2792,7 @@
         <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q28" t="s">
         <v>118</v>
@@ -2830,7 +2803,7 @@
         <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q29" t="s">
         <v>119</v>
@@ -2841,7 +2814,7 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q30" t="s">
         <v>120</v>
@@ -2852,7 +2825,7 @@
         <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q31" t="s">
         <v>121</v>
@@ -2860,7 +2833,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q32" t="s">
         <v>122</v>
@@ -2868,7 +2841,7 @@
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q33" t="s">
         <v>123</v>
@@ -2876,7 +2849,7 @@
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q34" t="s">
         <v>215</v>
@@ -2884,7 +2857,7 @@
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q35" t="s">
         <v>124</v>
@@ -2892,15 +2865,15 @@
     </row>
     <row r="36" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q36" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q37" t="s">
         <v>125</v>
@@ -2908,7 +2881,7 @@
     </row>
     <row r="38" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q38" t="s">
         <v>126</v>
@@ -2932,7 +2905,7 @@
     </row>
     <row r="41" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q41" t="s">
         <v>129</v>
@@ -2940,7 +2913,7 @@
     </row>
     <row r="42" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q42" t="s">
         <v>130</v>
@@ -2948,7 +2921,7 @@
     </row>
     <row r="43" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q43" t="s">
         <v>218</v>
@@ -2956,7 +2929,7 @@
     </row>
     <row r="44" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q44" t="s">
         <v>80</v>
@@ -2964,7 +2937,7 @@
     </row>
     <row r="45" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q45" t="s">
         <v>131</v>
@@ -2980,7 +2953,7 @@
     </row>
     <row r="47" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="Q47" t="s">
         <v>133</v>
@@ -2988,7 +2961,7 @@
     </row>
     <row r="48" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="Q48" t="s">
         <v>134</v>
@@ -2996,15 +2969,15 @@
     </row>
     <row r="49" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q49" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q50" t="s">
         <v>135</v>
@@ -3012,7 +2985,7 @@
     </row>
     <row r="51" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q51" t="s">
         <v>136</v>
@@ -3020,7 +2993,7 @@
     </row>
     <row r="52" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q52" t="s">
         <v>137</v>
@@ -3028,7 +3001,7 @@
     </row>
     <row r="53" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q53" t="s">
         <v>138</v>
@@ -3036,7 +3009,7 @@
     </row>
     <row r="54" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q54" t="s">
         <v>139</v>
@@ -3044,7 +3017,7 @@
     </row>
     <row r="55" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q55" t="s">
         <v>140</v>
@@ -3052,7 +3025,7 @@
     </row>
     <row r="56" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q56" t="s">
         <v>141</v>
@@ -3060,7 +3033,7 @@
     </row>
     <row r="57" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q57" t="s">
         <v>219</v>
@@ -3068,15 +3041,15 @@
     </row>
     <row r="58" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q59" t="s">
         <v>142</v>
@@ -3084,7 +3057,7 @@
     </row>
     <row r="60" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q60" t="s">
         <v>143</v>
@@ -3092,7 +3065,7 @@
     </row>
     <row r="61" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Q61" t="s">
         <v>144</v>
@@ -3100,7 +3073,7 @@
     </row>
     <row r="62" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q62" t="s">
         <v>145</v>
@@ -3108,7 +3081,7 @@
     </row>
     <row r="63" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q63" t="s">
         <v>202</v>
@@ -3116,7 +3089,7 @@
     </row>
     <row r="64" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q64" t="s">
         <v>203</v>
@@ -3124,7 +3097,7 @@
     </row>
     <row r="65" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q65" t="s">
         <v>146</v>
@@ -3132,7 +3105,7 @@
     </row>
     <row r="66" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="Q66" t="s">
         <v>147</v>
@@ -3140,7 +3113,7 @@
     </row>
     <row r="67" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q67" t="s">
         <v>148</v>
@@ -3148,7 +3121,7 @@
     </row>
     <row r="68" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q68" t="s">
         <v>149</v>
@@ -3156,7 +3129,7 @@
     </row>
     <row r="69" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="Q69" t="s">
         <v>150</v>
@@ -3164,7 +3137,7 @@
     </row>
     <row r="70" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q70" t="s">
         <v>204</v>
@@ -3172,7 +3145,7 @@
     </row>
     <row r="71" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q71" t="s">
         <v>205</v>
@@ -3180,7 +3153,7 @@
     </row>
     <row r="72" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q72" t="s">
         <v>206</v>
@@ -3188,7 +3161,7 @@
     </row>
     <row r="73" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Q73" t="s">
         <v>207</v>
@@ -3196,7 +3169,7 @@
     </row>
     <row r="74" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q74" t="s">
         <v>220</v>
@@ -3204,7 +3177,7 @@
     </row>
     <row r="75" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q75" t="s">
         <v>151</v>
@@ -3212,7 +3185,7 @@
     </row>
     <row r="76" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q76" t="s">
         <v>208</v>
@@ -3220,7 +3193,7 @@
     </row>
     <row r="77" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q77" t="s">
         <v>152</v>
@@ -3228,7 +3201,7 @@
     </row>
     <row r="78" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q78" t="s">
         <v>209</v>
@@ -3236,7 +3209,7 @@
     </row>
     <row r="79" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q79" t="s">
         <v>210</v>
@@ -3244,7 +3217,7 @@
     </row>
     <row r="80" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q80" t="s">
         <v>211</v>
@@ -3252,7 +3225,7 @@
     </row>
     <row r="81" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q81" t="s">
         <v>212</v>
@@ -3260,15 +3233,15 @@
     </row>
     <row r="82" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q83" t="s">
         <v>213</v>
@@ -3276,7 +3249,7 @@
     </row>
     <row r="84" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q84" t="s">
         <v>153</v>
@@ -3284,15 +3257,15 @@
     </row>
     <row r="85" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q85" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q86" t="s">
         <v>154</v>
@@ -3300,7 +3273,7 @@
     </row>
     <row r="87" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q87" t="s">
         <v>155</v>
@@ -3308,7 +3281,7 @@
     </row>
     <row r="88" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q88" t="s">
         <v>156</v>
@@ -3316,7 +3289,7 @@
     </row>
     <row r="89" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="Q89" t="s">
         <v>157</v>
@@ -3324,7 +3297,7 @@
     </row>
     <row r="90" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q90" t="s">
         <v>158</v>
@@ -3332,7 +3305,7 @@
     </row>
     <row r="91" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q91" t="s">
         <v>159</v>
@@ -3427,19 +3400,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="9" width="17" style="10" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
@@ -3519,13 +3492,13 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3564,22 +3537,26 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>324</v>
+        <v>423</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>73</v>
+        <v>224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+        <v>419</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>421</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="22"/>
@@ -3590,25 +3567,19 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>402</v>
-      </c>
+      <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>405</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="22"/>
@@ -3621,15 +3592,9 @@
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>406</v>
-      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3642,25 +3607,13 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>407</v>
-      </c>
+      <c r="A8" s="27"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>410</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="22"/>
@@ -3673,15 +3626,9 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>411</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3694,25 +3641,13 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>412</v>
-      </c>
+      <c r="A10" s="27"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>414</v>
-      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="22"/>
@@ -3725,15 +3660,9 @@
     <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>415</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -14961,7 +14890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9181ED10-9988-0343-BFC4-559084ABCD6E}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -15053,13 +14982,13 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>4</v>
@@ -15098,23 +15027,23 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -15135,7 +15064,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -15158,10 +15087,10 @@
         <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -15183,10 +15112,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -15208,7 +15137,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -15231,7 +15160,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -15254,7 +15183,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -15277,7 +15206,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -15292,23 +15221,23 @@
     </row>
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -15326,19 +15255,19 @@
         <v>56</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="22"/>
@@ -15358,13 +15287,13 @@
         <v>75</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -15382,16 +15311,16 @@
         <v>56</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10120"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -208,9 +208,6 @@
     <t>wait(waitMs)</t>
   </si>
   <si>
-    <t>the description of this test scenario goes here…</t>
-  </si>
-  <si>
     <t>your name</t>
   </si>
   <si>
@@ -1271,6 +1268,9 @@
   </si>
   <si>
     <t>${mydb result}</t>
+  </si>
+  <si>
+    <t>Section 1: connect to databse and ask for current time</t>
   </si>
 </sst>
 </file>
@@ -1887,13 +1887,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
         <v>23</v>
@@ -1905,111 +1905,111 @@
         <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
-      <c r="T1" t="s">
-        <v>60</v>
-      </c>
       <c r="U1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" t="s">
         <v>378</v>
       </c>
-      <c r="B2" t="s">
-        <v>379</v>
-      </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2017,31 +2017,31 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -2050,87 +2050,87 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="U3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2138,22 +2138,22 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -2162,28 +2162,28 @@
         <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -2191,16 +2191,16 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -2212,28 +2212,28 @@
         <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -2241,60 +2241,60 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -2303,25 +2303,25 @@
         <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -2329,48 +2329,48 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K9" t="s">
         <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
@@ -2382,16 +2382,16 @@
         <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -2399,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -2411,867 +2411,867 @@
         <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q11" t="s">
+        <v>262</v>
+      </c>
+      <c r="T11" t="s">
         <v>263</v>
       </c>
-      <c r="T11" t="s">
-        <v>264</v>
-      </c>
       <c r="U11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
         <v>46</v>
       </c>
       <c r="Q17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
       <c r="Q19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I20" t="s">
         <v>48</v>
       </c>
       <c r="Q20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Q26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q76" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q85" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q92" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q93" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q98" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="99" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q99" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="17:17" x14ac:dyDescent="0.2">
@@ -3281,22 +3281,22 @@
     </row>
     <row r="104" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3310,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -3372,7 +3372,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -3400,13 +3400,13 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3427,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
@@ -3445,25 +3445,25 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -3481,10 +3481,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10120"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12980" windowWidth="40960" windowHeight="12540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="12540" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12980"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="HelloWorld" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="HelloWorld" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -25,19 +25,19 @@
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$20</definedName>
+    <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$11</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$13</definedName>
+    <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
     <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
     <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$107</definedName>
+    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
     <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
     <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
     <definedName name="ws">'#system'!$T$2:$T$16</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="409">
   <si>
     <t>jira</t>
   </si>
@@ -1271,13 +1271,26 @@
   </si>
   <si>
     <t>Section 1: connect to databse and ask for current time</t>
+  </si>
+  <si>
+    <t>validate(var,profile,inputFile)</t>
+  </si>
+  <si>
+    <t>assertTextNotPresent(text)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,lowerRange,upperRange)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,lower,upper)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1354,8 +1367,312 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1374,8 +1691,484 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1413,148 +2206,1068 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="85">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="13" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="37" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="57" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1588,7 +3301,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1613,10 +3326,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1651,7 +3364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1686,7 +3399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1780,21 +3493,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1811,7 +3524,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1863,26 +3576,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1947,7 +3660,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>377</v>
       </c>
@@ -1985,7 +3698,7 @@
         <v>200</v>
       </c>
       <c r="M2" t="s">
-        <v>319</v>
+        <v>408</v>
       </c>
       <c r="N2" t="s">
         <v>257</v>
@@ -2012,7 +3725,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2047,7 +3760,7 @@
         <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="N3" t="s">
         <v>244</v>
@@ -2074,7 +3787,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2106,7 +3819,7 @@
         <v>89</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
         <v>245</v>
@@ -2133,7 +3846,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2159,7 +3872,7 @@
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
         <v>246</v>
@@ -2186,7 +3899,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2209,7 +3922,7 @@
         <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
         <v>247</v>
@@ -2236,7 +3949,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2259,7 +3972,7 @@
         <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
         <v>248</v>
@@ -2280,7 +3993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -2303,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s">
         <v>249</v>
@@ -2324,7 +4037,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2344,7 +4057,7 @@
         <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" t="s">
         <v>250</v>
@@ -2362,7 +4075,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>337</v>
       </c>
@@ -2379,7 +4092,7 @@
         <v>42</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="N10" t="s">
         <v>251</v>
@@ -2394,7 +4107,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2411,7 +4124,7 @@
         <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
         <v>252</v>
@@ -2426,7 +4139,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -2440,7 +4153,7 @@
         <v>83</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
         <v>253</v>
@@ -2452,7 +4165,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2466,7 +4179,7 @@
         <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N13" t="s">
         <v>258</v>
@@ -2478,7 +4191,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>243</v>
       </c>
@@ -2491,6 +4204,9 @@
       <c r="I14" t="s">
         <v>85</v>
       </c>
+      <c r="M14" t="s">
+        <v>98</v>
+      </c>
       <c r="N14" t="s">
         <v>254</v>
       </c>
@@ -2501,7 +4217,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -2524,7 +4240,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>363</v>
       </c>
@@ -2547,7 +4263,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -2564,7 +4280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -2575,13 +4291,13 @@
         <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>405</v>
       </c>
       <c r="Q18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2592,13 +4308,13 @@
         <v>300</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="Q19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2609,13 +4325,13 @@
         <v>301</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>231</v>
       </c>
@@ -2625,11 +4341,14 @@
       <c r="E21" t="s">
         <v>302</v>
       </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
       <c r="Q21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="C22" t="s">
         <v>229</v>
       </c>
@@ -2640,7 +4359,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="C23" t="s">
         <v>230</v>
       </c>
@@ -2651,7 +4370,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -2662,7 +4381,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>67</v>
       </c>
@@ -2673,7 +4392,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>68</v>
       </c>
@@ -2684,7 +4403,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>69</v>
       </c>
@@ -2695,7 +4414,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -2706,7 +4425,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>71</v>
       </c>
@@ -2717,7 +4436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>72</v>
       </c>
@@ -2728,7 +4447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>73</v>
       </c>
@@ -2739,7 +4458,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>289</v>
       </c>
@@ -2747,7 +4466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>264</v>
       </c>
@@ -2755,7 +4474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>334</v>
       </c>
@@ -2763,7 +4482,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>311</v>
       </c>
@@ -2771,7 +4490,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>265</v>
       </c>
@@ -2779,557 +4498,562 @@
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>312</v>
       </c>
       <c r="Q37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="E38" t="s">
         <v>271</v>
       </c>
       <c r="Q38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="E39" t="s">
         <v>80</v>
       </c>
       <c r="Q39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="E40" t="s">
         <v>216</v>
       </c>
       <c r="Q40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="E41" t="s">
         <v>293</v>
       </c>
       <c r="Q41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="E42" t="s">
         <v>304</v>
       </c>
       <c r="Q42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="E43" t="s">
         <v>305</v>
       </c>
       <c r="Q43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="E44" t="s">
         <v>347</v>
       </c>
       <c r="Q44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="E45" t="s">
         <v>346</v>
       </c>
       <c r="Q45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="E46" t="s">
         <v>215</v>
       </c>
       <c r="Q46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="E47" t="s">
         <v>324</v>
       </c>
       <c r="Q47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="E48" t="s">
         <v>343</v>
       </c>
       <c r="Q48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="E49" t="s">
         <v>374</v>
       </c>
       <c r="Q49" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="E50" t="s">
         <v>306</v>
       </c>
       <c r="Q50" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="E51" t="s">
         <v>360</v>
       </c>
       <c r="Q51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="E52" t="s">
         <v>361</v>
       </c>
       <c r="Q52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="E53" t="s">
         <v>362</v>
       </c>
       <c r="Q53" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="E54" t="s">
         <v>335</v>
       </c>
       <c r="Q54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="E55" t="s">
         <v>272</v>
       </c>
       <c r="Q55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="E56" t="s">
         <v>296</v>
       </c>
       <c r="Q56" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="E57" t="s">
         <v>297</v>
       </c>
       <c r="Q57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="E58" t="s">
         <v>298</v>
       </c>
       <c r="Q58" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="E59" t="s">
         <v>307</v>
       </c>
       <c r="Q59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="E60" t="s">
         <v>316</v>
       </c>
       <c r="Q60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="E61" t="s">
         <v>341</v>
       </c>
       <c r="Q61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="E62" t="s">
         <v>313</v>
       </c>
       <c r="Q62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="E63" t="s">
         <v>314</v>
       </c>
       <c r="Q63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="E64" t="s">
         <v>375</v>
       </c>
       <c r="Q64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="5:17" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="E65" t="s">
         <v>376</v>
       </c>
       <c r="Q65" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="5:17" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="E66" t="s">
         <v>349</v>
       </c>
       <c r="Q66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="5:17" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="E67" t="s">
         <v>317</v>
       </c>
       <c r="Q67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="E68" t="s">
         <v>273</v>
       </c>
       <c r="Q68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="E69" t="s">
         <v>357</v>
       </c>
       <c r="Q69" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="5:17" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="E70" t="s">
         <v>318</v>
       </c>
       <c r="Q70" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="5:17" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="E71" t="s">
         <v>308</v>
       </c>
       <c r="Q71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="5:17" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="E72" t="s">
         <v>266</v>
       </c>
       <c r="Q72" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="5:17" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="E73" t="s">
         <v>348</v>
       </c>
       <c r="Q73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="5:17" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="E74" t="s">
         <v>284</v>
       </c>
       <c r="Q74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="5:17" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="E75" t="s">
         <v>290</v>
       </c>
       <c r="Q75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="5:17" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="E76" t="s">
         <v>295</v>
       </c>
       <c r="Q76" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="5:17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="E77" t="s">
         <v>336</v>
       </c>
       <c r="Q77" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="5:17" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="E78" t="s">
         <v>274</v>
       </c>
       <c r="Q78" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="5:17" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="E79" t="s">
         <v>285</v>
       </c>
       <c r="Q79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="5:17" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="E80" t="s">
         <v>291</v>
       </c>
       <c r="Q80" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="E81" t="s">
         <v>280</v>
       </c>
       <c r="Q81" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="E82" t="s">
         <v>275</v>
       </c>
       <c r="Q82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="E83" t="s">
         <v>292</v>
       </c>
       <c r="Q83" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="E84" t="s">
         <v>276</v>
       </c>
       <c r="Q84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="E85" t="s">
         <v>277</v>
       </c>
       <c r="Q85" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="86" spans="5:17" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="E86" t="s">
         <v>309</v>
       </c>
       <c r="Q86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="E87" t="s">
         <v>315</v>
       </c>
       <c r="Q87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="E88" t="s">
         <v>299</v>
       </c>
       <c r="Q88" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="E89" t="s">
         <v>344</v>
       </c>
       <c r="Q89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="E90" t="s">
         <v>281</v>
       </c>
       <c r="Q90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="E91" t="s">
         <v>282</v>
       </c>
       <c r="Q91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="Q92" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q92" t="s">
+    <row r="93">
+      <c r="Q93" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q93" t="s">
+    <row r="94">
+      <c r="Q94" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q94" t="s">
+    <row r="95">
+      <c r="Q95" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q95" t="s">
+    <row r="96">
+      <c r="Q96" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="Q96" t="s">
+    <row r="97">
+      <c r="Q97" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q97" t="s">
+    <row r="98">
+      <c r="Q98" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q98" t="s">
+    <row r="99">
+      <c r="Q99" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q99" t="s">
+    <row r="100">
+      <c r="Q100" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q100" t="s">
+    <row r="101">
+      <c r="Q101" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q101" t="s">
+    <row r="102">
+      <c r="Q102" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q102" t="s">
+    <row r="103">
+      <c r="Q103" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q103" t="s">
+    <row r="104">
+      <c r="Q104" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q104" t="s">
+    <row r="105">
+      <c r="Q105" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q105" t="s">
+    <row r="106">
+      <c r="Q106" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q106" t="s">
+    <row r="107">
+      <c r="Q107" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q107" t="s">
+    <row r="108">
+      <c r="Q108" t="s">
         <v>173</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A2" pane="bottomLeft" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="17" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="28.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="19.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
@@ -3360,7 +5084,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>404</v>
       </c>
@@ -3381,7 +5105,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3398,7 +5122,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>225</v>
       </c>
@@ -3443,7 +5167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>398</v>
       </c>
@@ -3474,7 +5198,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -3497,7 +5221,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13"/>
@@ -3514,7 +5238,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -3531,7 +5255,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -3548,7 +5272,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -3565,7 +5289,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -3582,7 +5306,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -3599,7 +5323,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -3616,7 +5340,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -3633,7 +5357,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -3650,7 +5374,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -3667,7 +5391,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -3684,7 +5408,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -3701,7 +5425,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -3718,7 +5442,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -3735,7 +5459,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -3752,7 +5476,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -3769,7 +5493,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -3786,7 +5510,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -3803,7 +5527,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -3820,7 +5544,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -3837,7 +5561,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -3854,7 +5578,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -3871,7 +5595,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -3888,7 +5612,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -3905,7 +5629,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -3922,7 +5646,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -3939,7 +5663,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -3956,7 +5680,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -3973,7 +5697,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -3990,7 +5714,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4007,7 +5731,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4024,7 +5748,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4041,7 +5765,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4058,7 +5782,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4075,7 +5799,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4092,7 +5816,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4109,7 +5833,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4126,7 +5850,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4143,7 +5867,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4160,7 +5884,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4177,7 +5901,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4194,7 +5918,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4211,7 +5935,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4228,7 +5952,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4245,7 +5969,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4262,7 +5986,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4279,7 +6003,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4296,7 +6020,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4313,7 +6037,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4330,7 +6054,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4347,7 +6071,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4364,7 +6088,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4381,7 +6105,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4398,7 +6122,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -4415,7 +6139,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -4432,7 +6156,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -4449,7 +6173,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -4466,7 +6190,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -4483,7 +6207,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -4500,7 +6224,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -4517,7 +6241,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -4534,7 +6258,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -4551,7 +6275,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -4568,7 +6292,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -4585,7 +6309,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -4602,7 +6326,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -4619,7 +6343,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -4636,7 +6360,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -4653,7 +6377,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -4670,7 +6394,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -4687,7 +6411,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -4704,7 +6428,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -4721,7 +6445,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -4738,7 +6462,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -4755,7 +6479,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -4772,7 +6496,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -4789,7 +6513,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -4806,7 +6530,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -4823,7 +6547,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -4840,7 +6564,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -4857,7 +6581,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -4874,7 +6598,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -4891,7 +6615,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -4908,7 +6632,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -4925,7 +6649,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -4942,7 +6666,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -4959,7 +6683,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -4976,7 +6700,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -4993,7 +6717,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5010,7 +6734,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5027,7 +6751,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5044,7 +6768,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5061,7 +6785,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5078,7 +6802,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5095,7 +6819,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5112,7 +6836,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5129,7 +6853,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5146,7 +6870,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5163,7 +6887,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5180,7 +6904,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5197,7 +6921,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5214,7 +6938,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5231,7 +6955,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5248,7 +6972,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5265,7 +6989,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5282,7 +7006,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5299,7 +7023,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5316,7 +7040,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5333,7 +7057,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5350,7 +7074,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5367,7 +7091,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5384,7 +7108,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5401,7 +7125,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -5418,7 +7142,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -5435,7 +7159,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -5452,7 +7176,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -5469,7 +7193,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -5486,7 +7210,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -5503,7 +7227,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -5520,7 +7244,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -5537,7 +7261,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -5554,7 +7278,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -5571,7 +7295,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -5588,7 +7312,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -5605,7 +7329,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -5622,7 +7346,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -5639,7 +7363,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -5656,7 +7380,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -5673,7 +7397,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -5690,7 +7414,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -5707,7 +7431,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -5724,7 +7448,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -5741,7 +7465,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -5758,7 +7482,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -5775,7 +7499,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -5792,7 +7516,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -5809,7 +7533,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -5826,7 +7550,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -5843,7 +7567,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -5860,7 +7584,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -5877,7 +7601,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -5894,7 +7618,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -5911,7 +7635,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -5928,7 +7652,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -5945,7 +7669,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -5962,7 +7686,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -5979,7 +7703,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -5996,7 +7720,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6013,7 +7737,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6030,7 +7754,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6047,7 +7771,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6064,7 +7788,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6081,7 +7805,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6098,7 +7822,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6115,7 +7839,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6132,7 +7856,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6149,7 +7873,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6166,7 +7890,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6183,7 +7907,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6200,7 +7924,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6217,7 +7941,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6234,7 +7958,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6251,7 +7975,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6268,7 +7992,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6285,7 +8009,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6302,7 +8026,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6319,7 +8043,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6336,7 +8060,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6353,7 +8077,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6370,7 +8094,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6387,7 +8111,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6404,7 +8128,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -6421,7 +8145,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -6438,7 +8162,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -6455,7 +8179,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -6472,7 +8196,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -6489,7 +8213,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -6506,7 +8230,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -6523,7 +8247,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -6540,7 +8264,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -6557,7 +8281,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -6574,7 +8298,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -6591,7 +8315,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -6608,7 +8332,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -6625,7 +8349,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -6642,7 +8366,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -6659,7 +8383,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -6676,7 +8400,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -6693,7 +8417,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -6710,7 +8434,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -6727,7 +8451,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -6744,7 +8468,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -6761,7 +8485,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -6778,7 +8502,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -6795,7 +8519,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -6812,7 +8536,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -6829,7 +8553,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -6846,7 +8570,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -6863,7 +8587,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -6880,7 +8604,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -6897,7 +8621,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -6914,7 +8638,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -6931,7 +8655,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -6948,7 +8672,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -6965,7 +8689,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -6982,7 +8706,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -6999,7 +8723,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7016,7 +8740,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7033,7 +8757,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7050,7 +8774,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7067,7 +8791,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7084,7 +8808,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7101,7 +8825,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7118,7 +8842,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7135,7 +8859,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7152,7 +8876,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7169,7 +8893,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7186,7 +8910,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7203,7 +8927,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7220,7 +8944,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7237,7 +8961,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7254,7 +8978,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7271,7 +8995,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7288,7 +9012,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7305,7 +9029,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7322,7 +9046,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7339,7 +9063,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7356,7 +9080,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7373,7 +9097,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7390,7 +9114,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7407,7 +9131,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -7424,7 +9148,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -7441,7 +9165,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -7458,7 +9182,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -7475,7 +9199,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -7492,7 +9216,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -7509,7 +9233,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -7526,7 +9250,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -7543,7 +9267,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -7560,7 +9284,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -7577,7 +9301,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -7594,7 +9318,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -7611,7 +9335,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -7628,7 +9352,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -7645,7 +9369,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -7662,7 +9386,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -7679,7 +9403,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -7696,7 +9420,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -7713,7 +9437,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -7730,7 +9454,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -7747,7 +9471,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -7764,7 +9488,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -7781,7 +9505,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -7798,7 +9522,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -7815,7 +9539,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -7832,7 +9556,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -7849,7 +9573,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -7866,7 +9590,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -7883,7 +9607,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -7900,7 +9624,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -7917,7 +9641,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -7934,7 +9658,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -7951,7 +9675,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -7968,7 +9692,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -7985,7 +9709,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8002,7 +9726,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8019,7 +9743,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8036,7 +9760,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8053,7 +9777,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8070,7 +9794,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8087,7 +9811,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8104,7 +9828,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8121,7 +9845,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8138,7 +9862,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8155,7 +9879,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8172,7 +9896,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8189,7 +9913,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8206,7 +9930,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8223,7 +9947,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8240,7 +9964,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8257,7 +9981,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8274,7 +9998,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8291,7 +10015,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8308,7 +10032,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8325,7 +10049,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8342,7 +10066,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8359,7 +10083,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8376,7 +10100,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8393,7 +10117,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8410,7 +10134,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -8427,7 +10151,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -8444,7 +10168,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -8461,7 +10185,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -8478,7 +10202,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -8495,7 +10219,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -8512,7 +10236,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -8529,7 +10253,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -8546,7 +10270,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -8563,7 +10287,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -8580,7 +10304,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -8597,7 +10321,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -8614,7 +10338,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -8631,7 +10355,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -8648,7 +10372,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -8665,7 +10389,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -8682,7 +10406,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -8699,7 +10423,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -8716,7 +10440,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -8733,7 +10457,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -8750,7 +10474,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -8767,7 +10491,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -8784,7 +10508,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -8801,7 +10525,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -8818,7 +10542,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -8835,7 +10559,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -8852,7 +10576,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -8869,7 +10593,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -8886,7 +10610,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -8903,7 +10627,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -8920,7 +10644,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -8937,7 +10661,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -8954,7 +10678,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -8971,7 +10695,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -8988,7 +10712,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9005,7 +10729,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9022,7 +10746,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9039,7 +10763,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9056,7 +10780,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9073,7 +10797,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9090,7 +10814,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9107,7 +10831,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9124,7 +10848,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9141,7 +10865,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9158,7 +10882,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9175,7 +10899,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9192,7 +10916,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9209,7 +10933,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9226,7 +10950,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9243,7 +10967,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9260,7 +10984,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9277,7 +11001,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9294,7 +11018,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9311,7 +11035,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9328,7 +11052,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9345,7 +11069,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9362,7 +11086,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9379,7 +11103,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9396,7 +11120,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -9413,7 +11137,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -9430,7 +11154,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -9447,7 +11171,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -9464,7 +11188,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -9481,7 +11205,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -9498,7 +11222,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -9515,7 +11239,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -9532,7 +11256,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -9549,7 +11273,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -9566,7 +11290,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -9583,7 +11307,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -9600,7 +11324,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -9617,7 +11341,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -9634,7 +11358,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -9651,7 +11375,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -9668,7 +11392,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -9685,7 +11409,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -9702,7 +11426,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -9719,7 +11443,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -9736,7 +11460,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -9753,7 +11477,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -9770,7 +11494,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -9787,7 +11511,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -9804,7 +11528,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -9821,7 +11545,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -9838,7 +11562,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -9855,7 +11579,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -9872,7 +11596,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -9889,7 +11613,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -9906,7 +11630,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -9923,7 +11647,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -9940,7 +11664,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -9957,7 +11681,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -9974,7 +11698,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -9991,7 +11715,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10008,7 +11732,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10025,7 +11749,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10042,7 +11766,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10059,7 +11783,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10076,7 +11800,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10093,7 +11817,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10110,7 +11834,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10127,7 +11851,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10144,7 +11868,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10161,7 +11885,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10178,7 +11902,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10195,7 +11919,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10212,7 +11936,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10229,7 +11953,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10246,7 +11970,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10263,7 +11987,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10280,7 +12004,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10297,7 +12021,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10314,7 +12038,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10331,7 +12055,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10348,7 +12072,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10365,7 +12089,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10382,7 +12106,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10399,7 +12123,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -10416,7 +12140,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -10433,7 +12157,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -10450,7 +12174,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -10467,7 +12191,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -10484,7 +12208,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -10501,7 +12225,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -10518,7 +12242,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -10535,7 +12259,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -10552,7 +12276,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -10569,7 +12293,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -10586,7 +12310,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -10603,7 +12327,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -10620,7 +12344,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -10637,7 +12361,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -10654,7 +12378,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -10671,7 +12395,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -10688,7 +12412,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -10705,7 +12429,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -10722,7 +12446,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -10739,7 +12463,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -10756,7 +12480,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -10773,7 +12497,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -10790,7 +12514,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -10807,7 +12531,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -10824,7 +12548,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -10841,7 +12565,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -10858,7 +12582,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -10875,7 +12599,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -10892,7 +12616,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -10909,7 +12633,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -10926,7 +12650,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -10943,7 +12667,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -10960,7 +12684,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -10977,7 +12701,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -10994,7 +12718,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11011,7 +12735,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11028,7 +12752,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11045,7 +12769,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11062,7 +12786,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11079,7 +12803,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11096,7 +12820,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11113,7 +12837,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11130,7 +12854,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11147,7 +12871,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11164,7 +12888,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11181,7 +12905,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11198,7 +12922,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11215,7 +12939,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11232,7 +12956,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11249,7 +12973,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11266,7 +12990,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11283,7 +13007,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11300,7 +13024,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11317,7 +13041,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11334,7 +13058,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11351,7 +13075,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11368,7 +13092,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11385,7 +13109,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11402,7 +13126,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -11419,7 +13143,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -11436,7 +13160,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -11453,7 +13177,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -11470,7 +13194,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -11487,7 +13211,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -11504,7 +13228,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -11521,7 +13245,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -11538,7 +13262,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -11555,7 +13279,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -11572,7 +13296,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -11589,7 +13313,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -11606,7 +13330,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -11623,7 +13347,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -11640,7 +13364,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -11657,7 +13381,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -11674,7 +13398,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -11691,7 +13415,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -11708,7 +13432,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -11725,7 +13449,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -11742,7 +13466,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -11759,7 +13483,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -11776,7 +13500,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -11793,7 +13517,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -11810,7 +13534,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -11827,7 +13551,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -11844,7 +13568,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -11861,7 +13585,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -11878,7 +13602,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -11895,7 +13619,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -11912,7 +13636,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -11929,7 +13653,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -11946,7 +13670,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -11963,7 +13687,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -11980,7 +13704,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -11997,7 +13721,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12014,7 +13738,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12031,7 +13755,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12048,7 +13772,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12065,7 +13789,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12082,7 +13806,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12099,7 +13823,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12116,7 +13840,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12133,7 +13857,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12150,7 +13874,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12167,7 +13891,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12184,7 +13908,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12201,7 +13925,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12218,7 +13942,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12235,7 +13959,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12252,7 +13976,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12269,7 +13993,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12286,7 +14010,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12303,7 +14027,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12320,7 +14044,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12337,7 +14061,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12354,7 +14078,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12371,7 +14095,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12388,7 +14112,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12405,7 +14129,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -12422,7 +14146,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -12439,7 +14163,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -12456,7 +14180,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -12473,7 +14197,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -12490,7 +14214,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -12507,7 +14231,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -12524,7 +14248,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -12541,7 +14265,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -12558,7 +14282,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -12575,7 +14299,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -12592,7 +14316,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -12609,7 +14333,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -12626,7 +14350,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -12643,7 +14367,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -12660,7 +14384,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -12677,7 +14401,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -12694,7 +14418,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -12711,7 +14435,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -12728,7 +14452,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -12745,7 +14469,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -12762,7 +14486,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -12779,7 +14503,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -12796,7 +14520,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -12813,7 +14537,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -12830,7 +14554,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -12847,7 +14571,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -12864,7 +14588,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -12881,7 +14605,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -12898,7 +14622,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -12915,7 +14639,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -12932,7 +14656,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -12949,7 +14673,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -12966,7 +14690,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -12983,7 +14707,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13000,7 +14724,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13017,7 +14741,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13034,7 +14758,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13051,7 +14775,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13068,7 +14792,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13085,7 +14809,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13102,7 +14826,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13119,7 +14843,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13136,7 +14860,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13153,7 +14877,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13170,7 +14894,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13187,7 +14911,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13204,7 +14928,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13221,7 +14945,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13238,7 +14962,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13255,7 +14979,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13272,7 +14996,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13289,7 +15013,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13306,7 +15030,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13323,7 +15047,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13340,7 +15064,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13357,7 +15081,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13374,7 +15098,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13391,7 +15115,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13408,7 +15132,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -13425,7 +15149,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -13442,7 +15166,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -13459,7 +15183,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -13476,7 +15200,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -13493,7 +15217,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -13510,7 +15234,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -13527,7 +15251,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -13544,7 +15268,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -13561,7 +15285,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -13578,7 +15302,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -13595,7 +15319,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -13612,7 +15336,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -13629,7 +15353,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -13646,7 +15370,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -13663,7 +15387,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -13680,7 +15404,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -13697,7 +15421,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -13714,7 +15438,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -13731,7 +15455,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -13748,7 +15472,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -13765,7 +15489,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -13782,7 +15506,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -13799,7 +15523,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -13816,7 +15540,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -13833,7 +15557,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -13850,7 +15574,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -13867,7 +15591,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -13884,7 +15608,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -13901,7 +15625,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -13918,7 +15642,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -13935,7 +15659,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -13952,7 +15676,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -13969,7 +15693,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -13986,7 +15710,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14003,7 +15727,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14020,7 +15744,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14037,7 +15761,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14054,7 +15778,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14071,7 +15795,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14088,7 +15812,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14105,7 +15829,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14122,7 +15846,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14139,7 +15863,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14156,7 +15880,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14173,7 +15897,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14190,7 +15914,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14207,7 +15931,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14224,7 +15948,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14241,7 +15965,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14258,7 +15982,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14275,7 +15999,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14292,7 +16016,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14309,7 +16033,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14326,7 +16050,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14343,7 +16067,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14360,7 +16084,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14377,7 +16101,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14394,7 +16118,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -14411,360 +16135,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -14772,24 +16496,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="12540" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12980"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="12540" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12980" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -36,12 +36,13 @@
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
     <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$21</definedName>
-    <definedName name="web">'#system'!$Q$2:$Q$108</definedName>
-    <definedName name="webalert">'#system'!$R$2:$R$6</definedName>
-    <definedName name="webcookie">'#system'!$S$2:$S$8</definedName>
-    <definedName name="ws">'#system'!$T$2:$T$16</definedName>
-    <definedName name="xml">'#system'!$U$2:$U$11</definedName>
+    <definedName name="target">'#system'!$A$2:$A$22</definedName>
+    <definedName name="web">'#system'!$R$2:$R$108</definedName>
+    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
+    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
+    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
+    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
+    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="415">
   <si>
     <t>jira</t>
   </si>
@@ -1283,6 +1284,24 @@
   </si>
   <si>
     <t>assertBetween(num,lower,upper)</t>
+  </si>
+  <si>
+    <t>story / feature</t>
+  </si>
+  <si>
+    <t>test id</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>observe(prompt)</t>
+  </si>
+  <si>
+    <t>perform(instructions)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses)</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1309,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1671,8 +1690,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="88">
+  <fills count="109">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2167,8 +2262,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="83">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -2982,6 +3196,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2989,7 +3397,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3226,40 +3634,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3584,9 +4028,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3645,18 +4089,21 @@
         <v>363</v>
       </c>
       <c r="Q1" t="s">
+        <v>411</v>
+      </c>
+      <c r="R1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3710,18 +4157,21 @@
         <v>387</v>
       </c>
       <c r="Q2" t="s">
+        <v>412</v>
+      </c>
+      <c r="R2" t="s">
         <v>99</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>174</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>179</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>186</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3772,18 +4222,21 @@
         <v>388</v>
       </c>
       <c r="Q3" t="s">
+        <v>413</v>
+      </c>
+      <c r="R3" t="s">
         <v>100</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>175</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>180</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>370</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3831,18 +4284,21 @@
         <v>364</v>
       </c>
       <c r="Q4" t="s">
+        <v>414</v>
+      </c>
+      <c r="R4" t="s">
         <v>358</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>176</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>181</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>187</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3883,19 +4339,19 @@
       <c r="P5" t="s">
         <v>365</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>359</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>177</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>182</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>188</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3933,19 +4389,19 @@
       <c r="P6" t="s">
         <v>367</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>101</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>178</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>183</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>189</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3980,16 +4436,16 @@
       <c r="P7" t="s">
         <v>366</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>102</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>184</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>190</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4024,16 +4480,16 @@
       <c r="P8" t="s">
         <v>368</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>103</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>185</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>191</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4065,13 +4521,13 @@
       <c r="P9" t="s">
         <v>369</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>213</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>192</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4097,13 +4553,13 @@
       <c r="N10" t="s">
         <v>251</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>261</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>193</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4129,13 +4585,13 @@
       <c r="N11" t="s">
         <v>252</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>262</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>263</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4158,10 +4614,10 @@
       <c r="N12" t="s">
         <v>253</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>104</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4184,10 +4640,10 @@
       <c r="N13" t="s">
         <v>258</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>330</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4210,10 +4666,10 @@
       <c r="N14" t="s">
         <v>254</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>105</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4233,10 +4689,10 @@
       <c r="N15" t="s">
         <v>255</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>106</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4256,16 +4712,16 @@
       <c r="N16" t="s">
         <v>256</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>77</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -4276,13 +4732,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>260</v>
@@ -4293,13 +4749,13 @@
       <c r="I18" t="s">
         <v>405</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -4310,13 +4766,13 @@
       <c r="I19" t="s">
         <v>87</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
         <v>325</v>
@@ -4327,13 +4783,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -4344,18 +4800,21 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="s">
+        <v>231</v>
+      </c>
       <c r="C22" t="s">
         <v>229</v>
       </c>
       <c r="E22" t="s">
         <v>303</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4366,7 +4825,7 @@
       <c r="E23" t="s">
         <v>294</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4377,7 +4836,7 @@
       <c r="E24" t="s">
         <v>283</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4388,7 +4847,7 @@
       <c r="E25" t="s">
         <v>78</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4399,7 +4858,7 @@
       <c r="E26" t="s">
         <v>286</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4410,7 +4869,7 @@
       <c r="E27" t="s">
         <v>270</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4421,7 +4880,7 @@
       <c r="E28" t="s">
         <v>287</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4432,7 +4891,7 @@
       <c r="E29" t="s">
         <v>288</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4443,7 +4902,7 @@
       <c r="E30" t="s">
         <v>220</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4454,7 +4913,7 @@
       <c r="E31" t="s">
         <v>279</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4462,7 +4921,7 @@
       <c r="E32" t="s">
         <v>289</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4470,7 +4929,7 @@
       <c r="E33" t="s">
         <v>264</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4478,7 +4937,7 @@
       <c r="E34" t="s">
         <v>334</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4486,7 +4945,7 @@
       <c r="E35" t="s">
         <v>311</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4494,7 +4953,7 @@
       <c r="E36" t="s">
         <v>265</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4502,7 +4961,7 @@
       <c r="E37" t="s">
         <v>312</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4510,7 +4969,7 @@
       <c r="E38" t="s">
         <v>271</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4518,7 +4977,7 @@
       <c r="E39" t="s">
         <v>80</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4526,7 +4985,7 @@
       <c r="E40" t="s">
         <v>216</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4534,7 +4993,7 @@
       <c r="E41" t="s">
         <v>293</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4542,7 +5001,7 @@
       <c r="E42" t="s">
         <v>304</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4550,7 +5009,7 @@
       <c r="E43" t="s">
         <v>305</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4558,7 +5017,7 @@
       <c r="E44" t="s">
         <v>347</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4566,7 +5025,7 @@
       <c r="E45" t="s">
         <v>346</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4574,7 +5033,7 @@
       <c r="E46" t="s">
         <v>215</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4582,7 +5041,7 @@
       <c r="E47" t="s">
         <v>324</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4590,7 +5049,7 @@
       <c r="E48" t="s">
         <v>343</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4598,7 +5057,7 @@
       <c r="E49" t="s">
         <v>374</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4606,7 +5065,7 @@
       <c r="E50" t="s">
         <v>306</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4614,7 +5073,7 @@
       <c r="E51" t="s">
         <v>360</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4622,7 +5081,7 @@
       <c r="E52" t="s">
         <v>361</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4630,7 +5089,7 @@
       <c r="E53" t="s">
         <v>362</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4638,7 +5097,7 @@
       <c r="E54" t="s">
         <v>335</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4646,7 +5105,7 @@
       <c r="E55" t="s">
         <v>272</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4654,7 +5113,7 @@
       <c r="E56" t="s">
         <v>296</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4662,7 +5121,7 @@
       <c r="E57" t="s">
         <v>297</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4670,7 +5129,7 @@
       <c r="E58" t="s">
         <v>298</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4678,7 +5137,7 @@
       <c r="E59" t="s">
         <v>307</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4686,7 +5145,7 @@
       <c r="E60" t="s">
         <v>316</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4694,7 +5153,7 @@
       <c r="E61" t="s">
         <v>341</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4702,7 +5161,7 @@
       <c r="E62" t="s">
         <v>313</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4710,7 +5169,7 @@
       <c r="E63" t="s">
         <v>314</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4718,7 +5177,7 @@
       <c r="E64" t="s">
         <v>375</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4726,7 +5185,7 @@
       <c r="E65" t="s">
         <v>376</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4734,7 +5193,7 @@
       <c r="E66" t="s">
         <v>349</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4742,7 +5201,7 @@
       <c r="E67" t="s">
         <v>317</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4750,7 +5209,7 @@
       <c r="E68" t="s">
         <v>273</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4758,7 +5217,7 @@
       <c r="E69" t="s">
         <v>357</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4766,7 +5225,7 @@
       <c r="E70" t="s">
         <v>318</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4774,7 +5233,7 @@
       <c r="E71" t="s">
         <v>308</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4782,7 +5241,7 @@
       <c r="E72" t="s">
         <v>266</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4790,7 +5249,7 @@
       <c r="E73" t="s">
         <v>348</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4798,7 +5257,7 @@
       <c r="E74" t="s">
         <v>284</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4806,7 +5265,7 @@
       <c r="E75" t="s">
         <v>290</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4814,7 +5273,7 @@
       <c r="E76" t="s">
         <v>295</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4822,7 +5281,7 @@
       <c r="E77" t="s">
         <v>336</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4830,7 +5289,7 @@
       <c r="E78" t="s">
         <v>274</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4838,7 +5297,7 @@
       <c r="E79" t="s">
         <v>285</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4846,7 +5305,7 @@
       <c r="E80" t="s">
         <v>291</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4854,7 +5313,7 @@
       <c r="E81" t="s">
         <v>280</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4862,7 +5321,7 @@
       <c r="E82" t="s">
         <v>275</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4870,7 +5329,7 @@
       <c r="E83" t="s">
         <v>292</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4878,7 +5337,7 @@
       <c r="E84" t="s">
         <v>276</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4886,7 +5345,7 @@
       <c r="E85" t="s">
         <v>277</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4894,7 +5353,7 @@
       <c r="E86" t="s">
         <v>309</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4902,7 +5361,7 @@
       <c r="E87" t="s">
         <v>315</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4910,7 +5369,7 @@
       <c r="E88" t="s">
         <v>299</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4918,7 +5377,7 @@
       <c r="E89" t="s">
         <v>344</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4926,7 +5385,7 @@
       <c r="E90" t="s">
         <v>281</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4934,92 +5393,92 @@
       <c r="E91" t="s">
         <v>282</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92">
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="93">
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="94">
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="95">
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="96">
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="97">
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="98">
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="99">
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="100">
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="101">
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="102">
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="103">
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="104">
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="106">
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="107">
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="108">
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>173</v>
       </c>
     </row>
@@ -5032,9 +5491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2:D2"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5067,10 +5526,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>21</v>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="12540" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12980" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12540" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="12980"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -21,7 +21,7 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -35,14 +35,15 @@
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
-    <definedName name="ssh">'#system'!$P$2:$P$9</definedName>
-    <definedName name="target">'#system'!$A$2:$A$22</definedName>
-    <definedName name="web">'#system'!$R$2:$R$108</definedName>
-    <definedName name="webalert">'#system'!$S$2:$S$6</definedName>
-    <definedName name="webcookie">'#system'!$T$2:$T$8</definedName>
-    <definedName name="ws">'#system'!$U$2:$U$16</definedName>
-    <definedName name="xml">'#system'!$V$2:$V$11</definedName>
-    <definedName name="step">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
+    <definedName name="target">'#system'!$A$2:$A$23</definedName>
+    <definedName name="web">'#system'!$S$2:$S$108</definedName>
+    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
+    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
+    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
+    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="step">'#system'!$R$2:$R$4</definedName>
+    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
   </definedNames>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="426">
   <si>
     <t>jira</t>
   </si>
@@ -1302,6 +1303,39 @@
   </si>
   <si>
     <t>validate(prompt,responses,passResponses)</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow)</t>
+  </si>
+  <si>
+    <t>append(profile,key,value)</t>
+  </si>
+  <si>
+    <t>assertKeyExists(profile,key)</t>
+  </si>
+  <si>
+    <t>delete(profile,key)</t>
+  </si>
+  <si>
+    <t>flushAll(profile)</t>
+  </si>
+  <si>
+    <t>flushDb(profile)</t>
+  </si>
+  <si>
+    <t>rename(profile,current,new)</t>
+  </si>
+  <si>
+    <t>set(profile,key,value)</t>
+  </si>
+  <si>
+    <t>store(var,profile,key)</t>
+  </si>
+  <si>
+    <t>storeKeys(var,profile,keyPattern)</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1343,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1766,8 +1800,84 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="109">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2381,8 +2491,127 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="103">
+  <borders count="123">
     <border>
       <left/>
       <right/>
@@ -3390,6 +3619,200 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3397,7 +3820,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3670,40 +4093,76 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="99" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="99" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="111" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="123" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4028,9 +4487,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4086,24 +4545,27 @@
         <v>55</v>
       </c>
       <c r="P1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q1" t="s">
         <v>363</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4154,24 +4616,27 @@
         <v>221</v>
       </c>
       <c r="P2" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q2" t="s">
         <v>387</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>412</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>99</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>174</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>179</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>186</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4219,24 +4684,27 @@
         <v>222</v>
       </c>
       <c r="P3" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q3" t="s">
         <v>388</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>413</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>100</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>175</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>180</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>370</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4281,24 +4749,27 @@
         <v>223</v>
       </c>
       <c r="P4" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q4" t="s">
         <v>364</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>414</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>358</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>176</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>181</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>187</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4337,21 +4808,24 @@
         <v>224</v>
       </c>
       <c r="P5" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q5" t="s">
         <v>365</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>359</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>177</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>182</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>188</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4387,21 +4861,24 @@
         <v>397</v>
       </c>
       <c r="P6" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q6" t="s">
         <v>367</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>101</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>178</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>183</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>189</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4434,18 +4911,21 @@
         <v>248</v>
       </c>
       <c r="P7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q7" t="s">
         <v>366</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>102</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>184</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>190</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4478,18 +4958,21 @@
         <v>249</v>
       </c>
       <c r="P8" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q8" t="s">
         <v>368</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>103</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>185</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>191</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4519,15 +5002,18 @@
         <v>250</v>
       </c>
       <c r="P9" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q9" t="s">
         <v>369</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>213</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>192</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4553,13 +5039,16 @@
       <c r="N10" t="s">
         <v>251</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P10" t="s">
+        <v>425</v>
+      </c>
+      <c r="S10" t="s">
         <v>261</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>193</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4585,13 +5074,13 @@
       <c r="N11" t="s">
         <v>252</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>262</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>263</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4614,10 +5103,10 @@
       <c r="N12" t="s">
         <v>253</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>104</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4640,10 +5129,10 @@
       <c r="N13" t="s">
         <v>258</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>330</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4666,10 +5155,10 @@
       <c r="N14" t="s">
         <v>254</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>105</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4689,16 +5178,16 @@
       <c r="N15" t="s">
         <v>255</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>106</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -4712,16 +5201,16 @@
       <c r="N16" t="s">
         <v>256</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>77</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
         <v>63</v>
@@ -4732,13 +5221,13 @@
       <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>411</v>
       </c>
       <c r="C18" t="s">
         <v>260</v>
@@ -4749,13 +5238,13 @@
       <c r="I18" t="s">
         <v>405</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -4766,13 +5255,13 @@
       <c r="I19" t="s">
         <v>87</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>325</v>
@@ -4783,13 +5272,13 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
@@ -4800,13 +5289,13 @@
       <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>229</v>
@@ -4814,18 +5303,21 @@
       <c r="E22" t="s">
         <v>303</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="s">
+        <v>231</v>
+      </c>
       <c r="C23" t="s">
         <v>230</v>
       </c>
       <c r="E23" t="s">
         <v>294</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4836,7 +5328,7 @@
       <c r="E24" t="s">
         <v>283</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4847,7 +5339,7 @@
       <c r="E25" t="s">
         <v>78</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4858,7 +5350,7 @@
       <c r="E26" t="s">
         <v>286</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4869,7 +5361,7 @@
       <c r="E27" t="s">
         <v>270</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4880,7 +5372,7 @@
       <c r="E28" t="s">
         <v>287</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4891,7 +5383,7 @@
       <c r="E29" t="s">
         <v>288</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4902,7 +5394,7 @@
       <c r="E30" t="s">
         <v>220</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4913,7 +5405,7 @@
       <c r="E31" t="s">
         <v>279</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4921,7 +5413,7 @@
       <c r="E32" t="s">
         <v>289</v>
       </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4929,7 +5421,7 @@
       <c r="E33" t="s">
         <v>264</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4937,7 +5429,7 @@
       <c r="E34" t="s">
         <v>334</v>
       </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4945,7 +5437,7 @@
       <c r="E35" t="s">
         <v>311</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4953,7 +5445,7 @@
       <c r="E36" t="s">
         <v>265</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4961,7 +5453,7 @@
       <c r="E37" t="s">
         <v>312</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>406</v>
       </c>
     </row>
@@ -4969,7 +5461,7 @@
       <c r="E38" t="s">
         <v>271</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4977,7 +5469,7 @@
       <c r="E39" t="s">
         <v>80</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4985,7 +5477,7 @@
       <c r="E40" t="s">
         <v>216</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4993,7 +5485,7 @@
       <c r="E41" t="s">
         <v>293</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5001,7 +5493,7 @@
       <c r="E42" t="s">
         <v>304</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5009,7 +5501,7 @@
       <c r="E43" t="s">
         <v>305</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5017,7 +5509,7 @@
       <c r="E44" t="s">
         <v>347</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5025,7 +5517,7 @@
       <c r="E45" t="s">
         <v>346</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>79</v>
       </c>
     </row>
@@ -5033,7 +5525,7 @@
       <c r="E46" t="s">
         <v>215</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5041,7 +5533,7 @@
       <c r="E47" t="s">
         <v>324</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5049,7 +5541,7 @@
       <c r="E48" t="s">
         <v>343</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5057,7 +5549,7 @@
       <c r="E49" t="s">
         <v>374</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5065,7 +5557,7 @@
       <c r="E50" t="s">
         <v>306</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5073,412 +5565,409 @@
       <c r="E51" t="s">
         <v>360</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>361</v>
-      </c>
-      <c r="R52" t="s">
+        <v>335</v>
+      </c>
+      <c r="S52" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>362</v>
-      </c>
-      <c r="R53" t="s">
+        <v>272</v>
+      </c>
+      <c r="S53" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>335</v>
-      </c>
-      <c r="R54" t="s">
+        <v>296</v>
+      </c>
+      <c r="S54" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>272</v>
-      </c>
-      <c r="R55" t="s">
+        <v>297</v>
+      </c>
+      <c r="S55" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>296</v>
-      </c>
-      <c r="R56" t="s">
+        <v>298</v>
+      </c>
+      <c r="S56" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>297</v>
-      </c>
-      <c r="R57" t="s">
+        <v>307</v>
+      </c>
+      <c r="S57" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>298</v>
-      </c>
-      <c r="R58" t="s">
+        <v>316</v>
+      </c>
+      <c r="S58" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>307</v>
-      </c>
-      <c r="R59" t="s">
+        <v>341</v>
+      </c>
+      <c r="S59" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>316</v>
-      </c>
-      <c r="R60" t="s">
+        <v>313</v>
+      </c>
+      <c r="S60" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
-        <v>341</v>
-      </c>
-      <c r="R61" t="s">
+        <v>314</v>
+      </c>
+      <c r="S61" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
-        <v>313</v>
-      </c>
-      <c r="R62" t="s">
+        <v>375</v>
+      </c>
+      <c r="S62" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>314</v>
-      </c>
-      <c r="R63" t="s">
+        <v>376</v>
+      </c>
+      <c r="S63" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>375</v>
-      </c>
-      <c r="R64" t="s">
+        <v>349</v>
+      </c>
+      <c r="S64" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>376</v>
-      </c>
-      <c r="R65" t="s">
+        <v>317</v>
+      </c>
+      <c r="S65" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>349</v>
-      </c>
-      <c r="R66" t="s">
+        <v>273</v>
+      </c>
+      <c r="S66" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>317</v>
-      </c>
-      <c r="R67" t="s">
+        <v>357</v>
+      </c>
+      <c r="S67" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>273</v>
-      </c>
-      <c r="R68" t="s">
+        <v>318</v>
+      </c>
+      <c r="S68" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>357</v>
-      </c>
-      <c r="R69" t="s">
+        <v>308</v>
+      </c>
+      <c r="S69" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>318</v>
-      </c>
-      <c r="R70" t="s">
+        <v>416</v>
+      </c>
+      <c r="S70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>308</v>
-      </c>
-      <c r="R71" t="s">
+        <v>266</v>
+      </c>
+      <c r="S71" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>266</v>
-      </c>
-      <c r="R72" t="s">
+        <v>348</v>
+      </c>
+      <c r="S72" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>348</v>
-      </c>
-      <c r="R73" t="s">
+        <v>284</v>
+      </c>
+      <c r="S73" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>284</v>
-      </c>
-      <c r="R74" t="s">
+        <v>290</v>
+      </c>
+      <c r="S74" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>290</v>
-      </c>
-      <c r="R75" t="s">
+        <v>295</v>
+      </c>
+      <c r="S75" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>295</v>
-      </c>
-      <c r="R76" t="s">
+        <v>336</v>
+      </c>
+      <c r="S76" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>336</v>
-      </c>
-      <c r="R77" t="s">
+        <v>274</v>
+      </c>
+      <c r="S77" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>274</v>
-      </c>
-      <c r="R78" t="s">
+        <v>285</v>
+      </c>
+      <c r="S78" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>285</v>
-      </c>
-      <c r="R79" t="s">
+        <v>291</v>
+      </c>
+      <c r="S79" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>291</v>
-      </c>
-      <c r="R80" t="s">
+        <v>280</v>
+      </c>
+      <c r="S80" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>280</v>
-      </c>
-      <c r="R81" t="s">
+        <v>275</v>
+      </c>
+      <c r="S81" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>275</v>
-      </c>
-      <c r="R82" t="s">
+        <v>292</v>
+      </c>
+      <c r="S82" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>292</v>
-      </c>
-      <c r="R83" t="s">
+        <v>276</v>
+      </c>
+      <c r="S83" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>276</v>
-      </c>
-      <c r="R84" t="s">
+        <v>277</v>
+      </c>
+      <c r="S84" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>277</v>
-      </c>
-      <c r="R85" t="s">
+        <v>309</v>
+      </c>
+      <c r="S85" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>309</v>
-      </c>
-      <c r="R86" t="s">
+        <v>315</v>
+      </c>
+      <c r="S86" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>315</v>
-      </c>
-      <c r="R87" t="s">
+        <v>299</v>
+      </c>
+      <c r="S87" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>299</v>
-      </c>
-      <c r="R88" t="s">
+        <v>344</v>
+      </c>
+      <c r="S88" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>344</v>
-      </c>
-      <c r="R89" t="s">
+        <v>281</v>
+      </c>
+      <c r="S89" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>281</v>
-      </c>
-      <c r="R90" t="s">
+        <v>282</v>
+      </c>
+      <c r="S90" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
-        <v>282</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="92">
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="93">
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="94">
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="95">
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="96">
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="97">
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="98">
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="99">
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="100">
-      <c r="R100" t="s">
+      <c r="S100" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="101">
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="102">
-      <c r="R102" t="s">
+      <c r="S102" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="103">
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="104">
-      <c r="R104" t="s">
+      <c r="S104" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="105">
-      <c r="R105" t="s">
+      <c r="S105" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="106">
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="107">
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="108">
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>173</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C317A6-BC0C-F241-B98E-3F2CE59ACA41}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6A64F9-1C11-1847-8713-AAA7EC4C5895}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-10280" windowWidth="33600" windowHeight="10280" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7300" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -3450,7 +3450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6A64F9-1C11-1847-8713-AAA7EC4C5895}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12589661-3B7F-1348-A0B8-114297A7F940}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7300" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3450,7 +3450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10416"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12589661-3B7F-1348-A0B8-114297A7F940}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{12589661-3B7F-1348-A0B8-114297A7F940}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7300" windowWidth="33600" windowHeight="13700" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="7300" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="HelloWorld" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="HelloWorld" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$31</definedName>
+    <definedName name="base">'#system'!$C$2:$C$32</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -35,16 +35,17 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$M$2:$M$14</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$6</definedName>
+    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$Q$2:$Q$9</definedName>
-    <definedName name="step">'#system'!$R$2:$R$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$23</definedName>
-    <definedName name="web">'#system'!$S$2:$S$108</definedName>
-    <definedName name="webalert">'#system'!$T$2:$T$6</definedName>
-    <definedName name="webcookie">'#system'!$U$2:$U$8</definedName>
-    <definedName name="ws">'#system'!$V$2:$V$16</definedName>
-    <definedName name="xml">'#system'!$W$2:$W$11</definedName>
+    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
+    <definedName name="step">'#system'!$S$2:$S$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$24</definedName>
+    <definedName name="web">'#system'!$T$2:$T$108</definedName>
+    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
+    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
+    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
+    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="432">
   <si>
     <t>description</t>
   </si>
@@ -1349,12 +1350,37 @@
   <si>
     <t>print 'RIGHT_NOW'</t>
   </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>clear(vars)</t>
+  </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>send(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
+  <si>
+    <t>saveResults(db,sqls,outputDir)</t>
+  </si>
+  <si>
+    <t>lazer(repeats)</t>
+  </si>
+  <si>
+    <t>warp(repeats)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1438,8 +1464,84 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1458,8 +1560,127 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1497,148 +1718,378 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1672,7 +2123,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1697,10 +2148,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1735,7 +2186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1770,7 +2221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1864,21 +2315,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1895,7 +2346,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1947,26 +2398,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2016,28 +2467,31 @@
         <v>410</v>
       </c>
       <c r="Q1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R1" t="s">
         <v>359</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>406</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>55</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>56</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>57</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -2072,10 +2526,10 @@
         <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>198</v>
+        <v>427</v>
       </c>
       <c r="M2" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="N2" t="s">
         <v>255</v>
@@ -2087,28 +2541,31 @@
         <v>412</v>
       </c>
       <c r="Q2" t="s">
+        <v>430</v>
+      </c>
+      <c r="R2" t="s">
         <v>383</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>407</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>97</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>172</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>177</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>184</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2155,28 +2612,31 @@
         <v>413</v>
       </c>
       <c r="Q3" t="s">
+        <v>431</v>
+      </c>
+      <c r="R3" t="s">
         <v>384</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>408</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>98</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>173</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>178</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>366</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2219,29 +2679,29 @@
       <c r="P4" t="s">
         <v>414</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>360</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>409</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>356</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>174</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>179</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>185</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2278,26 +2738,26 @@
       <c r="P5" t="s">
         <v>415</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>361</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>357</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>175</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>180</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>186</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2331,26 +2791,26 @@
       <c r="P6" t="s">
         <v>416</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>363</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>99</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>176</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>181</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>187</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2378,26 +2838,29 @@
       <c r="N7" t="s">
         <v>246</v>
       </c>
+      <c r="O7" t="s">
+        <v>429</v>
+      </c>
       <c r="P7" t="s">
         <v>417</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>362</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>100</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>182</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>188</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -2428,23 +2891,23 @@
       <c r="P8" t="s">
         <v>418</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>364</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>183</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>189</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2472,20 +2935,20 @@
       <c r="P9" t="s">
         <v>419</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>365</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>211</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>190</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -2510,17 +2973,17 @@
       <c r="P10" t="s">
         <v>420</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>259</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>191</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2542,17 +3005,17 @@
       <c r="N11" t="s">
         <v>250</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>260</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>261</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2571,14 +3034,14 @@
       <c r="N12" t="s">
         <v>251</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>102</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2597,14 +3060,14 @@
       <c r="N13" t="s">
         <v>256</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>328</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -2623,14 +3086,14 @@
       <c r="N14" t="s">
         <v>252</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>103</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2646,19 +3109,19 @@
       <c r="N15" t="s">
         <v>253</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>104</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>410</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
         <v>319</v>
@@ -2669,19 +3132,19 @@
       <c r="N16" t="s">
         <v>254</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>75</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
@@ -2689,16 +3152,16 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -2706,16 +3169,16 @@
       <c r="I18" t="s">
         <v>401</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>406</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="E19" t="s">
         <v>298</v>
@@ -2723,16 +3186,16 @@
       <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>299</v>
@@ -2740,16 +3203,16 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>323</v>
       </c>
       <c r="E21" t="s">
         <v>300</v>
@@ -2757,719 +3220,728 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>301</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
         <v>292</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="E24" t="s">
         <v>281</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
       <c r="E32" t="s">
         <v>287</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>262</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>332</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>309</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>263</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>310</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>269</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>78</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>214</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>291</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>302</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>303</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>345</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>344</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>213</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>322</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>341</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>370</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>304</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>358</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>333</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>270</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>294</v>
       </c>
-      <c r="S54" t="s">
+      <c r="T54" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>295</v>
       </c>
-      <c r="S55" t="s">
+      <c r="T55" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>296</v>
       </c>
-      <c r="S56" t="s">
+      <c r="T56" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>305</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>314</v>
       </c>
-      <c r="S58" t="s">
+      <c r="T58" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>339</v>
       </c>
-      <c r="S59" t="s">
+      <c r="T59" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>311</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>312</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>371</v>
       </c>
-      <c r="S62" t="s">
+      <c r="T62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>372</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>347</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>315</v>
       </c>
-      <c r="S65" t="s">
+      <c r="T65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>271</v>
       </c>
-      <c r="S66" t="s">
+      <c r="T66" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>355</v>
       </c>
-      <c r="S67" t="s">
+      <c r="T67" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>316</v>
       </c>
-      <c r="S68" t="s">
+      <c r="T68" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
+        <v>426</v>
+      </c>
+      <c r="T69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
         <v>306</v>
       </c>
-      <c r="S69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E70" t="s">
+      <c r="T70" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="E71" t="s">
         <v>411</v>
       </c>
-      <c r="S70" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E71" t="s">
+      <c r="T71" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="E72" t="s">
         <v>264</v>
       </c>
-      <c r="S71" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E72" t="s">
+      <c r="T72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="E73" t="s">
         <v>346</v>
       </c>
-      <c r="S72" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E73" t="s">
+      <c r="T73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="E74" t="s">
         <v>282</v>
       </c>
-      <c r="S73" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E74" t="s">
+      <c r="T74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s">
         <v>288</v>
       </c>
-      <c r="S74" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E75" t="s">
+      <c r="T75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s">
         <v>293</v>
       </c>
-      <c r="S75" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E76" t="s">
+      <c r="T76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s">
         <v>334</v>
       </c>
-      <c r="S76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E77" t="s">
+      <c r="T77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s">
         <v>272</v>
       </c>
-      <c r="S77" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E78" t="s">
+      <c r="T78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
         <v>283</v>
       </c>
-      <c r="S78" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E79" t="s">
+      <c r="T79" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
         <v>289</v>
       </c>
-      <c r="S79" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E80" t="s">
+      <c r="T80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s">
         <v>278</v>
       </c>
-      <c r="S80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E81" t="s">
+      <c r="T81" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s">
         <v>273</v>
       </c>
-      <c r="S81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E82" t="s">
+      <c r="T82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s">
         <v>290</v>
       </c>
-      <c r="S82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E83" t="s">
+      <c r="T83" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s">
         <v>274</v>
       </c>
-      <c r="S83" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E84" t="s">
+      <c r="T84" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s">
         <v>275</v>
       </c>
-      <c r="S84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E85" t="s">
+      <c r="T85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s">
         <v>307</v>
       </c>
-      <c r="S85" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E86" t="s">
+      <c r="T86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s">
         <v>313</v>
       </c>
-      <c r="S86" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E87" t="s">
+      <c r="T87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s">
         <v>297</v>
       </c>
-      <c r="S87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E88" t="s">
+      <c r="T88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s">
         <v>342</v>
       </c>
-      <c r="S88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E89" t="s">
+      <c r="T89" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s">
         <v>279</v>
       </c>
-      <c r="S89" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E90" t="s">
+      <c r="T90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s">
         <v>280</v>
       </c>
-      <c r="S90" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S91" t="s">
+      <c r="T91" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S92" t="s">
+    <row r="92">
+      <c r="T92" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S93" t="s">
+    <row r="93">
+      <c r="T93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S94" t="s">
+    <row r="94">
+      <c r="T94" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S95" t="s">
+    <row r="95">
+      <c r="T95" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="S96" t="s">
+    <row r="96">
+      <c r="T96" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S97" t="s">
+    <row r="97">
+      <c r="T97" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S98" t="s">
+    <row r="98">
+      <c r="T98" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S99" t="s">
+    <row r="99">
+      <c r="T99" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S100" t="s">
+    <row r="100">
+      <c r="T100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S101" t="s">
+    <row r="101">
+      <c r="T101" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S102" t="s">
+    <row r="102">
+      <c r="T102" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S103" t="s">
+    <row r="103">
+      <c r="T103" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S104" t="s">
+    <row r="104">
+      <c r="T104" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S105" t="s">
+    <row r="105">
+      <c r="T105" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S106" t="s">
+    <row r="106">
+      <c r="T106" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S107" t="s">
+    <row r="107">
+      <c r="T107" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S108" t="s">
+    <row r="108">
+      <c r="T108" t="s">
         <v>171</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="17" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="28.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="19.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3972,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>400</v>
       </c>
@@ -3521,7 +3993,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3538,7 +4010,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>223</v>
       </c>
@@ -3583,7 +4055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>394</v>
       </c>
@@ -3614,7 +4086,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>422</v>
@@ -3639,7 +4111,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>423</v>
@@ -3664,7 +4136,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -3681,7 +4153,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -3698,7 +4170,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -3715,7 +4187,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -3732,7 +4204,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -3749,7 +4221,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -3766,7 +4238,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -3783,7 +4255,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -3800,7 +4272,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -3817,7 +4289,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -3834,7 +4306,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -3851,7 +4323,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -3868,7 +4340,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -3885,7 +4357,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -3902,7 +4374,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -3919,7 +4391,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -3936,7 +4408,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -3953,7 +4425,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -3970,7 +4442,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -3987,7 +4459,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4004,7 +4476,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4021,7 +4493,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4038,7 +4510,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4055,7 +4527,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4072,7 +4544,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4089,7 +4561,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4106,7 +4578,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4123,7 +4595,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4140,7 +4612,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4157,7 +4629,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4174,7 +4646,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4191,7 +4663,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4208,7 +4680,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4225,7 +4697,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4242,7 +4714,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4259,7 +4731,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4276,7 +4748,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4293,7 +4765,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4310,7 +4782,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4327,7 +4799,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4344,7 +4816,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4361,7 +4833,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4378,7 +4850,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4395,7 +4867,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4412,7 +4884,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4429,7 +4901,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4446,7 +4918,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4463,7 +4935,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4480,7 +4952,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4497,7 +4969,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4514,7 +4986,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4531,7 +5003,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4548,7 +5020,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -4565,7 +5037,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -4582,7 +5054,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -4599,7 +5071,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -4616,7 +5088,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -4633,7 +5105,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -4650,7 +5122,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -4667,7 +5139,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -4684,7 +5156,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -4701,7 +5173,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -4718,7 +5190,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -4735,7 +5207,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -4752,7 +5224,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -4769,7 +5241,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -4786,7 +5258,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -4803,7 +5275,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -4820,7 +5292,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -4837,7 +5309,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -4854,7 +5326,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -4871,7 +5343,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -4888,7 +5360,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -4905,7 +5377,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -4922,7 +5394,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -4939,7 +5411,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -4956,7 +5428,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -4973,7 +5445,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -4990,7 +5462,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5007,7 +5479,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5024,7 +5496,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5041,7 +5513,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5058,7 +5530,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5075,7 +5547,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5092,7 +5564,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5109,7 +5581,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5126,7 +5598,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5143,7 +5615,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5160,7 +5632,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5177,7 +5649,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5194,7 +5666,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5211,7 +5683,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5228,7 +5700,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5245,7 +5717,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5262,7 +5734,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5279,7 +5751,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5296,7 +5768,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5313,7 +5785,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5330,7 +5802,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5347,7 +5819,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5364,7 +5836,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5381,7 +5853,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5398,7 +5870,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5415,7 +5887,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5432,7 +5904,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5449,7 +5921,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5466,7 +5938,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5483,7 +5955,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5500,7 +5972,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5517,7 +5989,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5534,7 +6006,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5551,7 +6023,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -5568,7 +6040,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -5585,7 +6057,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -5602,7 +6074,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -5619,7 +6091,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -5636,7 +6108,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -5653,7 +6125,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -5670,7 +6142,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -5687,7 +6159,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -5704,7 +6176,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -5721,7 +6193,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -5738,7 +6210,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -5755,7 +6227,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -5772,7 +6244,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -5789,7 +6261,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -5806,7 +6278,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -5823,7 +6295,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -5840,7 +6312,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -5857,7 +6329,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -5874,7 +6346,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -5891,7 +6363,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -5908,7 +6380,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -5925,7 +6397,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -5942,7 +6414,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -5959,7 +6431,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -5976,7 +6448,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -5993,7 +6465,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6010,7 +6482,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6027,7 +6499,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6044,7 +6516,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6061,7 +6533,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6078,7 +6550,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6095,7 +6567,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6112,7 +6584,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6129,7 +6601,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6146,7 +6618,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6163,7 +6635,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6180,7 +6652,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6197,7 +6669,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6214,7 +6686,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6231,7 +6703,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6248,7 +6720,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6265,7 +6737,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6282,7 +6754,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6299,7 +6771,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6316,7 +6788,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6333,7 +6805,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6350,7 +6822,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6367,7 +6839,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6384,7 +6856,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6401,7 +6873,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6418,7 +6890,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6435,7 +6907,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6452,7 +6924,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6469,7 +6941,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6486,7 +6958,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6503,7 +6975,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6520,7 +6992,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6537,7 +7009,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6554,7 +7026,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -6571,7 +7043,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -6588,7 +7060,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -6605,7 +7077,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -6622,7 +7094,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -6639,7 +7111,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -6656,7 +7128,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -6673,7 +7145,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -6690,7 +7162,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -6707,7 +7179,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -6724,7 +7196,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -6741,7 +7213,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -6758,7 +7230,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -6775,7 +7247,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -6792,7 +7264,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -6809,7 +7281,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -6826,7 +7298,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -6843,7 +7315,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -6860,7 +7332,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -6877,7 +7349,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -6894,7 +7366,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -6911,7 +7383,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -6928,7 +7400,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -6945,7 +7417,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -6962,7 +7434,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -6979,7 +7451,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -6996,7 +7468,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7013,7 +7485,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7030,7 +7502,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7047,7 +7519,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7064,7 +7536,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7081,7 +7553,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7098,7 +7570,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7115,7 +7587,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7132,7 +7604,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7149,7 +7621,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7166,7 +7638,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7183,7 +7655,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7200,7 +7672,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7217,7 +7689,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7234,7 +7706,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7251,7 +7723,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7268,7 +7740,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7285,7 +7757,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7302,7 +7774,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7319,7 +7791,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7336,7 +7808,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7353,7 +7825,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7370,7 +7842,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7387,7 +7859,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7404,7 +7876,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7421,7 +7893,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7438,7 +7910,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7455,7 +7927,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7472,7 +7944,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7489,7 +7961,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7506,7 +7978,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7523,7 +7995,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7540,7 +8012,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7557,7 +8029,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -7574,7 +8046,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -7591,7 +8063,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -7608,7 +8080,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -7625,7 +8097,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -7642,7 +8114,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -7659,7 +8131,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -7676,7 +8148,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -7693,7 +8165,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -7710,7 +8182,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -7727,7 +8199,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -7744,7 +8216,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -7761,7 +8233,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -7778,7 +8250,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -7795,7 +8267,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -7812,7 +8284,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -7829,7 +8301,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -7846,7 +8318,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -7863,7 +8335,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -7880,7 +8352,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -7897,7 +8369,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -7914,7 +8386,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -7931,7 +8403,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -7948,7 +8420,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -7965,7 +8437,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -7982,7 +8454,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -7999,7 +8471,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8016,7 +8488,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8033,7 +8505,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8050,7 +8522,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8067,7 +8539,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8084,7 +8556,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8101,7 +8573,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8118,7 +8590,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8135,7 +8607,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8152,7 +8624,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8169,7 +8641,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8186,7 +8658,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8203,7 +8675,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8220,7 +8692,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8237,7 +8709,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8254,7 +8726,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8271,7 +8743,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8288,7 +8760,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8305,7 +8777,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8322,7 +8794,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8339,7 +8811,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8356,7 +8828,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8373,7 +8845,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8390,7 +8862,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8407,7 +8879,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8424,7 +8896,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8441,7 +8913,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8458,7 +8930,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8475,7 +8947,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8492,7 +8964,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8509,7 +8981,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8526,7 +8998,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8543,7 +9015,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8560,7 +9032,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -8577,7 +9049,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -8594,7 +9066,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -8611,7 +9083,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -8628,7 +9100,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -8645,7 +9117,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -8662,7 +9134,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -8679,7 +9151,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -8696,7 +9168,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -8713,7 +9185,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -8730,7 +9202,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -8747,7 +9219,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -8764,7 +9236,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -8781,7 +9253,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -8798,7 +9270,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -8815,7 +9287,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -8832,7 +9304,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -8849,7 +9321,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -8866,7 +9338,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -8883,7 +9355,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -8900,7 +9372,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -8917,7 +9389,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -8934,7 +9406,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -8951,7 +9423,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -8968,7 +9440,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -8985,7 +9457,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9002,7 +9474,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9019,7 +9491,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9036,7 +9508,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9053,7 +9525,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9070,7 +9542,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9087,7 +9559,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9104,7 +9576,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9121,7 +9593,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9138,7 +9610,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9155,7 +9627,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9172,7 +9644,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9189,7 +9661,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9206,7 +9678,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9223,7 +9695,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9240,7 +9712,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9257,7 +9729,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9274,7 +9746,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9291,7 +9763,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9308,7 +9780,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9325,7 +9797,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9342,7 +9814,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9359,7 +9831,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9376,7 +9848,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9393,7 +9865,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9410,7 +9882,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9427,7 +9899,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9444,7 +9916,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9461,7 +9933,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9478,7 +9950,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9495,7 +9967,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9512,7 +9984,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9529,7 +10001,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9546,7 +10018,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -9563,7 +10035,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -9580,7 +10052,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -9597,7 +10069,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -9614,7 +10086,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -9631,7 +10103,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -9648,7 +10120,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -9665,7 +10137,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -9682,7 +10154,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -9699,7 +10171,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -9716,7 +10188,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -9733,7 +10205,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -9750,7 +10222,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -9767,7 +10239,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -9784,7 +10256,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -9801,7 +10273,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -9818,7 +10290,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -9835,7 +10307,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -9852,7 +10324,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -9869,7 +10341,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -9886,7 +10358,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -9903,7 +10375,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -9920,7 +10392,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -9937,7 +10409,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -9954,7 +10426,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -9971,7 +10443,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -9988,7 +10460,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10005,7 +10477,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10022,7 +10494,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10039,7 +10511,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10056,7 +10528,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10073,7 +10545,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10090,7 +10562,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10107,7 +10579,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10124,7 +10596,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10141,7 +10613,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10158,7 +10630,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10175,7 +10647,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10192,7 +10664,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10209,7 +10681,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10226,7 +10698,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10243,7 +10715,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10260,7 +10732,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10277,7 +10749,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10294,7 +10766,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10311,7 +10783,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10328,7 +10800,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10345,7 +10817,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10362,7 +10834,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10379,7 +10851,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10396,7 +10868,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10413,7 +10885,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10430,7 +10902,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10447,7 +10919,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10464,7 +10936,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10481,7 +10953,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10498,7 +10970,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10515,7 +10987,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10532,7 +11004,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10549,7 +11021,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -10566,7 +11038,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -10583,7 +11055,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -10600,7 +11072,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -10617,7 +11089,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -10634,7 +11106,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -10651,7 +11123,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -10668,7 +11140,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -10685,7 +11157,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -10702,7 +11174,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -10719,7 +11191,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -10736,7 +11208,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -10753,7 +11225,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -10770,7 +11242,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -10787,7 +11259,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -10804,7 +11276,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -10821,7 +11293,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -10838,7 +11310,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -10855,7 +11327,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -10872,7 +11344,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -10889,7 +11361,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -10906,7 +11378,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -10923,7 +11395,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -10940,7 +11412,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -10957,7 +11429,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -10974,7 +11446,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -10991,7 +11463,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11008,7 +11480,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11025,7 +11497,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11042,7 +11514,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11059,7 +11531,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11076,7 +11548,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11093,7 +11565,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11110,7 +11582,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11127,7 +11599,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11144,7 +11616,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11161,7 +11633,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11178,7 +11650,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11195,7 +11667,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11212,7 +11684,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11229,7 +11701,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11246,7 +11718,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11263,7 +11735,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11280,7 +11752,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11297,7 +11769,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11314,7 +11786,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11331,7 +11803,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11348,7 +11820,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11365,7 +11837,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11382,7 +11854,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11399,7 +11871,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11416,7 +11888,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11433,7 +11905,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11450,7 +11922,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11467,7 +11939,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11484,7 +11956,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11501,7 +11973,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11518,7 +11990,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11535,7 +12007,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11552,7 +12024,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -11569,7 +12041,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -11586,7 +12058,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -11603,7 +12075,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -11620,7 +12092,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -11637,7 +12109,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -11654,7 +12126,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -11671,7 +12143,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -11688,7 +12160,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -11705,7 +12177,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -11722,7 +12194,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -11739,7 +12211,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -11756,7 +12228,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -11773,7 +12245,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -11790,7 +12262,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -11807,7 +12279,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -11824,7 +12296,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -11841,7 +12313,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -11858,7 +12330,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -11875,7 +12347,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -11892,7 +12364,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -11909,7 +12381,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -11926,7 +12398,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -11943,7 +12415,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -11960,7 +12432,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -11977,7 +12449,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -11994,7 +12466,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12011,7 +12483,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12028,7 +12500,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12045,7 +12517,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12062,7 +12534,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12079,7 +12551,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12096,7 +12568,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12113,7 +12585,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12130,7 +12602,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12147,7 +12619,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12164,7 +12636,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12181,7 +12653,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12198,7 +12670,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12215,7 +12687,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12232,7 +12704,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12249,7 +12721,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12266,7 +12738,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12283,7 +12755,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12300,7 +12772,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12317,7 +12789,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12334,7 +12806,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12351,7 +12823,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12368,7 +12840,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12385,7 +12857,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12402,7 +12874,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12419,7 +12891,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12436,7 +12908,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12453,7 +12925,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12470,7 +12942,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12487,7 +12959,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12504,7 +12976,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12521,7 +12993,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12538,7 +13010,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12555,7 +13027,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -12572,7 +13044,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -12589,7 +13061,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -12606,7 +13078,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -12623,7 +13095,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -12640,7 +13112,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -12657,7 +13129,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -12674,7 +13146,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -12691,7 +13163,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -12708,7 +13180,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -12725,7 +13197,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -12742,7 +13214,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -12759,7 +13231,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -12776,7 +13248,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -12793,7 +13265,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -12810,7 +13282,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -12827,7 +13299,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -12844,7 +13316,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -12861,7 +13333,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -12878,7 +13350,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -12895,7 +13367,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -12912,7 +13384,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -12929,7 +13401,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -12946,7 +13418,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -12963,7 +13435,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -12980,7 +13452,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -12997,7 +13469,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13014,7 +13486,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13031,7 +13503,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13048,7 +13520,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13065,7 +13537,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13082,7 +13554,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13099,7 +13571,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13116,7 +13588,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13133,7 +13605,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13150,7 +13622,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13167,7 +13639,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13184,7 +13656,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13201,7 +13673,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13218,7 +13690,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13235,7 +13707,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13252,7 +13724,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13269,7 +13741,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13286,7 +13758,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13303,7 +13775,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13320,7 +13792,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13337,7 +13809,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13354,7 +13826,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13371,7 +13843,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13388,7 +13860,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13405,7 +13877,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13422,7 +13894,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13439,7 +13911,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13456,7 +13928,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13473,7 +13945,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13490,7 +13962,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13507,7 +13979,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13524,7 +13996,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13541,7 +14013,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13558,7 +14030,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -13575,7 +14047,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -13592,7 +14064,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -13609,7 +14081,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -13626,7 +14098,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -13643,7 +14115,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -13660,7 +14132,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -13677,7 +14149,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -13694,7 +14166,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -13711,7 +14183,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -13728,7 +14200,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -13745,7 +14217,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -13762,7 +14234,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -13779,7 +14251,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -13796,7 +14268,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -13813,7 +14285,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -13830,7 +14302,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -13847,7 +14319,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -13864,7 +14336,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -13881,7 +14353,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -13898,7 +14370,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -13915,7 +14387,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -13932,7 +14404,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -13949,7 +14421,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -13966,7 +14438,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -13983,7 +14455,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14000,7 +14472,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14017,7 +14489,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14034,7 +14506,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14051,7 +14523,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14068,7 +14540,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14085,7 +14557,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14102,7 +14574,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14119,7 +14591,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14136,7 +14608,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14153,7 +14625,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14170,7 +14642,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14187,7 +14659,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14204,7 +14676,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14221,7 +14693,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14238,7 +14710,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14255,7 +14727,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14272,7 +14744,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14289,7 +14761,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14306,7 +14778,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14323,7 +14795,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14340,7 +14812,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14357,7 +14829,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14374,7 +14846,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14391,7 +14863,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14408,7 +14880,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14425,7 +14897,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14442,7 +14914,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14459,7 +14931,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14476,7 +14948,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14493,7 +14965,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14510,7 +14982,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14527,7 +14999,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14544,7 +15016,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -14561,360 +15033,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -14922,25 +15394,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{12589661-3B7F-1348-A0B8-114297A7F940}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="7300" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="13700" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="7300"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$32</definedName>
+    <definedName name="base">'#system'!$C$2:$C$33</definedName>
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -45,7 +45,7 @@
     <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
     <definedName name="ws">'#system'!$W$2:$W$16</definedName>
     <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$3</definedName>
+    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="437">
   <si>
     <t>description</t>
   </si>
@@ -1374,13 +1374,28 @@
   <si>
     <t>warp(repeats)</t>
   </si>
+  <si>
+    <t>laser(repeats)</t>
+  </si>
+  <si>
+    <t>play(audio)</t>
+  </si>
+  <si>
+    <t>speak(text)</t>
+  </si>
+  <si>
+    <t>speakNoWait(text)</t>
+  </si>
+  <si>
+    <t>section(steps)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1540,8 +1555,178 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="73">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1679,8 +1864,280 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1912,6 +2369,482 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1919,7 +2852,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2048,40 +2981,121 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="27" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="33" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="36" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="30" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="39" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2408,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -2541,7 +3555,7 @@
         <v>412</v>
       </c>
       <c r="Q2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="R2" t="s">
         <v>383</v>
@@ -2612,7 +3626,7 @@
         <v>413</v>
       </c>
       <c r="Q3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="R3" t="s">
         <v>384</v>
@@ -2679,6 +3693,9 @@
       <c r="P4" t="s">
         <v>414</v>
       </c>
+      <c r="Q4" t="s">
+        <v>434</v>
+      </c>
       <c r="R4" t="s">
         <v>360</v>
       </c>
@@ -2738,6 +3755,9 @@
       <c r="P5" t="s">
         <v>415</v>
       </c>
+      <c r="Q5" t="s">
+        <v>435</v>
+      </c>
       <c r="R5" t="s">
         <v>361</v>
       </c>
@@ -3268,7 +4288,7 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>64</v>
+        <v>436</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
@@ -3279,7 +4299,7 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
@@ -3290,7 +4310,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>268</v>
@@ -3301,7 +4321,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>285</v>
@@ -3312,7 +4332,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>286</v>
@@ -3323,7 +4343,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>218</v>
@@ -3334,7 +4354,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>277</v>
@@ -3345,7 +4365,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>287</v>
@@ -3355,6 +4375,9 @@
       </c>
     </row>
     <row r="33">
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
       <c r="E33" t="s">
         <v>262</v>
       </c>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -22,30 +22,32 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$14</definedName>
+    <definedName name="number">'#system'!$M$2:$M$15</definedName>
     <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
     <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
     <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="ssh">'#system'!$R$2:$R$9</definedName>
-    <definedName name="step">'#system'!$S$2:$S$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$24</definedName>
-    <definedName name="web">'#system'!$T$2:$T$108</definedName>
-    <definedName name="webalert">'#system'!$U$2:$U$6</definedName>
-    <definedName name="webcookie">'#system'!$V$2:$V$8</definedName>
-    <definedName name="ws">'#system'!$W$2:$W$16</definedName>
-    <definedName name="xml">'#system'!$X$2:$X$11</definedName>
-    <definedName name="sound">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
+    <definedName name="step">'#system'!$T$2:$T$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$26</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
+    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
+    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
+    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="452">
   <si>
     <t>description</t>
   </si>
@@ -1389,13 +1391,58 @@
   <si>
     <t>section(steps)</t>
   </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>ws.async</t>
+  </si>
+  <si>
+    <t>sendKeysToTextBox(name,text1,text2,text3,text4)</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,minNum,maxNum)</t>
+  </si>
+  <si>
+    <t>assertEqual(num1,num2)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>sendText(phones,text)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>delete(url,body,output)</t>
+  </si>
+  <si>
+    <t>get(url,queryString,output)</t>
+  </si>
+  <si>
+    <t>head(url,output)</t>
+  </si>
+  <si>
+    <t>patch(url,body,output)</t>
+  </si>
+  <si>
+    <t>post(url,body,output)</t>
+  </si>
+  <si>
+    <t>put(url,body,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="66" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1725,8 +1772,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="73">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2136,8 +2277,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="71">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -2845,6 +3139,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2852,7 +3428,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3053,49 +3629,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="41" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="87" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3420,7 +4041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:AA109"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -3481,27 +4102,33 @@
         <v>410</v>
       </c>
       <c r="Q1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R1" t="s">
         <v>424</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>359</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>406</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z1" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3537,13 +4164,13 @@
         <v>386</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>440</v>
       </c>
       <c r="L2" t="s">
         <v>427</v>
       </c>
       <c r="M2" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="N2" t="s">
         <v>255</v>
@@ -3555,27 +4182,33 @@
         <v>412</v>
       </c>
       <c r="Q2" t="s">
+        <v>444</v>
+      </c>
+      <c r="R2" t="s">
         <v>432</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>383</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>407</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>172</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>177</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>184</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3611,10 +4244,10 @@
         <v>336</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>317</v>
+        <v>442</v>
       </c>
       <c r="N3" t="s">
         <v>242</v>
@@ -3625,28 +4258,31 @@
       <c r="P3" t="s">
         <v>413</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>433</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>384</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>408</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>98</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>173</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>178</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>366</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z3" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3679,7 +4315,7 @@
         <v>337</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -3693,28 +4329,31 @@
       <c r="P4" t="s">
         <v>414</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>434</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>360</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>409</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>356</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>174</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>179</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>185</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z4" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3741,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
@@ -3755,25 +4394,28 @@
       <c r="P5" t="s">
         <v>415</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>435</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>361</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>357</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>175</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>180</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>186</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z5" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3797,7 +4439,7 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
@@ -3811,22 +4453,25 @@
       <c r="P6" t="s">
         <v>416</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>363</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>99</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>176</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>181</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>187</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z6" t="s">
         <v>234</v>
       </c>
     </row>
@@ -3850,7 +4495,7 @@
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -3864,19 +4509,22 @@
       <c r="P7" t="s">
         <v>417</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>362</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>100</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>182</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>188</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3900,7 +4548,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>91</v>
@@ -3911,19 +4559,22 @@
       <c r="P8" t="s">
         <v>418</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>364</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>101</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>183</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>189</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3944,7 +4595,7 @@
         <v>392</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
         <v>92</v>
@@ -3955,16 +4606,16 @@
       <c r="P9" t="s">
         <v>419</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>365</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>211</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>190</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3982,10 +4633,10 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="N10" t="s">
         <v>249</v>
@@ -3993,13 +4644,13 @@
       <c r="P10" t="s">
         <v>420</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>259</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>191</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4017,21 +4668,21 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N11" t="s">
         <v>250</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>260</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>261</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4048,16 +4699,19 @@
       <c r="I12" t="s">
         <v>81</v>
       </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>251</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>102</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4075,15 +4729,15 @@
         <v>82</v>
       </c>
       <c r="M13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
         <v>256</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>328</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4101,15 +4755,15 @@
         <v>83</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" t="s">
         <v>252</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>103</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4126,13 +4780,16 @@
       <c r="I15" t="s">
         <v>84</v>
       </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
       <c r="N15" t="s">
         <v>253</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>104</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4152,16 +4809,16 @@
       <c r="N16" t="s">
         <v>254</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>75</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
         <v>60</v>
@@ -4172,13 +4829,13 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -4189,13 +4846,13 @@
       <c r="I18" t="s">
         <v>401</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="C19" t="s">
         <v>258</v>
@@ -4206,13 +4863,13 @@
       <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>406</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -4223,13 +4880,13 @@
       <c r="I20" t="s">
         <v>45</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>323</v>
@@ -4240,13 +4897,13 @@
       <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -4254,13 +4911,13 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>227</v>
@@ -4268,13 +4925,13 @@
       <c r="E23" t="s">
         <v>292</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -4282,29 +4939,35 @@
       <c r="E24" t="s">
         <v>281</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="s">
+        <v>438</v>
+      </c>
       <c r="C25" t="s">
         <v>436</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
       <c r="C26" t="s">
         <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>284</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4315,7 +4978,7 @@
       <c r="E27" t="s">
         <v>268</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4326,7 +4989,7 @@
       <c r="E28" t="s">
         <v>285</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4337,7 +5000,7 @@
       <c r="E29" t="s">
         <v>286</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4348,7 +5011,7 @@
       <c r="E30" t="s">
         <v>218</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4359,7 +5022,7 @@
       <c r="E31" t="s">
         <v>277</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4370,7 +5033,7 @@
       <c r="E32" t="s">
         <v>287</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4381,7 +5044,7 @@
       <c r="E33" t="s">
         <v>262</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4389,7 +5052,7 @@
       <c r="E34" t="s">
         <v>332</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4397,7 +5060,7 @@
       <c r="E35" t="s">
         <v>309</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4405,7 +5068,7 @@
       <c r="E36" t="s">
         <v>263</v>
       </c>
-      <c r="T36" t="s">
+      <c r="U36" t="s">
         <v>340</v>
       </c>
     </row>
@@ -4413,524 +5076,532 @@
       <c r="E37" t="s">
         <v>310</v>
       </c>
-      <c r="T37" t="s">
-        <v>402</v>
+      <c r="U37" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
         <v>269</v>
       </c>
-      <c r="T38" t="s">
-        <v>122</v>
+      <c r="U38" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
         <v>78</v>
       </c>
-      <c r="T39" t="s">
-        <v>123</v>
+      <c r="U39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
         <v>214</v>
       </c>
-      <c r="T40" t="s">
-        <v>124</v>
+      <c r="U40" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
         <v>291</v>
       </c>
-      <c r="T41" t="s">
-        <v>125</v>
+      <c r="U41" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
         <v>302</v>
       </c>
-      <c r="T42" t="s">
-        <v>126</v>
+      <c r="U42" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
         <v>303</v>
       </c>
-      <c r="T43" t="s">
-        <v>127</v>
+      <c r="U43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
         <v>345</v>
       </c>
-      <c r="T44" t="s">
-        <v>215</v>
+      <c r="U44" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
         <v>344</v>
       </c>
-      <c r="T45" t="s">
-        <v>77</v>
+      <c r="U45" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
         <v>213</v>
       </c>
-      <c r="T46" t="s">
-        <v>128</v>
+      <c r="U46" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
         <v>322</v>
       </c>
-      <c r="T47" t="s">
-        <v>129</v>
+      <c r="U47" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
         <v>341</v>
       </c>
-      <c r="T48" t="s">
-        <v>130</v>
+      <c r="U48" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
         <v>370</v>
       </c>
-      <c r="T49" t="s">
-        <v>131</v>
+      <c r="U49" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
         <v>304</v>
       </c>
-      <c r="T50" t="s">
-        <v>348</v>
+      <c r="U50" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
         <v>358</v>
       </c>
-      <c r="T51" t="s">
-        <v>132</v>
+      <c r="U51" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
         <v>333</v>
       </c>
-      <c r="T52" t="s">
-        <v>133</v>
+      <c r="U52" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
         <v>270</v>
       </c>
-      <c r="T53" t="s">
-        <v>134</v>
+      <c r="U53" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
         <v>294</v>
       </c>
-      <c r="T54" t="s">
-        <v>135</v>
+      <c r="U54" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
         <v>295</v>
       </c>
-      <c r="T55" t="s">
-        <v>136</v>
+      <c r="U55" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
         <v>296</v>
       </c>
-      <c r="T56" t="s">
-        <v>137</v>
+      <c r="U56" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
         <v>305</v>
       </c>
-      <c r="T57" t="s">
-        <v>138</v>
+      <c r="U57" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
         <v>314</v>
       </c>
-      <c r="T58" t="s">
-        <v>216</v>
+      <c r="U58" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
         <v>339</v>
       </c>
-      <c r="T59" t="s">
-        <v>391</v>
+      <c r="U59" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
         <v>311</v>
       </c>
-      <c r="T60" t="s">
-        <v>139</v>
+      <c r="U60" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="61">
       <c r="E61" t="s">
         <v>312</v>
       </c>
-      <c r="T61" t="s">
-        <v>140</v>
+      <c r="U61" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62">
       <c r="E62" t="s">
         <v>371</v>
       </c>
-      <c r="T62" t="s">
-        <v>141</v>
+      <c r="U62" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
         <v>372</v>
       </c>
-      <c r="T63" t="s">
-        <v>142</v>
+      <c r="U63" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
         <v>347</v>
       </c>
-      <c r="T64" t="s">
-        <v>199</v>
+      <c r="U64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
         <v>315</v>
       </c>
-      <c r="T65" t="s">
-        <v>200</v>
+      <c r="U65" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
         <v>271</v>
       </c>
-      <c r="T66" t="s">
-        <v>143</v>
+      <c r="U66" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
         <v>355</v>
       </c>
-      <c r="T67" t="s">
-        <v>144</v>
+      <c r="U67" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
         <v>316</v>
       </c>
-      <c r="T68" t="s">
-        <v>145</v>
+      <c r="U68" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>426</v>
       </c>
-      <c r="T69" t="s">
-        <v>146</v>
+      <c r="U69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
         <v>306</v>
       </c>
-      <c r="T70" t="s">
-        <v>147</v>
+      <c r="U70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
         <v>411</v>
       </c>
-      <c r="T71" t="s">
-        <v>201</v>
+      <c r="U71" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>264</v>
       </c>
-      <c r="T72" t="s">
-        <v>202</v>
+      <c r="U72" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>346</v>
       </c>
-      <c r="T73" t="s">
-        <v>203</v>
+      <c r="U73" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>282</v>
       </c>
-      <c r="T74" t="s">
-        <v>204</v>
+      <c r="U74" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
         <v>288</v>
       </c>
-      <c r="T75" t="s">
-        <v>217</v>
+      <c r="U75" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
         <v>293</v>
       </c>
-      <c r="T76" t="s">
-        <v>148</v>
+      <c r="U76" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>334</v>
-      </c>
-      <c r="T77" t="s">
-        <v>205</v>
+        <v>439</v>
+      </c>
+      <c r="U77" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>272</v>
-      </c>
-      <c r="T78" t="s">
-        <v>149</v>
+        <v>334</v>
+      </c>
+      <c r="U78" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>283</v>
-      </c>
-      <c r="T79" t="s">
-        <v>206</v>
+        <v>272</v>
+      </c>
+      <c r="U79" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>289</v>
-      </c>
-      <c r="T80" t="s">
-        <v>207</v>
+        <v>283</v>
+      </c>
+      <c r="U80" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>278</v>
-      </c>
-      <c r="T81" t="s">
-        <v>208</v>
+        <v>289</v>
+      </c>
+      <c r="U81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>273</v>
-      </c>
-      <c r="T82" t="s">
-        <v>209</v>
+        <v>278</v>
+      </c>
+      <c r="U82" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>290</v>
-      </c>
-      <c r="T83" t="s">
-        <v>225</v>
+        <v>273</v>
+      </c>
+      <c r="U83" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>274</v>
-      </c>
-      <c r="T84" t="s">
-        <v>210</v>
+        <v>290</v>
+      </c>
+      <c r="U84" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>275</v>
-      </c>
-      <c r="T85" t="s">
-        <v>150</v>
+        <v>274</v>
+      </c>
+      <c r="U85" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>307</v>
-      </c>
-      <c r="T86" t="s">
-        <v>385</v>
+        <v>275</v>
+      </c>
+      <c r="U86" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>313</v>
-      </c>
-      <c r="T87" t="s">
-        <v>151</v>
+        <v>307</v>
+      </c>
+      <c r="U87" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>297</v>
-      </c>
-      <c r="T88" t="s">
-        <v>152</v>
+        <v>313</v>
+      </c>
+      <c r="U88" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>342</v>
-      </c>
-      <c r="T89" t="s">
-        <v>153</v>
+        <v>297</v>
+      </c>
+      <c r="U89" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>279</v>
-      </c>
-      <c r="T90" t="s">
-        <v>154</v>
+        <v>342</v>
+      </c>
+      <c r="U90" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
+        <v>279</v>
+      </c>
+      <c r="U91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s">
         <v>280</v>
       </c>
-      <c r="T91" t="s">
+      <c r="U92" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92">
-      <c r="T92" t="s">
+    <row r="93">
+      <c r="U93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="93">
-      <c r="T93" t="s">
+    <row r="94">
+      <c r="U94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94">
-      <c r="T94" t="s">
+    <row r="95">
+      <c r="U95" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="95">
-      <c r="T95" t="s">
+    <row r="96">
+      <c r="U96" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96">
-      <c r="T96" t="s">
+    <row r="97">
+      <c r="U97" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97">
-      <c r="T97" t="s">
+    <row r="98">
+      <c r="U98" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98">
-      <c r="T98" t="s">
+    <row r="99">
+      <c r="U99" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99">
-      <c r="T99" t="s">
+    <row r="100">
+      <c r="U100" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="100">
-      <c r="T100" t="s">
+    <row r="101">
+      <c r="U101" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="101">
-      <c r="T101" t="s">
+    <row r="102">
+      <c r="U102" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="102">
-      <c r="T102" t="s">
+    <row r="103">
+      <c r="U103" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="103">
-      <c r="T103" t="s">
+    <row r="104">
+      <c r="U104" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="104">
-      <c r="T104" t="s">
+    <row r="105">
+      <c r="U105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105">
-      <c r="T105" t="s">
+    <row r="106">
+      <c r="U106" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="106">
-      <c r="T106" t="s">
+    <row r="107">
+      <c r="U107" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="107">
-      <c r="T107" t="s">
+    <row r="108">
+      <c r="U108" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="108">
-      <c r="T108" t="s">
+    <row r="109">
+      <c r="U109" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$109</definedName>
+    <definedName name="web">'#system'!$U$2:$U$111</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="456">
   <si>
     <t>description</t>
   </si>
@@ -1436,13 +1436,25 @@
   <si>
     <t>put(url,body,output)</t>
   </si>
+  <si>
+    <t>jsSelect(locator,text)</t>
+  </si>
+  <si>
+    <t>savePageAsFile(sessionIdName,url,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,file)</t>
+  </si>
+  <si>
+    <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="66" x14ac:knownFonts="1">
+  <fonts count="126" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1866,8 +1878,384 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="100">
+  <fills count="208">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2430,8 +2818,620 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="211">
     <border>
       <left/>
       <right/>
@@ -3421,6 +4421,1134 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3428,7 +5556,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="151">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3674,49 +5802,229 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="56" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="87" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="87" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="90" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="90" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="68" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="69" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="71" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="114" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="117" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="120" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="120" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="83" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="86" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="141" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="144" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="94" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="99" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="101" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="168" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="171" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="174" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="174" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="195" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="198" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="201" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="201" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4041,7 +6349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA109"/>
+  <dimension ref="A1:AA111"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5285,7 +7593,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64">
@@ -5293,7 +7601,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65">
@@ -5301,7 +7609,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -5309,7 +7617,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67">
@@ -5317,7 +7625,7 @@
         <v>355</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68">
@@ -5325,7 +7633,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -5333,7 +7641,7 @@
         <v>426</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -5341,7 +7649,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -5349,7 +7657,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -5357,7 +7665,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -5365,7 +7673,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74">
@@ -5373,7 +7681,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75">
@@ -5381,7 +7689,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76">
@@ -5389,7 +7697,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -5397,7 +7705,7 @@
         <v>439</v>
       </c>
       <c r="U77" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78">
@@ -5405,7 +7713,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -5413,7 +7721,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -5421,7 +7729,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>206</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81">
@@ -5429,7 +7737,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>207</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82">
@@ -5437,7 +7745,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83">
@@ -5445,7 +7753,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84">
@@ -5453,7 +7761,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -5461,7 +7769,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86">
@@ -5469,7 +7777,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87">
@@ -5477,7 +7785,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88">
@@ -5485,7 +7793,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89">
@@ -5493,7 +7801,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>152</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90">
@@ -5501,7 +7809,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
@@ -5509,7 +7817,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
@@ -5517,91 +7825,101 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="U110" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="U111" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4869" uniqueCount="457">
   <si>
     <t>description</t>
   </si>
@@ -1448,13 +1448,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="126" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2254,8 +2257,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="208">
+  <fills count="262">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3430,8 +3621,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="211">
+  <borders count="267">
     <border>
       <left/>
       <right/>
@@ -5549,6 +6046,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5556,7 +6617,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5982,49 +7043,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="116" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="195" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="195" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="198" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="198" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="201" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="201" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="201" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="201" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="128" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="131" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="230" fillId="222" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="225" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="228" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="228" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="249" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6349,7 +7500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7561,7 +8712,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>216</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60">
@@ -7569,7 +8720,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
@@ -7577,7 +8728,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62">
@@ -7585,7 +8736,7 @@
         <v>371</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -7593,7 +8744,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>452</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64">
@@ -7601,7 +8752,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>141</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65">
@@ -7609,7 +8760,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7617,7 +8768,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7625,7 +8776,7 @@
         <v>355</v>
       </c>
       <c r="U67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68">
@@ -7633,7 +8784,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -7641,7 +8792,7 @@
         <v>426</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -7649,7 +8800,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7657,7 +8808,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7665,7 +8816,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7673,7 +8824,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7681,7 +8832,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75">
@@ -7689,7 +8840,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -7697,7 +8848,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77">
@@ -7705,7 +8856,7 @@
         <v>439</v>
       </c>
       <c r="U77" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78">
@@ -7713,7 +8864,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79">
@@ -7721,7 +8872,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -7729,7 +8880,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
@@ -7737,7 +8888,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82">
@@ -7745,7 +8896,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>206</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83">
@@ -7753,7 +8904,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84">
@@ -7761,7 +8912,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85">
@@ -7769,7 +8920,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86">
@@ -7777,7 +8928,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="87">
@@ -7785,7 +8936,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
@@ -7793,7 +8944,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89">
@@ -7801,7 +8952,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>385</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7809,7 +8960,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91">
@@ -7817,7 +8968,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7825,101 +8976,106 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -40,7 +40,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4869" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5318" uniqueCount="459">
   <si>
     <t>description</t>
   </si>
@@ -1451,13 +1451,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2445,8 +2451,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="262">
+  <fills count="289">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3927,8 +4027,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="267">
+  <borders count="295">
     <border>
       <left/>
       <right/>
@@ -6610,6 +6863,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6617,7 +7152,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="196">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7133,49 +7668,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="237" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="240" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="249" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="249" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="252" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="252" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="255" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="255" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="276" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="279" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7500,7 +8080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8600,7 +9180,7 @@
         <v>344</v>
       </c>
       <c r="U45" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46">
@@ -8608,7 +9188,7 @@
         <v>213</v>
       </c>
       <c r="U46" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47">
@@ -8616,7 +9196,7 @@
         <v>322</v>
       </c>
       <c r="U47" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -8624,7 +9204,7 @@
         <v>341</v>
       </c>
       <c r="U48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -8632,7 +9212,7 @@
         <v>370</v>
       </c>
       <c r="U49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -8640,7 +9220,7 @@
         <v>304</v>
       </c>
       <c r="U50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -8648,7 +9228,7 @@
         <v>358</v>
       </c>
       <c r="U51" t="s">
-        <v>348</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -8656,7 +9236,7 @@
         <v>333</v>
       </c>
       <c r="U52" t="s">
-        <v>132</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
@@ -8664,7 +9244,7 @@
         <v>270</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
@@ -8672,7 +9252,7 @@
         <v>294</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -8680,7 +9260,7 @@
         <v>295</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -8688,7 +9268,7 @@
         <v>296</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -8696,7 +9276,7 @@
         <v>305</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -8704,7 +9284,7 @@
         <v>314</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -8712,7 +9292,7 @@
         <v>339</v>
       </c>
       <c r="U59" t="s">
-        <v>456</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -8720,7 +9300,7 @@
         <v>311</v>
       </c>
       <c r="U60" t="s">
-        <v>216</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61">
@@ -8728,7 +9308,7 @@
         <v>312</v>
       </c>
       <c r="U61" t="s">
-        <v>391</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
@@ -8736,7 +9316,7 @@
         <v>371</v>
       </c>
       <c r="U62" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
     </row>
     <row r="63">
@@ -8744,7 +9324,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -8752,7 +9332,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>452</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -9036,46 +9616,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -40,8 +40,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5318" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6683" uniqueCount="465">
   <si>
     <t>description</t>
   </si>
@@ -1457,13 +1457,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="216" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2545,8 +2563,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="289">
+  <fills count="370">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4180,8 +4480,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="295">
+  <borders count="379">
     <border>
       <left/>
       <right/>
@@ -7145,6 +7904,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7152,7 +8757,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="241">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7713,49 +9318,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="276" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="276" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="279" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="279" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="282" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="282" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="282" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="173" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="303" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="306" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="309" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="309" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="188" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="330" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="333" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="336" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="336" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="357" borderId="370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="360" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="363" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8080,7 +9820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8406,6 +10146,9 @@
       <c r="C5" t="s">
         <v>226</v>
       </c>
+      <c r="D5" t="s">
+        <v>459</v>
+      </c>
       <c r="E5" t="s">
         <v>338</v>
       </c>
@@ -8499,7 +10242,7 @@
         <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>463</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -8554,6 +10297,9 @@
       <c r="U7" t="s">
         <v>100</v>
       </c>
+      <c r="V7" t="s">
+        <v>464</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -8604,6 +10350,9 @@
       <c r="U8" t="s">
         <v>101</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -8672,7 +10421,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="M10" t="s">
         <v>443</v>
@@ -8707,7 +10456,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>93</v>
@@ -8739,7 +10488,7 @@
         <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8767,6 +10516,9 @@
       <c r="I13" t="s">
         <v>82</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>94</v>
       </c>
@@ -8917,7 +10669,7 @@
         <v>299</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U20" t="s">
         <v>108</v>
@@ -8934,7 +10686,7 @@
         <v>300</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>109</v>
@@ -8950,6 +10702,9 @@
       <c r="E22" t="s">
         <v>301</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>110</v>
       </c>
@@ -9324,7 +11079,7 @@
         <v>372</v>
       </c>
       <c r="U63" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64">
@@ -9332,7 +11087,7 @@
         <v>347</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -9340,7 +11095,7 @@
         <v>315</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -9348,7 +11103,7 @@
         <v>271</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -9356,7 +11111,7 @@
         <v>355</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -9364,7 +11119,7 @@
         <v>316</v>
       </c>
       <c r="U68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -9372,7 +11127,7 @@
         <v>426</v>
       </c>
       <c r="U69" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -9380,7 +11135,7 @@
         <v>306</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -9388,7 +11143,7 @@
         <v>411</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -9396,7 +11151,7 @@
         <v>264</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -9404,7 +11159,7 @@
         <v>346</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -9412,7 +11167,7 @@
         <v>282</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -9420,7 +11175,7 @@
         <v>288</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -9428,7 +11183,7 @@
         <v>293</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -9436,7 +11191,7 @@
         <v>439</v>
       </c>
       <c r="U77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -9444,7 +11199,7 @@
         <v>334</v>
       </c>
       <c r="U78" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -9452,7 +11207,7 @@
         <v>272</v>
       </c>
       <c r="U79" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80">
@@ -9460,7 +11215,7 @@
         <v>283</v>
       </c>
       <c r="U80" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
@@ -9468,7 +11223,7 @@
         <v>289</v>
       </c>
       <c r="U81" t="s">
-        <v>453</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82">
@@ -9476,7 +11231,7 @@
         <v>278</v>
       </c>
       <c r="U82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="83">
@@ -9484,7 +11239,7 @@
         <v>273</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84">
@@ -9492,7 +11247,7 @@
         <v>290</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -9500,7 +11255,7 @@
         <v>274</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -9508,7 +11263,7 @@
         <v>275</v>
       </c>
       <c r="U86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -9516,7 +11271,7 @@
         <v>307</v>
       </c>
       <c r="U87" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88">
@@ -9524,7 +11279,7 @@
         <v>313</v>
       </c>
       <c r="U88" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -9532,7 +11287,7 @@
         <v>297</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90">
@@ -9540,7 +11295,7 @@
         <v>342</v>
       </c>
       <c r="U90" t="s">
-        <v>385</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -9548,7 +11303,7 @@
         <v>279</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92">
@@ -9556,111 +11311,116 @@
         <v>280</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>458</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>164</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E550F74-BA8F-7149-AAE2-216534D1E2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3E550F74-BA8F-7149-AAE2-216534D1E2B1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16220" windowWidth="51200" windowHeight="15780" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15780" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16220"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="HelloWorld" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="HelloWorld" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -23,12 +23,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="459">
   <si>
     <t>description</t>
   </si>
@@ -1446,12 +1446,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1535,8 +1542,196 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,8 +1750,314 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1594,148 +2095,802 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="67">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="19" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1769,7 +2924,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -1794,10 +2949,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1832,7 +2987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1867,7 +3022,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1961,21 +3116,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1992,7 +3147,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2044,26 +3199,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2143,7 +3298,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>371</v>
       </c>
@@ -2223,7 +3378,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +3395,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>328</v>
+        <v>457</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -2297,7 +3452,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2314,7 +3469,7 @@
         <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
@@ -2368,7 +3523,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +3540,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -2433,7 +3588,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2447,7 +3602,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -2489,7 +3644,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2503,13 +3658,13 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -2545,7 +3700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>347</v>
       </c>
@@ -2559,13 +3714,13 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>91</v>
@@ -2598,7 +3753,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2611,11 +3766,14 @@
       <c r="E9" t="s">
         <v>306</v>
       </c>
+      <c r="F9" t="s">
+        <v>324</v>
+      </c>
       <c r="I9" t="s">
         <v>390</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>92</v>
@@ -2639,7 +3797,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>333</v>
       </c>
@@ -2649,11 +3807,14 @@
       <c r="E10" t="s">
         <v>352</v>
       </c>
+      <c r="F10" t="s">
+        <v>325</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>453</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>437</v>
@@ -2674,7 +3835,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2688,7 +3849,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>453</v>
       </c>
       <c r="M11" t="s">
         <v>93</v>
@@ -2706,7 +3867,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -2720,7 +3881,7 @@
         <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -2735,7 +3896,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2749,7 +3910,7 @@
         <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>94</v>
@@ -2764,7 +3925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -2777,6 +3938,9 @@
       <c r="I14" t="s">
         <v>83</v>
       </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
       <c r="M14" t="s">
         <v>95</v>
       </c>
@@ -2790,7 +3954,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2816,7 +3980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>407</v>
       </c>
@@ -2839,7 +4003,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>431</v>
       </c>
@@ -2856,7 +4020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>421</v>
       </c>
@@ -2873,7 +4037,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>357</v>
       </c>
@@ -2890,7 +4054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>403</v>
       </c>
@@ -2907,7 +4071,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2924,7 +4088,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2941,7 +4105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2955,7 +4119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2969,7 +4133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -2983,7 +4147,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>227</v>
       </c>
@@ -2997,7 +4161,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>65</v>
       </c>
@@ -3008,7 +4172,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -3019,7 +4183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>67</v>
       </c>
@@ -3030,7 +4194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>68</v>
       </c>
@@ -3041,7 +4205,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>69</v>
       </c>
@@ -3052,7 +4216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="C32" t="s">
         <v>70</v>
       </c>
@@ -3063,7 +4227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="C33" t="s">
         <v>71</v>
       </c>
@@ -3074,7 +4238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>330</v>
       </c>
@@ -3082,7 +4246,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>307</v>
       </c>
@@ -3090,7 +4254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>261</v>
       </c>
@@ -3098,7 +4262,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>308</v>
       </c>
@@ -3106,7 +4270,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>267</v>
       </c>
@@ -3114,7 +4278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>78</v>
       </c>
@@ -3122,7 +4286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>212</v>
       </c>
@@ -3130,7 +4294,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>289</v>
       </c>
@@ -3138,7 +4302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>300</v>
       </c>
@@ -3146,7 +4310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>301</v>
       </c>
@@ -3154,7 +4318,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>343</v>
       </c>
@@ -3162,7 +4326,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>342</v>
       </c>
@@ -3170,7 +4334,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>211</v>
       </c>
@@ -3178,7 +4342,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>320</v>
       </c>
@@ -3186,7 +4350,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>339</v>
       </c>
@@ -3194,7 +4358,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>368</v>
       </c>
@@ -3202,7 +4366,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>302</v>
       </c>
@@ -3210,7 +4374,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>356</v>
       </c>
@@ -3218,7 +4382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>331</v>
       </c>
@@ -3226,7 +4390,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>268</v>
       </c>
@@ -3234,7 +4398,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>292</v>
       </c>
@@ -3242,7 +4406,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>293</v>
       </c>
@@ -3250,7 +4414,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>294</v>
       </c>
@@ -3258,7 +4422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>303</v>
       </c>
@@ -3266,7 +4430,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>312</v>
       </c>
@@ -3274,7 +4438,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>337</v>
       </c>
@@ -3282,7 +4446,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>309</v>
       </c>
@@ -3290,7 +4454,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>310</v>
       </c>
@@ -3298,7 +4462,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>369</v>
       </c>
@@ -3306,7 +4470,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>370</v>
       </c>
@@ -3314,7 +4478,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>345</v>
       </c>
@@ -3322,7 +4486,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>313</v>
       </c>
@@ -3330,7 +4494,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>269</v>
       </c>
@@ -3338,7 +4502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>353</v>
       </c>
@@ -3346,7 +4510,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>314</v>
       </c>
@@ -3354,7 +4518,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
         <v>423</v>
       </c>
@@ -3362,7 +4526,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
         <v>304</v>
       </c>
@@ -3370,7 +4534,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
         <v>408</v>
       </c>
@@ -3378,7 +4542,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
         <v>262</v>
       </c>
@@ -3386,7 +4550,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
         <v>344</v>
       </c>
@@ -3394,7 +4558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
         <v>280</v>
       </c>
@@ -3402,7 +4566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
         <v>286</v>
       </c>
@@ -3410,7 +4574,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
         <v>291</v>
       </c>
@@ -3418,7 +4582,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
         <v>433</v>
       </c>
@@ -3426,7 +4590,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
         <v>332</v>
       </c>
@@ -3434,7 +4598,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
         <v>270</v>
       </c>
@@ -3442,7 +4606,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
         <v>281</v>
       </c>
@@ -3450,7 +4614,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
         <v>287</v>
       </c>
@@ -3458,7 +4622,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
         <v>276</v>
       </c>
@@ -3466,7 +4630,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="83" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
         <v>271</v>
       </c>
@@ -3474,7 +4638,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="84" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
         <v>288</v>
       </c>
@@ -3482,7 +4646,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
         <v>272</v>
       </c>
@@ -3490,7 +4654,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
         <v>273</v>
       </c>
@@ -3498,7 +4662,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
         <v>305</v>
       </c>
@@ -3506,7 +4670,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="88" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
         <v>311</v>
       </c>
@@ -3514,7 +4678,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
         <v>295</v>
       </c>
@@ -3522,7 +4686,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
         <v>340</v>
       </c>
@@ -3530,7 +4694,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="E91" t="s">
         <v>277</v>
       </c>
@@ -3538,7 +4702,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="92" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="E92" t="s">
         <v>278</v>
       </c>
@@ -3546,147 +4710,147 @@
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="U93" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="94" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="U94" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="U95" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="96" spans="5:21" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="U96" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="U97" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="U98" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="U99" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="U100" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="U101" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="U102" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="U103" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="U104" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="U105" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="106" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="U106" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="U107" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="U108" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="U109" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="U110" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="U111" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="U112" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="113" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="U113" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="21:21" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="U114" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="17" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="28.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="19.33203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="17.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3717,7 +4881,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>398</v>
       </c>
@@ -3738,7 +4902,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -3755,7 +4919,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>221</v>
       </c>
@@ -3800,7 +4964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>392</v>
       </c>
@@ -3831,7 +4995,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5" t="s">
         <v>419</v>
@@ -3856,7 +5020,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5" t="s">
         <v>420</v>
@@ -3881,7 +5045,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13"/>
@@ -3898,7 +5062,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -3915,7 +5079,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -3932,7 +5096,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -3949,7 +5113,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -3966,7 +5130,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -3983,7 +5147,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4000,7 +5164,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4017,7 +5181,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4034,7 +5198,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4051,7 +5215,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4068,7 +5232,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4085,7 +5249,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4102,7 +5266,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4119,7 +5283,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4136,7 +5300,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4153,7 +5317,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4170,7 +5334,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4187,7 +5351,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4204,7 +5368,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4221,7 +5385,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4238,7 +5402,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4255,7 +5419,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4272,7 +5436,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4289,7 +5453,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4306,7 +5470,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -4323,7 +5487,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -4340,7 +5504,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -4357,7 +5521,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -4374,7 +5538,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -4391,7 +5555,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -4408,7 +5572,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -4425,7 +5589,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -4442,7 +5606,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -4459,7 +5623,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -4476,7 +5640,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -4493,7 +5657,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -4510,7 +5674,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -4527,7 +5691,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -4544,7 +5708,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -4561,7 +5725,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -4578,7 +5742,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -4595,7 +5759,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -4612,7 +5776,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -4629,7 +5793,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -4646,7 +5810,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -4663,7 +5827,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -4680,7 +5844,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -4697,7 +5861,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -4714,7 +5878,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -4731,7 +5895,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -4748,7 +5912,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -4765,7 +5929,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -4782,7 +5946,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -4799,7 +5963,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -4816,7 +5980,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -4833,7 +5997,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -4850,7 +6014,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -4867,7 +6031,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -4884,7 +6048,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -4901,7 +6065,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -4918,7 +6082,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -4935,7 +6099,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -4952,7 +6116,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -4969,7 +6133,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -4986,7 +6150,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5003,7 +6167,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5020,7 +6184,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5037,7 +6201,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5054,7 +6218,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5071,7 +6235,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5088,7 +6252,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5105,7 +6269,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5122,7 +6286,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5139,7 +6303,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5156,7 +6320,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5173,7 +6337,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5190,7 +6354,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5207,7 +6371,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5224,7 +6388,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5241,7 +6405,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5258,7 +6422,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5275,7 +6439,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5292,7 +6456,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5309,7 +6473,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -5326,7 +6490,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -5343,7 +6507,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -5360,7 +6524,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -5377,7 +6541,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -5394,7 +6558,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -5411,7 +6575,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -5428,7 +6592,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -5445,7 +6609,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -5462,7 +6626,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -5479,7 +6643,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -5496,7 +6660,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -5513,7 +6677,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -5530,7 +6694,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -5547,7 +6711,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -5564,7 +6728,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -5581,7 +6745,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -5598,7 +6762,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -5615,7 +6779,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -5632,7 +6796,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -5649,7 +6813,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -5666,7 +6830,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -5683,7 +6847,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -5700,7 +6864,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -5717,7 +6881,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -5734,7 +6898,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -5751,7 +6915,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -5768,7 +6932,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -5785,7 +6949,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -5802,7 +6966,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -5819,7 +6983,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -5836,7 +7000,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -5853,7 +7017,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -5870,7 +7034,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -5887,7 +7051,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -5904,7 +7068,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -5921,7 +7085,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -5938,7 +7102,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -5955,7 +7119,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -5972,7 +7136,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -5989,7 +7153,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6006,7 +7170,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6023,7 +7187,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6040,7 +7204,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6057,7 +7221,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6074,7 +7238,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6091,7 +7255,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6108,7 +7272,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6125,7 +7289,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6142,7 +7306,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6159,7 +7323,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6176,7 +7340,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6193,7 +7357,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6210,7 +7374,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6227,7 +7391,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6244,7 +7408,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6261,7 +7425,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6278,7 +7442,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6295,7 +7459,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6312,7 +7476,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -6329,7 +7493,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -6346,7 +7510,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -6363,7 +7527,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -6380,7 +7544,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -6397,7 +7561,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -6414,7 +7578,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -6431,7 +7595,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -6448,7 +7612,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -6465,7 +7629,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -6482,7 +7646,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -6499,7 +7663,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -6516,7 +7680,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -6533,7 +7697,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -6550,7 +7714,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -6567,7 +7731,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -6584,7 +7748,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -6601,7 +7765,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -6618,7 +7782,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -6635,7 +7799,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -6652,7 +7816,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -6669,7 +7833,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -6686,7 +7850,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -6703,7 +7867,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -6720,7 +7884,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -6737,7 +7901,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -6754,7 +7918,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -6771,7 +7935,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -6788,7 +7952,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -6805,7 +7969,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -6822,7 +7986,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -6839,7 +8003,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -6856,7 +8020,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -6873,7 +8037,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -6890,7 +8054,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -6907,7 +8071,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -6924,7 +8088,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -6941,7 +8105,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -6958,7 +8122,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -6975,7 +8139,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -6992,7 +8156,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7009,7 +8173,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7026,7 +8190,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7043,7 +8207,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7060,7 +8224,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7077,7 +8241,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7094,7 +8258,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7111,7 +8275,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7128,7 +8292,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7145,7 +8309,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7162,7 +8326,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7179,7 +8343,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7196,7 +8360,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7213,7 +8377,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7230,7 +8394,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7247,7 +8411,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7264,7 +8428,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7281,7 +8445,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7298,7 +8462,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7315,7 +8479,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -7332,7 +8496,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -7349,7 +8513,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -7366,7 +8530,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -7383,7 +8547,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -7400,7 +8564,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -7417,7 +8581,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -7434,7 +8598,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -7451,7 +8615,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -7468,7 +8632,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -7485,7 +8649,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -7502,7 +8666,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -7519,7 +8683,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -7536,7 +8700,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -7553,7 +8717,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -7570,7 +8734,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -7587,7 +8751,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -7604,7 +8768,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -7621,7 +8785,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -7638,7 +8802,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -7655,7 +8819,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -7672,7 +8836,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -7689,7 +8853,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -7706,7 +8870,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -7723,7 +8887,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -7740,7 +8904,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -7757,7 +8921,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -7774,7 +8938,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -7791,7 +8955,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -7808,7 +8972,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -7825,7 +8989,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -7842,7 +9006,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -7859,7 +9023,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -7876,7 +9040,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -7893,7 +9057,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -7910,7 +9074,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -7927,7 +9091,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -7944,7 +9108,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -7961,7 +9125,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -7978,7 +9142,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -7995,7 +9159,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8012,7 +9176,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8029,7 +9193,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8046,7 +9210,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8063,7 +9227,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8080,7 +9244,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8097,7 +9261,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8114,7 +9278,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8131,7 +9295,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8148,7 +9312,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8165,7 +9329,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8182,7 +9346,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8199,7 +9363,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8216,7 +9380,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8233,7 +9397,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8250,7 +9414,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8267,7 +9431,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8284,7 +9448,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8301,7 +9465,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -8318,7 +9482,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -8335,7 +9499,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -8352,7 +9516,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -8369,7 +9533,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -8386,7 +9550,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -8403,7 +9567,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -8420,7 +9584,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -8437,7 +9601,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -8454,7 +9618,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -8471,7 +9635,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -8488,7 +9652,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -8505,7 +9669,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -8522,7 +9686,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -8539,7 +9703,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -8556,7 +9720,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -8573,7 +9737,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -8590,7 +9754,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -8607,7 +9771,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -8624,7 +9788,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -8641,7 +9805,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -8658,7 +9822,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -8675,7 +9839,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -8692,7 +9856,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -8709,7 +9873,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -8726,7 +9890,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -8743,7 +9907,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -8760,7 +9924,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -8777,7 +9941,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -8794,7 +9958,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -8811,7 +9975,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -8828,7 +9992,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -8845,7 +10009,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -8862,7 +10026,7 @@
       <c r="N300" s="15"/>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="27"/>
       <c r="B301" s="5"/>
       <c r="C301" s="13"/>
@@ -8879,7 +10043,7 @@
       <c r="N301" s="15"/>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="27"/>
       <c r="B302" s="5"/>
       <c r="C302" s="13"/>
@@ -8896,7 +10060,7 @@
       <c r="N302" s="15"/>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="27"/>
       <c r="B303" s="5"/>
       <c r="C303" s="13"/>
@@ -8913,7 +10077,7 @@
       <c r="N303" s="15"/>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="27"/>
       <c r="B304" s="5"/>
       <c r="C304" s="13"/>
@@ -8930,7 +10094,7 @@
       <c r="N304" s="15"/>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="27"/>
       <c r="B305" s="5"/>
       <c r="C305" s="13"/>
@@ -8947,7 +10111,7 @@
       <c r="N305" s="15"/>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="27"/>
       <c r="B306" s="5"/>
       <c r="C306" s="13"/>
@@ -8964,7 +10128,7 @@
       <c r="N306" s="15"/>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="27"/>
       <c r="B307" s="5"/>
       <c r="C307" s="13"/>
@@ -8981,7 +10145,7 @@
       <c r="N307" s="15"/>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="27"/>
       <c r="B308" s="5"/>
       <c r="C308" s="13"/>
@@ -8998,7 +10162,7 @@
       <c r="N308" s="15"/>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="27"/>
       <c r="B309" s="5"/>
       <c r="C309" s="13"/>
@@ -9015,7 +10179,7 @@
       <c r="N309" s="15"/>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="27"/>
       <c r="B310" s="5"/>
       <c r="C310" s="13"/>
@@ -9032,7 +10196,7 @@
       <c r="N310" s="15"/>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="27"/>
       <c r="B311" s="5"/>
       <c r="C311" s="13"/>
@@ -9049,7 +10213,7 @@
       <c r="N311" s="15"/>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="27"/>
       <c r="B312" s="5"/>
       <c r="C312" s="13"/>
@@ -9066,7 +10230,7 @@
       <c r="N312" s="15"/>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="27"/>
       <c r="B313" s="5"/>
       <c r="C313" s="13"/>
@@ -9083,7 +10247,7 @@
       <c r="N313" s="15"/>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="27"/>
       <c r="B314" s="5"/>
       <c r="C314" s="13"/>
@@ -9100,7 +10264,7 @@
       <c r="N314" s="15"/>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="27"/>
       <c r="B315" s="5"/>
       <c r="C315" s="13"/>
@@ -9117,7 +10281,7 @@
       <c r="N315" s="15"/>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="27"/>
       <c r="B316" s="5"/>
       <c r="C316" s="13"/>
@@ -9134,7 +10298,7 @@
       <c r="N316" s="15"/>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="27"/>
       <c r="B317" s="5"/>
       <c r="C317" s="13"/>
@@ -9151,7 +10315,7 @@
       <c r="N317" s="15"/>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="27"/>
       <c r="B318" s="5"/>
       <c r="C318" s="13"/>
@@ -9168,7 +10332,7 @@
       <c r="N318" s="15"/>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="27"/>
       <c r="B319" s="5"/>
       <c r="C319" s="13"/>
@@ -9185,7 +10349,7 @@
       <c r="N319" s="15"/>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="27"/>
       <c r="B320" s="5"/>
       <c r="C320" s="13"/>
@@ -9202,7 +10366,7 @@
       <c r="N320" s="15"/>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="27"/>
       <c r="B321" s="5"/>
       <c r="C321" s="13"/>
@@ -9219,7 +10383,7 @@
       <c r="N321" s="15"/>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="27"/>
       <c r="B322" s="5"/>
       <c r="C322" s="13"/>
@@ -9236,7 +10400,7 @@
       <c r="N322" s="15"/>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="27"/>
       <c r="B323" s="5"/>
       <c r="C323" s="13"/>
@@ -9253,7 +10417,7 @@
       <c r="N323" s="15"/>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="27"/>
       <c r="B324" s="5"/>
       <c r="C324" s="13"/>
@@ -9270,7 +10434,7 @@
       <c r="N324" s="15"/>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="27"/>
       <c r="B325" s="5"/>
       <c r="C325" s="13"/>
@@ -9287,7 +10451,7 @@
       <c r="N325" s="15"/>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="27"/>
       <c r="B326" s="5"/>
       <c r="C326" s="13"/>
@@ -9304,7 +10468,7 @@
       <c r="N326" s="15"/>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="27"/>
       <c r="B327" s="5"/>
       <c r="C327" s="13"/>
@@ -9321,7 +10485,7 @@
       <c r="N327" s="15"/>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="27"/>
       <c r="B328" s="5"/>
       <c r="C328" s="13"/>
@@ -9338,7 +10502,7 @@
       <c r="N328" s="15"/>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="27"/>
       <c r="B329" s="5"/>
       <c r="C329" s="13"/>
@@ -9355,7 +10519,7 @@
       <c r="N329" s="15"/>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="27"/>
       <c r="B330" s="5"/>
       <c r="C330" s="13"/>
@@ -9372,7 +10536,7 @@
       <c r="N330" s="15"/>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="27"/>
       <c r="B331" s="5"/>
       <c r="C331" s="13"/>
@@ -9389,7 +10553,7 @@
       <c r="N331" s="15"/>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="27"/>
       <c r="B332" s="5"/>
       <c r="C332" s="13"/>
@@ -9406,7 +10570,7 @@
       <c r="N332" s="15"/>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="27"/>
       <c r="B333" s="5"/>
       <c r="C333" s="13"/>
@@ -9423,7 +10587,7 @@
       <c r="N333" s="15"/>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="27"/>
       <c r="B334" s="5"/>
       <c r="C334" s="13"/>
@@ -9440,7 +10604,7 @@
       <c r="N334" s="15"/>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="27"/>
       <c r="B335" s="5"/>
       <c r="C335" s="13"/>
@@ -9457,7 +10621,7 @@
       <c r="N335" s="15"/>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="27"/>
       <c r="B336" s="5"/>
       <c r="C336" s="13"/>
@@ -9474,7 +10638,7 @@
       <c r="N336" s="15"/>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="27"/>
       <c r="B337" s="5"/>
       <c r="C337" s="13"/>
@@ -9491,7 +10655,7 @@
       <c r="N337" s="15"/>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="27"/>
       <c r="B338" s="5"/>
       <c r="C338" s="13"/>
@@ -9508,7 +10672,7 @@
       <c r="N338" s="15"/>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="27"/>
       <c r="B339" s="5"/>
       <c r="C339" s="13"/>
@@ -9525,7 +10689,7 @@
       <c r="N339" s="15"/>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="27"/>
       <c r="B340" s="5"/>
       <c r="C340" s="13"/>
@@ -9542,7 +10706,7 @@
       <c r="N340" s="15"/>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="27"/>
       <c r="B341" s="5"/>
       <c r="C341" s="13"/>
@@ -9559,7 +10723,7 @@
       <c r="N341" s="15"/>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="27"/>
       <c r="B342" s="5"/>
       <c r="C342" s="13"/>
@@ -9576,7 +10740,7 @@
       <c r="N342" s="15"/>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="27"/>
       <c r="B343" s="5"/>
       <c r="C343" s="13"/>
@@ -9593,7 +10757,7 @@
       <c r="N343" s="15"/>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="27"/>
       <c r="B344" s="5"/>
       <c r="C344" s="13"/>
@@ -9610,7 +10774,7 @@
       <c r="N344" s="15"/>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="27"/>
       <c r="B345" s="5"/>
       <c r="C345" s="13"/>
@@ -9627,7 +10791,7 @@
       <c r="N345" s="15"/>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="27"/>
       <c r="B346" s="5"/>
       <c r="C346" s="13"/>
@@ -9644,7 +10808,7 @@
       <c r="N346" s="15"/>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="27"/>
       <c r="B347" s="5"/>
       <c r="C347" s="13"/>
@@ -9661,7 +10825,7 @@
       <c r="N347" s="15"/>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="27"/>
       <c r="B348" s="5"/>
       <c r="C348" s="13"/>
@@ -9678,7 +10842,7 @@
       <c r="N348" s="15"/>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="27"/>
       <c r="B349" s="5"/>
       <c r="C349" s="13"/>
@@ -9695,7 +10859,7 @@
       <c r="N349" s="15"/>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="27"/>
       <c r="B350" s="5"/>
       <c r="C350" s="13"/>
@@ -9712,7 +10876,7 @@
       <c r="N350" s="15"/>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="27"/>
       <c r="B351" s="5"/>
       <c r="C351" s="13"/>
@@ -9729,7 +10893,7 @@
       <c r="N351" s="15"/>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="27"/>
       <c r="B352" s="5"/>
       <c r="C352" s="13"/>
@@ -9746,7 +10910,7 @@
       <c r="N352" s="15"/>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="27"/>
       <c r="B353" s="5"/>
       <c r="C353" s="13"/>
@@ -9763,7 +10927,7 @@
       <c r="N353" s="15"/>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="27"/>
       <c r="B354" s="5"/>
       <c r="C354" s="13"/>
@@ -9780,7 +10944,7 @@
       <c r="N354" s="15"/>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="27"/>
       <c r="B355" s="5"/>
       <c r="C355" s="13"/>
@@ -9797,7 +10961,7 @@
       <c r="N355" s="15"/>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="27"/>
       <c r="B356" s="5"/>
       <c r="C356" s="13"/>
@@ -9814,7 +10978,7 @@
       <c r="N356" s="15"/>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="27"/>
       <c r="B357" s="5"/>
       <c r="C357" s="13"/>
@@ -9831,7 +10995,7 @@
       <c r="N357" s="15"/>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="27"/>
       <c r="B358" s="5"/>
       <c r="C358" s="13"/>
@@ -9848,7 +11012,7 @@
       <c r="N358" s="15"/>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="27"/>
       <c r="B359" s="5"/>
       <c r="C359" s="13"/>
@@ -9865,7 +11029,7 @@
       <c r="N359" s="15"/>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="27"/>
       <c r="B360" s="5"/>
       <c r="C360" s="13"/>
@@ -9882,7 +11046,7 @@
       <c r="N360" s="15"/>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="27"/>
       <c r="B361" s="5"/>
       <c r="C361" s="13"/>
@@ -9899,7 +11063,7 @@
       <c r="N361" s="15"/>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="27"/>
       <c r="B362" s="5"/>
       <c r="C362" s="13"/>
@@ -9916,7 +11080,7 @@
       <c r="N362" s="15"/>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="27"/>
       <c r="B363" s="5"/>
       <c r="C363" s="13"/>
@@ -9933,7 +11097,7 @@
       <c r="N363" s="15"/>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="27"/>
       <c r="B364" s="5"/>
       <c r="C364" s="13"/>
@@ -9950,7 +11114,7 @@
       <c r="N364" s="15"/>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="27"/>
       <c r="B365" s="5"/>
       <c r="C365" s="13"/>
@@ -9967,7 +11131,7 @@
       <c r="N365" s="15"/>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="27"/>
       <c r="B366" s="5"/>
       <c r="C366" s="13"/>
@@ -9984,7 +11148,7 @@
       <c r="N366" s="15"/>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="27"/>
       <c r="B367" s="5"/>
       <c r="C367" s="13"/>
@@ -10001,7 +11165,7 @@
       <c r="N367" s="15"/>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="27"/>
       <c r="B368" s="5"/>
       <c r="C368" s="13"/>
@@ -10018,7 +11182,7 @@
       <c r="N368" s="15"/>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="27"/>
       <c r="B369" s="5"/>
       <c r="C369" s="13"/>
@@ -10035,7 +11199,7 @@
       <c r="N369" s="15"/>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="27"/>
       <c r="B370" s="5"/>
       <c r="C370" s="13"/>
@@ -10052,7 +11216,7 @@
       <c r="N370" s="15"/>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="27"/>
       <c r="B371" s="5"/>
       <c r="C371" s="13"/>
@@ -10069,7 +11233,7 @@
       <c r="N371" s="15"/>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="27"/>
       <c r="B372" s="5"/>
       <c r="C372" s="13"/>
@@ -10086,7 +11250,7 @@
       <c r="N372" s="15"/>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="27"/>
       <c r="B373" s="5"/>
       <c r="C373" s="13"/>
@@ -10103,7 +11267,7 @@
       <c r="N373" s="15"/>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="27"/>
       <c r="B374" s="5"/>
       <c r="C374" s="13"/>
@@ -10120,7 +11284,7 @@
       <c r="N374" s="15"/>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="27"/>
       <c r="B375" s="5"/>
       <c r="C375" s="13"/>
@@ -10137,7 +11301,7 @@
       <c r="N375" s="15"/>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="27"/>
       <c r="B376" s="5"/>
       <c r="C376" s="13"/>
@@ -10154,7 +11318,7 @@
       <c r="N376" s="15"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="27"/>
       <c r="B377" s="5"/>
       <c r="C377" s="13"/>
@@ -10171,7 +11335,7 @@
       <c r="N377" s="15"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="27"/>
       <c r="B378" s="5"/>
       <c r="C378" s="13"/>
@@ -10188,7 +11352,7 @@
       <c r="N378" s="15"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="27"/>
       <c r="B379" s="5"/>
       <c r="C379" s="13"/>
@@ -10205,7 +11369,7 @@
       <c r="N379" s="15"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="27"/>
       <c r="B380" s="5"/>
       <c r="C380" s="13"/>
@@ -10222,7 +11386,7 @@
       <c r="N380" s="15"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="27"/>
       <c r="B381" s="5"/>
       <c r="C381" s="13"/>
@@ -10239,7 +11403,7 @@
       <c r="N381" s="15"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="27"/>
       <c r="B382" s="5"/>
       <c r="C382" s="13"/>
@@ -10256,7 +11420,7 @@
       <c r="N382" s="15"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="27"/>
       <c r="B383" s="5"/>
       <c r="C383" s="13"/>
@@ -10273,7 +11437,7 @@
       <c r="N383" s="15"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="27"/>
       <c r="B384" s="5"/>
       <c r="C384" s="13"/>
@@ -10290,7 +11454,7 @@
       <c r="N384" s="15"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="27"/>
       <c r="B385" s="5"/>
       <c r="C385" s="13"/>
@@ -10307,7 +11471,7 @@
       <c r="N385" s="15"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="27"/>
       <c r="B386" s="5"/>
       <c r="C386" s="13"/>
@@ -10324,7 +11488,7 @@
       <c r="N386" s="15"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="27"/>
       <c r="B387" s="5"/>
       <c r="C387" s="13"/>
@@ -10341,7 +11505,7 @@
       <c r="N387" s="15"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="27"/>
       <c r="B388" s="5"/>
       <c r="C388" s="13"/>
@@ -10358,7 +11522,7 @@
       <c r="N388" s="15"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="27"/>
       <c r="B389" s="5"/>
       <c r="C389" s="13"/>
@@ -10375,7 +11539,7 @@
       <c r="N389" s="15"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="27"/>
       <c r="B390" s="5"/>
       <c r="C390" s="13"/>
@@ -10392,7 +11556,7 @@
       <c r="N390" s="15"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="27"/>
       <c r="B391" s="5"/>
       <c r="C391" s="13"/>
@@ -10409,7 +11573,7 @@
       <c r="N391" s="15"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="27"/>
       <c r="B392" s="5"/>
       <c r="C392" s="13"/>
@@ -10426,7 +11590,7 @@
       <c r="N392" s="15"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="27"/>
       <c r="B393" s="5"/>
       <c r="C393" s="13"/>
@@ -10443,7 +11607,7 @@
       <c r="N393" s="15"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="27"/>
       <c r="B394" s="5"/>
       <c r="C394" s="13"/>
@@ -10460,7 +11624,7 @@
       <c r="N394" s="15"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="27"/>
       <c r="B395" s="5"/>
       <c r="C395" s="13"/>
@@ -10477,7 +11641,7 @@
       <c r="N395" s="15"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="27"/>
       <c r="B396" s="5"/>
       <c r="C396" s="13"/>
@@ -10494,7 +11658,7 @@
       <c r="N396" s="15"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="27"/>
       <c r="B397" s="5"/>
       <c r="C397" s="13"/>
@@ -10511,7 +11675,7 @@
       <c r="N397" s="15"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="27"/>
       <c r="B398" s="5"/>
       <c r="C398" s="13"/>
@@ -10528,7 +11692,7 @@
       <c r="N398" s="15"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="27"/>
       <c r="B399" s="5"/>
       <c r="C399" s="13"/>
@@ -10545,7 +11709,7 @@
       <c r="N399" s="15"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="27"/>
       <c r="B400" s="5"/>
       <c r="C400" s="13"/>
@@ -10562,7 +11726,7 @@
       <c r="N400" s="15"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="27"/>
       <c r="B401" s="5"/>
       <c r="C401" s="13"/>
@@ -10579,7 +11743,7 @@
       <c r="N401" s="15"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="27"/>
       <c r="B402" s="5"/>
       <c r="C402" s="13"/>
@@ -10596,7 +11760,7 @@
       <c r="N402" s="15"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="27"/>
       <c r="B403" s="5"/>
       <c r="C403" s="13"/>
@@ -10613,7 +11777,7 @@
       <c r="N403" s="15"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="27"/>
       <c r="B404" s="5"/>
       <c r="C404" s="13"/>
@@ -10630,7 +11794,7 @@
       <c r="N404" s="15"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="27"/>
       <c r="B405" s="5"/>
       <c r="C405" s="13"/>
@@ -10647,7 +11811,7 @@
       <c r="N405" s="15"/>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="27"/>
       <c r="B406" s="5"/>
       <c r="C406" s="13"/>
@@ -10664,7 +11828,7 @@
       <c r="N406" s="15"/>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="27"/>
       <c r="B407" s="5"/>
       <c r="C407" s="13"/>
@@ -10681,7 +11845,7 @@
       <c r="N407" s="15"/>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="27"/>
       <c r="B408" s="5"/>
       <c r="C408" s="13"/>
@@ -10698,7 +11862,7 @@
       <c r="N408" s="15"/>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="27"/>
       <c r="B409" s="5"/>
       <c r="C409" s="13"/>
@@ -10715,7 +11879,7 @@
       <c r="N409" s="15"/>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="27"/>
       <c r="B410" s="5"/>
       <c r="C410" s="13"/>
@@ -10732,7 +11896,7 @@
       <c r="N410" s="15"/>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="27"/>
       <c r="B411" s="5"/>
       <c r="C411" s="13"/>
@@ -10749,7 +11913,7 @@
       <c r="N411" s="15"/>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="27"/>
       <c r="B412" s="5"/>
       <c r="C412" s="13"/>
@@ -10766,7 +11930,7 @@
       <c r="N412" s="15"/>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="27"/>
       <c r="B413" s="5"/>
       <c r="C413" s="13"/>
@@ -10783,7 +11947,7 @@
       <c r="N413" s="15"/>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="27"/>
       <c r="B414" s="5"/>
       <c r="C414" s="13"/>
@@ -10800,7 +11964,7 @@
       <c r="N414" s="15"/>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="27"/>
       <c r="B415" s="5"/>
       <c r="C415" s="13"/>
@@ -10817,7 +11981,7 @@
       <c r="N415" s="15"/>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="27"/>
       <c r="B416" s="5"/>
       <c r="C416" s="13"/>
@@ -10834,7 +11998,7 @@
       <c r="N416" s="15"/>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="27"/>
       <c r="B417" s="5"/>
       <c r="C417" s="13"/>
@@ -10851,7 +12015,7 @@
       <c r="N417" s="15"/>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="27"/>
       <c r="B418" s="5"/>
       <c r="C418" s="13"/>
@@ -10868,7 +12032,7 @@
       <c r="N418" s="15"/>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="27"/>
       <c r="B419" s="5"/>
       <c r="C419" s="13"/>
@@ -10885,7 +12049,7 @@
       <c r="N419" s="15"/>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="27"/>
       <c r="B420" s="5"/>
       <c r="C420" s="13"/>
@@ -10902,7 +12066,7 @@
       <c r="N420" s="15"/>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="27"/>
       <c r="B421" s="5"/>
       <c r="C421" s="13"/>
@@ -10919,7 +12083,7 @@
       <c r="N421" s="15"/>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="27"/>
       <c r="B422" s="5"/>
       <c r="C422" s="13"/>
@@ -10936,7 +12100,7 @@
       <c r="N422" s="15"/>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="27"/>
       <c r="B423" s="5"/>
       <c r="C423" s="13"/>
@@ -10953,7 +12117,7 @@
       <c r="N423" s="15"/>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="27"/>
       <c r="B424" s="5"/>
       <c r="C424" s="13"/>
@@ -10970,7 +12134,7 @@
       <c r="N424" s="15"/>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="27"/>
       <c r="B425" s="5"/>
       <c r="C425" s="13"/>
@@ -10987,7 +12151,7 @@
       <c r="N425" s="15"/>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="27"/>
       <c r="B426" s="5"/>
       <c r="C426" s="13"/>
@@ -11004,7 +12168,7 @@
       <c r="N426" s="15"/>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="27"/>
       <c r="B427" s="5"/>
       <c r="C427" s="13"/>
@@ -11021,7 +12185,7 @@
       <c r="N427" s="15"/>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="27"/>
       <c r="B428" s="5"/>
       <c r="C428" s="13"/>
@@ -11038,7 +12202,7 @@
       <c r="N428" s="15"/>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="27"/>
       <c r="B429" s="5"/>
       <c r="C429" s="13"/>
@@ -11055,7 +12219,7 @@
       <c r="N429" s="15"/>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="27"/>
       <c r="B430" s="5"/>
       <c r="C430" s="13"/>
@@ -11072,7 +12236,7 @@
       <c r="N430" s="15"/>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="27"/>
       <c r="B431" s="5"/>
       <c r="C431" s="13"/>
@@ -11089,7 +12253,7 @@
       <c r="N431" s="15"/>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="27"/>
       <c r="B432" s="5"/>
       <c r="C432" s="13"/>
@@ -11106,7 +12270,7 @@
       <c r="N432" s="15"/>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="27"/>
       <c r="B433" s="5"/>
       <c r="C433" s="13"/>
@@ -11123,7 +12287,7 @@
       <c r="N433" s="15"/>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="27"/>
       <c r="B434" s="5"/>
       <c r="C434" s="13"/>
@@ -11140,7 +12304,7 @@
       <c r="N434" s="15"/>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="27"/>
       <c r="B435" s="5"/>
       <c r="C435" s="13"/>
@@ -11157,7 +12321,7 @@
       <c r="N435" s="15"/>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="27"/>
       <c r="B436" s="5"/>
       <c r="C436" s="13"/>
@@ -11174,7 +12338,7 @@
       <c r="N436" s="15"/>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="27"/>
       <c r="B437" s="5"/>
       <c r="C437" s="13"/>
@@ -11191,7 +12355,7 @@
       <c r="N437" s="15"/>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="27"/>
       <c r="B438" s="5"/>
       <c r="C438" s="13"/>
@@ -11208,7 +12372,7 @@
       <c r="N438" s="15"/>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="27"/>
       <c r="B439" s="5"/>
       <c r="C439" s="13"/>
@@ -11225,7 +12389,7 @@
       <c r="N439" s="15"/>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="27"/>
       <c r="B440" s="5"/>
       <c r="C440" s="13"/>
@@ -11242,7 +12406,7 @@
       <c r="N440" s="15"/>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="27"/>
       <c r="B441" s="5"/>
       <c r="C441" s="13"/>
@@ -11259,7 +12423,7 @@
       <c r="N441" s="15"/>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="27"/>
       <c r="B442" s="5"/>
       <c r="C442" s="13"/>
@@ -11276,7 +12440,7 @@
       <c r="N442" s="15"/>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="27"/>
       <c r="B443" s="5"/>
       <c r="C443" s="13"/>
@@ -11293,7 +12457,7 @@
       <c r="N443" s="15"/>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="27"/>
       <c r="B444" s="5"/>
       <c r="C444" s="13"/>
@@ -11310,7 +12474,7 @@
       <c r="N444" s="15"/>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="27"/>
       <c r="B445" s="5"/>
       <c r="C445" s="13"/>
@@ -11327,7 +12491,7 @@
       <c r="N445" s="15"/>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="27"/>
       <c r="B446" s="5"/>
       <c r="C446" s="13"/>
@@ -11344,7 +12508,7 @@
       <c r="N446" s="15"/>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="27"/>
       <c r="B447" s="5"/>
       <c r="C447" s="13"/>
@@ -11361,7 +12525,7 @@
       <c r="N447" s="15"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="27"/>
       <c r="B448" s="5"/>
       <c r="C448" s="13"/>
@@ -11378,7 +12542,7 @@
       <c r="N448" s="15"/>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="27"/>
       <c r="B449" s="5"/>
       <c r="C449" s="13"/>
@@ -11395,7 +12559,7 @@
       <c r="N449" s="15"/>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="27"/>
       <c r="B450" s="5"/>
       <c r="C450" s="13"/>
@@ -11412,7 +12576,7 @@
       <c r="N450" s="15"/>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="27"/>
       <c r="B451" s="5"/>
       <c r="C451" s="13"/>
@@ -11429,7 +12593,7 @@
       <c r="N451" s="15"/>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="27"/>
       <c r="B452" s="5"/>
       <c r="C452" s="13"/>
@@ -11446,7 +12610,7 @@
       <c r="N452" s="15"/>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="27"/>
       <c r="B453" s="5"/>
       <c r="C453" s="13"/>
@@ -11463,7 +12627,7 @@
       <c r="N453" s="15"/>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="27"/>
       <c r="B454" s="5"/>
       <c r="C454" s="13"/>
@@ -11480,7 +12644,7 @@
       <c r="N454" s="15"/>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="27"/>
       <c r="B455" s="5"/>
       <c r="C455" s="13"/>
@@ -11497,7 +12661,7 @@
       <c r="N455" s="15"/>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="27"/>
       <c r="B456" s="5"/>
       <c r="C456" s="13"/>
@@ -11514,7 +12678,7 @@
       <c r="N456" s="15"/>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="27"/>
       <c r="B457" s="5"/>
       <c r="C457" s="13"/>
@@ -11531,7 +12695,7 @@
       <c r="N457" s="15"/>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="27"/>
       <c r="B458" s="5"/>
       <c r="C458" s="13"/>
@@ -11548,7 +12712,7 @@
       <c r="N458" s="15"/>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="27"/>
       <c r="B459" s="5"/>
       <c r="C459" s="13"/>
@@ -11565,7 +12729,7 @@
       <c r="N459" s="15"/>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="27"/>
       <c r="B460" s="5"/>
       <c r="C460" s="13"/>
@@ -11582,7 +12746,7 @@
       <c r="N460" s="15"/>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="27"/>
       <c r="B461" s="5"/>
       <c r="C461" s="13"/>
@@ -11599,7 +12763,7 @@
       <c r="N461" s="15"/>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="27"/>
       <c r="B462" s="5"/>
       <c r="C462" s="13"/>
@@ -11616,7 +12780,7 @@
       <c r="N462" s="15"/>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="27"/>
       <c r="B463" s="5"/>
       <c r="C463" s="13"/>
@@ -11633,7 +12797,7 @@
       <c r="N463" s="15"/>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="27"/>
       <c r="B464" s="5"/>
       <c r="C464" s="13"/>
@@ -11650,7 +12814,7 @@
       <c r="N464" s="15"/>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="27"/>
       <c r="B465" s="5"/>
       <c r="C465" s="13"/>
@@ -11667,7 +12831,7 @@
       <c r="N465" s="15"/>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="27"/>
       <c r="B466" s="5"/>
       <c r="C466" s="13"/>
@@ -11684,7 +12848,7 @@
       <c r="N466" s="15"/>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="27"/>
       <c r="B467" s="5"/>
       <c r="C467" s="13"/>
@@ -11701,7 +12865,7 @@
       <c r="N467" s="15"/>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="27"/>
       <c r="B468" s="5"/>
       <c r="C468" s="13"/>
@@ -11718,7 +12882,7 @@
       <c r="N468" s="15"/>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="27"/>
       <c r="B469" s="5"/>
       <c r="C469" s="13"/>
@@ -11735,7 +12899,7 @@
       <c r="N469" s="15"/>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="27"/>
       <c r="B470" s="5"/>
       <c r="C470" s="13"/>
@@ -11752,7 +12916,7 @@
       <c r="N470" s="15"/>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="27"/>
       <c r="B471" s="5"/>
       <c r="C471" s="13"/>
@@ -11769,7 +12933,7 @@
       <c r="N471" s="15"/>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="27"/>
       <c r="B472" s="5"/>
       <c r="C472" s="13"/>
@@ -11786,7 +12950,7 @@
       <c r="N472" s="15"/>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="27"/>
       <c r="B473" s="5"/>
       <c r="C473" s="13"/>
@@ -11803,7 +12967,7 @@
       <c r="N473" s="15"/>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="27"/>
       <c r="B474" s="5"/>
       <c r="C474" s="13"/>
@@ -11820,7 +12984,7 @@
       <c r="N474" s="15"/>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="27"/>
       <c r="B475" s="5"/>
       <c r="C475" s="13"/>
@@ -11837,7 +13001,7 @@
       <c r="N475" s="15"/>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="27"/>
       <c r="B476" s="5"/>
       <c r="C476" s="13"/>
@@ -11854,7 +13018,7 @@
       <c r="N476" s="15"/>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="27"/>
       <c r="B477" s="5"/>
       <c r="C477" s="13"/>
@@ -11871,7 +13035,7 @@
       <c r="N477" s="15"/>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="27"/>
       <c r="B478" s="5"/>
       <c r="C478" s="13"/>
@@ -11888,7 +13052,7 @@
       <c r="N478" s="15"/>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="27"/>
       <c r="B479" s="5"/>
       <c r="C479" s="13"/>
@@ -11905,7 +13069,7 @@
       <c r="N479" s="15"/>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="27"/>
       <c r="B480" s="5"/>
       <c r="C480" s="13"/>
@@ -11922,7 +13086,7 @@
       <c r="N480" s="15"/>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="27"/>
       <c r="B481" s="5"/>
       <c r="C481" s="13"/>
@@ -11939,7 +13103,7 @@
       <c r="N481" s="15"/>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="27"/>
       <c r="B482" s="5"/>
       <c r="C482" s="13"/>
@@ -11956,7 +13120,7 @@
       <c r="N482" s="15"/>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="27"/>
       <c r="B483" s="5"/>
       <c r="C483" s="13"/>
@@ -11973,7 +13137,7 @@
       <c r="N483" s="15"/>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="27"/>
       <c r="B484" s="5"/>
       <c r="C484" s="13"/>
@@ -11990,7 +13154,7 @@
       <c r="N484" s="15"/>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="27"/>
       <c r="B485" s="5"/>
       <c r="C485" s="13"/>
@@ -12007,7 +13171,7 @@
       <c r="N485" s="15"/>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="27"/>
       <c r="B486" s="5"/>
       <c r="C486" s="13"/>
@@ -12024,7 +13188,7 @@
       <c r="N486" s="15"/>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="27"/>
       <c r="B487" s="5"/>
       <c r="C487" s="13"/>
@@ -12041,7 +13205,7 @@
       <c r="N487" s="15"/>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="27"/>
       <c r="B488" s="5"/>
       <c r="C488" s="13"/>
@@ -12058,7 +13222,7 @@
       <c r="N488" s="15"/>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="27"/>
       <c r="B489" s="5"/>
       <c r="C489" s="13"/>
@@ -12075,7 +13239,7 @@
       <c r="N489" s="15"/>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="27"/>
       <c r="B490" s="5"/>
       <c r="C490" s="13"/>
@@ -12092,7 +13256,7 @@
       <c r="N490" s="15"/>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="27"/>
       <c r="B491" s="5"/>
       <c r="C491" s="13"/>
@@ -12109,7 +13273,7 @@
       <c r="N491" s="15"/>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="27"/>
       <c r="B492" s="5"/>
       <c r="C492" s="13"/>
@@ -12126,7 +13290,7 @@
       <c r="N492" s="15"/>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="27"/>
       <c r="B493" s="5"/>
       <c r="C493" s="13"/>
@@ -12143,7 +13307,7 @@
       <c r="N493" s="15"/>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="27"/>
       <c r="B494" s="5"/>
       <c r="C494" s="13"/>
@@ -12160,7 +13324,7 @@
       <c r="N494" s="15"/>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="27"/>
       <c r="B495" s="5"/>
       <c r="C495" s="13"/>
@@ -12177,7 +13341,7 @@
       <c r="N495" s="15"/>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="27"/>
       <c r="B496" s="5"/>
       <c r="C496" s="13"/>
@@ -12194,7 +13358,7 @@
       <c r="N496" s="15"/>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="27"/>
       <c r="B497" s="5"/>
       <c r="C497" s="13"/>
@@ -12211,7 +13375,7 @@
       <c r="N497" s="15"/>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="27"/>
       <c r="B498" s="5"/>
       <c r="C498" s="13"/>
@@ -12228,7 +13392,7 @@
       <c r="N498" s="15"/>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="27"/>
       <c r="B499" s="5"/>
       <c r="C499" s="13"/>
@@ -12245,7 +13409,7 @@
       <c r="N499" s="15"/>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="27"/>
       <c r="B500" s="5"/>
       <c r="C500" s="13"/>
@@ -12262,7 +13426,7 @@
       <c r="N500" s="15"/>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="27"/>
       <c r="B501" s="5"/>
       <c r="C501" s="13"/>
@@ -12279,7 +13443,7 @@
       <c r="N501" s="15"/>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="27"/>
       <c r="B502" s="5"/>
       <c r="C502" s="13"/>
@@ -12296,7 +13460,7 @@
       <c r="N502" s="15"/>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="27"/>
       <c r="B503" s="5"/>
       <c r="C503" s="13"/>
@@ -12313,7 +13477,7 @@
       <c r="N503" s="15"/>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="27"/>
       <c r="B504" s="5"/>
       <c r="C504" s="13"/>
@@ -12330,7 +13494,7 @@
       <c r="N504" s="15"/>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="27"/>
       <c r="B505" s="5"/>
       <c r="C505" s="13"/>
@@ -12347,7 +13511,7 @@
       <c r="N505" s="15"/>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="27"/>
       <c r="B506" s="5"/>
       <c r="C506" s="13"/>
@@ -12364,7 +13528,7 @@
       <c r="N506" s="15"/>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="27"/>
       <c r="B507" s="5"/>
       <c r="C507" s="13"/>
@@ -12381,7 +13545,7 @@
       <c r="N507" s="15"/>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="27"/>
       <c r="B508" s="5"/>
       <c r="C508" s="13"/>
@@ -12398,7 +13562,7 @@
       <c r="N508" s="15"/>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="27"/>
       <c r="B509" s="5"/>
       <c r="C509" s="13"/>
@@ -12415,7 +13579,7 @@
       <c r="N509" s="15"/>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="27"/>
       <c r="B510" s="5"/>
       <c r="C510" s="13"/>
@@ -12432,7 +13596,7 @@
       <c r="N510" s="15"/>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="27"/>
       <c r="B511" s="5"/>
       <c r="C511" s="13"/>
@@ -12449,7 +13613,7 @@
       <c r="N511" s="15"/>
       <c r="O511" s="3"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="27"/>
       <c r="B512" s="5"/>
       <c r="C512" s="13"/>
@@ -12466,7 +13630,7 @@
       <c r="N512" s="15"/>
       <c r="O512" s="3"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="27"/>
       <c r="B513" s="5"/>
       <c r="C513" s="13"/>
@@ -12483,7 +13647,7 @@
       <c r="N513" s="15"/>
       <c r="O513" s="3"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="27"/>
       <c r="B514" s="5"/>
       <c r="C514" s="13"/>
@@ -12500,7 +13664,7 @@
       <c r="N514" s="15"/>
       <c r="O514" s="3"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="27"/>
       <c r="B515" s="5"/>
       <c r="C515" s="13"/>
@@ -12517,7 +13681,7 @@
       <c r="N515" s="15"/>
       <c r="O515" s="3"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="27"/>
       <c r="B516" s="5"/>
       <c r="C516" s="13"/>
@@ -12534,7 +13698,7 @@
       <c r="N516" s="15"/>
       <c r="O516" s="3"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="27"/>
       <c r="B517" s="5"/>
       <c r="C517" s="13"/>
@@ -12551,7 +13715,7 @@
       <c r="N517" s="15"/>
       <c r="O517" s="3"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="27"/>
       <c r="B518" s="5"/>
       <c r="C518" s="13"/>
@@ -12568,7 +13732,7 @@
       <c r="N518" s="15"/>
       <c r="O518" s="3"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="27"/>
       <c r="B519" s="5"/>
       <c r="C519" s="13"/>
@@ -12585,7 +13749,7 @@
       <c r="N519" s="15"/>
       <c r="O519" s="3"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="27"/>
       <c r="B520" s="5"/>
       <c r="C520" s="13"/>
@@ -12602,7 +13766,7 @@
       <c r="N520" s="15"/>
       <c r="O520" s="3"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="27"/>
       <c r="B521" s="5"/>
       <c r="C521" s="13"/>
@@ -12619,7 +13783,7 @@
       <c r="N521" s="15"/>
       <c r="O521" s="3"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="27"/>
       <c r="B522" s="5"/>
       <c r="C522" s="13"/>
@@ -12636,7 +13800,7 @@
       <c r="N522" s="15"/>
       <c r="O522" s="3"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="27"/>
       <c r="B523" s="5"/>
       <c r="C523" s="13"/>
@@ -12653,7 +13817,7 @@
       <c r="N523" s="15"/>
       <c r="O523" s="3"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="27"/>
       <c r="B524" s="5"/>
       <c r="C524" s="13"/>
@@ -12670,7 +13834,7 @@
       <c r="N524" s="15"/>
       <c r="O524" s="3"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="27"/>
       <c r="B525" s="5"/>
       <c r="C525" s="13"/>
@@ -12687,7 +13851,7 @@
       <c r="N525" s="15"/>
       <c r="O525" s="3"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="27"/>
       <c r="B526" s="5"/>
       <c r="C526" s="13"/>
@@ -12704,7 +13868,7 @@
       <c r="N526" s="15"/>
       <c r="O526" s="3"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="27"/>
       <c r="B527" s="5"/>
       <c r="C527" s="13"/>
@@ -12721,7 +13885,7 @@
       <c r="N527" s="15"/>
       <c r="O527" s="3"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="27"/>
       <c r="B528" s="5"/>
       <c r="C528" s="13"/>
@@ -12738,7 +13902,7 @@
       <c r="N528" s="15"/>
       <c r="O528" s="3"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="27"/>
       <c r="B529" s="5"/>
       <c r="C529" s="13"/>
@@ -12755,7 +13919,7 @@
       <c r="N529" s="15"/>
       <c r="O529" s="3"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="27"/>
       <c r="B530" s="5"/>
       <c r="C530" s="13"/>
@@ -12772,7 +13936,7 @@
       <c r="N530" s="15"/>
       <c r="O530" s="3"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="27"/>
       <c r="B531" s="5"/>
       <c r="C531" s="13"/>
@@ -12789,7 +13953,7 @@
       <c r="N531" s="15"/>
       <c r="O531" s="3"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="27"/>
       <c r="B532" s="5"/>
       <c r="C532" s="13"/>
@@ -12806,7 +13970,7 @@
       <c r="N532" s="15"/>
       <c r="O532" s="3"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="27"/>
       <c r="B533" s="5"/>
       <c r="C533" s="13"/>
@@ -12823,7 +13987,7 @@
       <c r="N533" s="15"/>
       <c r="O533" s="3"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="27"/>
       <c r="B534" s="5"/>
       <c r="C534" s="13"/>
@@ -12840,7 +14004,7 @@
       <c r="N534" s="15"/>
       <c r="O534" s="3"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="27"/>
       <c r="B535" s="5"/>
       <c r="C535" s="13"/>
@@ -12857,7 +14021,7 @@
       <c r="N535" s="15"/>
       <c r="O535" s="3"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="27"/>
       <c r="B536" s="5"/>
       <c r="C536" s="13"/>
@@ -12874,7 +14038,7 @@
       <c r="N536" s="15"/>
       <c r="O536" s="3"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="27"/>
       <c r="B537" s="5"/>
       <c r="C537" s="13"/>
@@ -12891,7 +14055,7 @@
       <c r="N537" s="15"/>
       <c r="O537" s="3"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="27"/>
       <c r="B538" s="5"/>
       <c r="C538" s="13"/>
@@ -12908,7 +14072,7 @@
       <c r="N538" s="15"/>
       <c r="O538" s="3"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="27"/>
       <c r="B539" s="5"/>
       <c r="C539" s="13"/>
@@ -12925,7 +14089,7 @@
       <c r="N539" s="15"/>
       <c r="O539" s="3"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="27"/>
       <c r="B540" s="5"/>
       <c r="C540" s="13"/>
@@ -12942,7 +14106,7 @@
       <c r="N540" s="15"/>
       <c r="O540" s="3"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="27"/>
       <c r="B541" s="5"/>
       <c r="C541" s="13"/>
@@ -12959,7 +14123,7 @@
       <c r="N541" s="15"/>
       <c r="O541" s="3"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="27"/>
       <c r="B542" s="5"/>
       <c r="C542" s="13"/>
@@ -12976,7 +14140,7 @@
       <c r="N542" s="15"/>
       <c r="O542" s="3"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="27"/>
       <c r="B543" s="5"/>
       <c r="C543" s="13"/>
@@ -12993,7 +14157,7 @@
       <c r="N543" s="15"/>
       <c r="O543" s="3"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="27"/>
       <c r="B544" s="5"/>
       <c r="C544" s="13"/>
@@ -13010,7 +14174,7 @@
       <c r="N544" s="15"/>
       <c r="O544" s="3"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="27"/>
       <c r="B545" s="5"/>
       <c r="C545" s="13"/>
@@ -13027,7 +14191,7 @@
       <c r="N545" s="15"/>
       <c r="O545" s="3"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="27"/>
       <c r="B546" s="5"/>
       <c r="C546" s="13"/>
@@ -13044,7 +14208,7 @@
       <c r="N546" s="15"/>
       <c r="O546" s="3"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="27"/>
       <c r="B547" s="5"/>
       <c r="C547" s="13"/>
@@ -13061,7 +14225,7 @@
       <c r="N547" s="15"/>
       <c r="O547" s="3"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="27"/>
       <c r="B548" s="5"/>
       <c r="C548" s="13"/>
@@ -13078,7 +14242,7 @@
       <c r="N548" s="15"/>
       <c r="O548" s="3"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="27"/>
       <c r="B549" s="5"/>
       <c r="C549" s="13"/>
@@ -13095,7 +14259,7 @@
       <c r="N549" s="15"/>
       <c r="O549" s="3"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="27"/>
       <c r="B550" s="5"/>
       <c r="C550" s="13"/>
@@ -13112,7 +14276,7 @@
       <c r="N550" s="15"/>
       <c r="O550" s="3"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="27"/>
       <c r="B551" s="5"/>
       <c r="C551" s="13"/>
@@ -13129,7 +14293,7 @@
       <c r="N551" s="15"/>
       <c r="O551" s="3"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="27"/>
       <c r="B552" s="5"/>
       <c r="C552" s="13"/>
@@ -13146,7 +14310,7 @@
       <c r="N552" s="15"/>
       <c r="O552" s="3"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="27"/>
       <c r="B553" s="5"/>
       <c r="C553" s="13"/>
@@ -13163,7 +14327,7 @@
       <c r="N553" s="15"/>
       <c r="O553" s="3"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="27"/>
       <c r="B554" s="5"/>
       <c r="C554" s="13"/>
@@ -13180,7 +14344,7 @@
       <c r="N554" s="15"/>
       <c r="O554" s="3"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="27"/>
       <c r="B555" s="5"/>
       <c r="C555" s="13"/>
@@ -13197,7 +14361,7 @@
       <c r="N555" s="15"/>
       <c r="O555" s="3"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="27"/>
       <c r="B556" s="5"/>
       <c r="C556" s="13"/>
@@ -13214,7 +14378,7 @@
       <c r="N556" s="15"/>
       <c r="O556" s="3"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="27"/>
       <c r="B557" s="5"/>
       <c r="C557" s="13"/>
@@ -13231,7 +14395,7 @@
       <c r="N557" s="15"/>
       <c r="O557" s="3"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="27"/>
       <c r="B558" s="5"/>
       <c r="C558" s="13"/>
@@ -13248,7 +14412,7 @@
       <c r="N558" s="15"/>
       <c r="O558" s="3"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="27"/>
       <c r="B559" s="5"/>
       <c r="C559" s="13"/>
@@ -13265,7 +14429,7 @@
       <c r="N559" s="15"/>
       <c r="O559" s="3"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="27"/>
       <c r="B560" s="5"/>
       <c r="C560" s="13"/>
@@ -13282,7 +14446,7 @@
       <c r="N560" s="15"/>
       <c r="O560" s="3"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="27"/>
       <c r="B561" s="5"/>
       <c r="C561" s="13"/>
@@ -13299,7 +14463,7 @@
       <c r="N561" s="15"/>
       <c r="O561" s="3"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="27"/>
       <c r="B562" s="5"/>
       <c r="C562" s="13"/>
@@ -13316,7 +14480,7 @@
       <c r="N562" s="15"/>
       <c r="O562" s="3"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="27"/>
       <c r="B563" s="5"/>
       <c r="C563" s="13"/>
@@ -13333,7 +14497,7 @@
       <c r="N563" s="15"/>
       <c r="O563" s="3"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="27"/>
       <c r="B564" s="5"/>
       <c r="C564" s="13"/>
@@ -13350,7 +14514,7 @@
       <c r="N564" s="15"/>
       <c r="O564" s="3"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="27"/>
       <c r="B565" s="5"/>
       <c r="C565" s="13"/>
@@ -13367,7 +14531,7 @@
       <c r="N565" s="15"/>
       <c r="O565" s="3"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="27"/>
       <c r="B566" s="5"/>
       <c r="C566" s="13"/>
@@ -13384,7 +14548,7 @@
       <c r="N566" s="15"/>
       <c r="O566" s="3"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="27"/>
       <c r="B567" s="5"/>
       <c r="C567" s="13"/>
@@ -13401,7 +14565,7 @@
       <c r="N567" s="15"/>
       <c r="O567" s="3"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="27"/>
       <c r="B568" s="5"/>
       <c r="C568" s="13"/>
@@ -13418,7 +14582,7 @@
       <c r="N568" s="15"/>
       <c r="O568" s="3"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="27"/>
       <c r="B569" s="5"/>
       <c r="C569" s="13"/>
@@ -13435,7 +14599,7 @@
       <c r="N569" s="15"/>
       <c r="O569" s="3"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="27"/>
       <c r="B570" s="5"/>
       <c r="C570" s="13"/>
@@ -13452,7 +14616,7 @@
       <c r="N570" s="15"/>
       <c r="O570" s="3"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="27"/>
       <c r="B571" s="5"/>
       <c r="C571" s="13"/>
@@ -13469,7 +14633,7 @@
       <c r="N571" s="15"/>
       <c r="O571" s="3"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="27"/>
       <c r="B572" s="5"/>
       <c r="C572" s="13"/>
@@ -13486,7 +14650,7 @@
       <c r="N572" s="15"/>
       <c r="O572" s="3"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="27"/>
       <c r="B573" s="5"/>
       <c r="C573" s="13"/>
@@ -13503,7 +14667,7 @@
       <c r="N573" s="15"/>
       <c r="O573" s="3"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="27"/>
       <c r="B574" s="5"/>
       <c r="C574" s="13"/>
@@ -13520,7 +14684,7 @@
       <c r="N574" s="15"/>
       <c r="O574" s="3"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="27"/>
       <c r="B575" s="5"/>
       <c r="C575" s="13"/>
@@ -13537,7 +14701,7 @@
       <c r="N575" s="15"/>
       <c r="O575" s="3"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="27"/>
       <c r="B576" s="5"/>
       <c r="C576" s="13"/>
@@ -13554,7 +14718,7 @@
       <c r="N576" s="15"/>
       <c r="O576" s="3"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="27"/>
       <c r="B577" s="5"/>
       <c r="C577" s="13"/>
@@ -13571,7 +14735,7 @@
       <c r="N577" s="15"/>
       <c r="O577" s="3"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="27"/>
       <c r="B578" s="5"/>
       <c r="C578" s="13"/>
@@ -13588,7 +14752,7 @@
       <c r="N578" s="15"/>
       <c r="O578" s="3"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="27"/>
       <c r="B579" s="5"/>
       <c r="C579" s="13"/>
@@ -13605,7 +14769,7 @@
       <c r="N579" s="15"/>
       <c r="O579" s="3"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="27"/>
       <c r="B580" s="5"/>
       <c r="C580" s="13"/>
@@ -13622,7 +14786,7 @@
       <c r="N580" s="15"/>
       <c r="O580" s="3"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="27"/>
       <c r="B581" s="5"/>
       <c r="C581" s="13"/>
@@ -13639,7 +14803,7 @@
       <c r="N581" s="15"/>
       <c r="O581" s="3"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="27"/>
       <c r="B582" s="5"/>
       <c r="C582" s="13"/>
@@ -13656,7 +14820,7 @@
       <c r="N582" s="15"/>
       <c r="O582" s="3"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="27"/>
       <c r="B583" s="5"/>
       <c r="C583" s="13"/>
@@ -13673,7 +14837,7 @@
       <c r="N583" s="15"/>
       <c r="O583" s="3"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="27"/>
       <c r="B584" s="5"/>
       <c r="C584" s="13"/>
@@ -13690,7 +14854,7 @@
       <c r="N584" s="15"/>
       <c r="O584" s="3"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="27"/>
       <c r="B585" s="5"/>
       <c r="C585" s="13"/>
@@ -13707,7 +14871,7 @@
       <c r="N585" s="15"/>
       <c r="O585" s="3"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="27"/>
       <c r="B586" s="5"/>
       <c r="C586" s="13"/>
@@ -13724,7 +14888,7 @@
       <c r="N586" s="15"/>
       <c r="O586" s="3"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="27"/>
       <c r="B587" s="5"/>
       <c r="C587" s="13"/>
@@ -13741,7 +14905,7 @@
       <c r="N587" s="15"/>
       <c r="O587" s="3"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="27"/>
       <c r="B588" s="5"/>
       <c r="C588" s="13"/>
@@ -13758,7 +14922,7 @@
       <c r="N588" s="15"/>
       <c r="O588" s="3"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="27"/>
       <c r="B589" s="5"/>
       <c r="C589" s="13"/>
@@ -13775,7 +14939,7 @@
       <c r="N589" s="15"/>
       <c r="O589" s="3"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="27"/>
       <c r="B590" s="5"/>
       <c r="C590" s="13"/>
@@ -13792,7 +14956,7 @@
       <c r="N590" s="15"/>
       <c r="O590" s="3"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="27"/>
       <c r="B591" s="5"/>
       <c r="C591" s="13"/>
@@ -13809,7 +14973,7 @@
       <c r="N591" s="15"/>
       <c r="O591" s="3"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="27"/>
       <c r="B592" s="5"/>
       <c r="C592" s="13"/>
@@ -13826,7 +14990,7 @@
       <c r="N592" s="15"/>
       <c r="O592" s="3"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="27"/>
       <c r="B593" s="5"/>
       <c r="C593" s="13"/>
@@ -13843,7 +15007,7 @@
       <c r="N593" s="15"/>
       <c r="O593" s="3"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="27"/>
       <c r="B594" s="5"/>
       <c r="C594" s="13"/>
@@ -13860,7 +15024,7 @@
       <c r="N594" s="15"/>
       <c r="O594" s="3"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="27"/>
       <c r="B595" s="5"/>
       <c r="C595" s="13"/>
@@ -13877,7 +15041,7 @@
       <c r="N595" s="15"/>
       <c r="O595" s="3"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="27"/>
       <c r="B596" s="5"/>
       <c r="C596" s="13"/>
@@ -13894,7 +15058,7 @@
       <c r="N596" s="15"/>
       <c r="O596" s="3"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="27"/>
       <c r="B597" s="5"/>
       <c r="C597" s="13"/>
@@ -13911,7 +15075,7 @@
       <c r="N597" s="15"/>
       <c r="O597" s="3"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="27"/>
       <c r="B598" s="5"/>
       <c r="C598" s="13"/>
@@ -13928,7 +15092,7 @@
       <c r="N598" s="15"/>
       <c r="O598" s="3"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="27"/>
       <c r="B599" s="5"/>
       <c r="C599" s="13"/>
@@ -13945,7 +15109,7 @@
       <c r="N599" s="15"/>
       <c r="O599" s="3"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="27"/>
       <c r="B600" s="5"/>
       <c r="C600" s="13"/>
@@ -13962,7 +15126,7 @@
       <c r="N600" s="15"/>
       <c r="O600" s="3"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="27"/>
       <c r="B601" s="5"/>
       <c r="C601" s="13"/>
@@ -13979,7 +15143,7 @@
       <c r="N601" s="15"/>
       <c r="O601" s="3"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="27"/>
       <c r="B602" s="5"/>
       <c r="C602" s="13"/>
@@ -13996,7 +15160,7 @@
       <c r="N602" s="15"/>
       <c r="O602" s="3"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="27"/>
       <c r="B603" s="5"/>
       <c r="C603" s="13"/>
@@ -14013,7 +15177,7 @@
       <c r="N603" s="15"/>
       <c r="O603" s="3"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="27"/>
       <c r="B604" s="5"/>
       <c r="C604" s="13"/>
@@ -14030,7 +15194,7 @@
       <c r="N604" s="15"/>
       <c r="O604" s="3"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="27"/>
       <c r="B605" s="5"/>
       <c r="C605" s="13"/>
@@ -14047,7 +15211,7 @@
       <c r="N605" s="15"/>
       <c r="O605" s="3"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="27"/>
       <c r="B606" s="5"/>
       <c r="C606" s="13"/>
@@ -14064,7 +15228,7 @@
       <c r="N606" s="15"/>
       <c r="O606" s="3"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="27"/>
       <c r="B607" s="5"/>
       <c r="C607" s="13"/>
@@ -14081,7 +15245,7 @@
       <c r="N607" s="15"/>
       <c r="O607" s="3"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="27"/>
       <c r="B608" s="5"/>
       <c r="C608" s="13"/>
@@ -14098,7 +15262,7 @@
       <c r="N608" s="15"/>
       <c r="O608" s="3"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="27"/>
       <c r="B609" s="5"/>
       <c r="C609" s="13"/>
@@ -14115,7 +15279,7 @@
       <c r="N609" s="15"/>
       <c r="O609" s="3"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="27"/>
       <c r="B610" s="5"/>
       <c r="C610" s="13"/>
@@ -14132,7 +15296,7 @@
       <c r="N610" s="15"/>
       <c r="O610" s="3"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="27"/>
       <c r="B611" s="5"/>
       <c r="C611" s="13"/>
@@ -14149,7 +15313,7 @@
       <c r="N611" s="15"/>
       <c r="O611" s="3"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="27"/>
       <c r="B612" s="5"/>
       <c r="C612" s="13"/>
@@ -14166,7 +15330,7 @@
       <c r="N612" s="15"/>
       <c r="O612" s="3"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="27"/>
       <c r="B613" s="5"/>
       <c r="C613" s="13"/>
@@ -14183,7 +15347,7 @@
       <c r="N613" s="15"/>
       <c r="O613" s="3"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="27"/>
       <c r="B614" s="5"/>
       <c r="C614" s="13"/>
@@ -14200,7 +15364,7 @@
       <c r="N614" s="15"/>
       <c r="O614" s="3"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="27"/>
       <c r="B615" s="5"/>
       <c r="C615" s="13"/>
@@ -14217,7 +15381,7 @@
       <c r="N615" s="15"/>
       <c r="O615" s="3"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="27"/>
       <c r="B616" s="5"/>
       <c r="C616" s="13"/>
@@ -14234,7 +15398,7 @@
       <c r="N616" s="15"/>
       <c r="O616" s="3"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="27"/>
       <c r="B617" s="5"/>
       <c r="C617" s="13"/>
@@ -14251,7 +15415,7 @@
       <c r="N617" s="15"/>
       <c r="O617" s="3"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="27"/>
       <c r="B618" s="5"/>
       <c r="C618" s="13"/>
@@ -14268,7 +15432,7 @@
       <c r="N618" s="15"/>
       <c r="O618" s="3"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="27"/>
       <c r="B619" s="5"/>
       <c r="C619" s="13"/>
@@ -14285,7 +15449,7 @@
       <c r="N619" s="15"/>
       <c r="O619" s="3"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="27"/>
       <c r="B620" s="5"/>
       <c r="C620" s="13"/>
@@ -14302,7 +15466,7 @@
       <c r="N620" s="15"/>
       <c r="O620" s="3"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="27"/>
       <c r="B621" s="5"/>
       <c r="C621" s="13"/>
@@ -14319,7 +15483,7 @@
       <c r="N621" s="15"/>
       <c r="O621" s="3"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="27"/>
       <c r="B622" s="5"/>
       <c r="C622" s="13"/>
@@ -14336,7 +15500,7 @@
       <c r="N622" s="15"/>
       <c r="O622" s="3"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="27"/>
       <c r="B623" s="5"/>
       <c r="C623" s="13"/>
@@ -14353,7 +15517,7 @@
       <c r="N623" s="15"/>
       <c r="O623" s="3"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="27"/>
       <c r="B624" s="5"/>
       <c r="C624" s="13"/>
@@ -14370,7 +15534,7 @@
       <c r="N624" s="15"/>
       <c r="O624" s="3"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="27"/>
       <c r="B625" s="5"/>
       <c r="C625" s="13"/>
@@ -14387,7 +15551,7 @@
       <c r="N625" s="15"/>
       <c r="O625" s="3"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="27"/>
       <c r="B626" s="5"/>
       <c r="C626" s="13"/>
@@ -14404,7 +15568,7 @@
       <c r="N626" s="15"/>
       <c r="O626" s="3"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="27"/>
       <c r="B627" s="5"/>
       <c r="C627" s="13"/>
@@ -14421,7 +15585,7 @@
       <c r="N627" s="15"/>
       <c r="O627" s="3"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="27"/>
       <c r="B628" s="5"/>
       <c r="C628" s="13"/>
@@ -14438,7 +15602,7 @@
       <c r="N628" s="15"/>
       <c r="O628" s="3"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="27"/>
       <c r="B629" s="5"/>
       <c r="C629" s="13"/>
@@ -14455,7 +15619,7 @@
       <c r="N629" s="15"/>
       <c r="O629" s="3"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="27"/>
       <c r="B630" s="5"/>
       <c r="C630" s="13"/>
@@ -14472,7 +15636,7 @@
       <c r="N630" s="15"/>
       <c r="O630" s="3"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="27"/>
       <c r="B631" s="5"/>
       <c r="C631" s="13"/>
@@ -14489,7 +15653,7 @@
       <c r="N631" s="15"/>
       <c r="O631" s="3"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="27"/>
       <c r="B632" s="5"/>
       <c r="C632" s="13"/>
@@ -14506,7 +15670,7 @@
       <c r="N632" s="15"/>
       <c r="O632" s="3"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="27"/>
       <c r="B633" s="5"/>
       <c r="C633" s="13"/>
@@ -14523,7 +15687,7 @@
       <c r="N633" s="15"/>
       <c r="O633" s="3"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="27"/>
       <c r="B634" s="5"/>
       <c r="C634" s="13"/>
@@ -14540,7 +15704,7 @@
       <c r="N634" s="15"/>
       <c r="O634" s="3"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="27"/>
       <c r="B635" s="5"/>
       <c r="C635" s="13"/>
@@ -14557,7 +15721,7 @@
       <c r="N635" s="15"/>
       <c r="O635" s="3"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="27"/>
       <c r="B636" s="5"/>
       <c r="C636" s="13"/>
@@ -14574,7 +15738,7 @@
       <c r="N636" s="15"/>
       <c r="O636" s="3"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="27"/>
       <c r="B637" s="5"/>
       <c r="C637" s="13"/>
@@ -14591,7 +15755,7 @@
       <c r="N637" s="15"/>
       <c r="O637" s="3"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="27"/>
       <c r="B638" s="5"/>
       <c r="C638" s="13"/>
@@ -14608,7 +15772,7 @@
       <c r="N638" s="15"/>
       <c r="O638" s="3"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="27"/>
       <c r="B639" s="5"/>
       <c r="C639" s="13"/>
@@ -14625,7 +15789,7 @@
       <c r="N639" s="15"/>
       <c r="O639" s="3"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="27"/>
       <c r="B640" s="5"/>
       <c r="C640" s="13"/>
@@ -14642,7 +15806,7 @@
       <c r="N640" s="15"/>
       <c r="O640" s="3"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="27"/>
       <c r="B641" s="5"/>
       <c r="C641" s="13"/>
@@ -14659,7 +15823,7 @@
       <c r="N641" s="15"/>
       <c r="O641" s="3"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="27"/>
       <c r="B642" s="5"/>
       <c r="C642" s="13"/>
@@ -14676,7 +15840,7 @@
       <c r="N642" s="15"/>
       <c r="O642" s="3"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="27"/>
       <c r="B643" s="5"/>
       <c r="C643" s="13"/>
@@ -14693,7 +15857,7 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="27"/>
       <c r="B644" s="5"/>
       <c r="C644" s="13"/>
@@ -14710,7 +15874,7 @@
       <c r="N644" s="15"/>
       <c r="O644" s="3"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="27"/>
       <c r="B645" s="5"/>
       <c r="C645" s="13"/>
@@ -14727,7 +15891,7 @@
       <c r="N645" s="15"/>
       <c r="O645" s="3"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="27"/>
       <c r="B646" s="5"/>
       <c r="C646" s="13"/>
@@ -14744,7 +15908,7 @@
       <c r="N646" s="15"/>
       <c r="O646" s="3"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="27"/>
       <c r="B647" s="5"/>
       <c r="C647" s="13"/>
@@ -14761,7 +15925,7 @@
       <c r="N647" s="15"/>
       <c r="O647" s="3"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="27"/>
       <c r="B648" s="5"/>
       <c r="C648" s="13"/>
@@ -14778,360 +15942,360 @@
       <c r="N648" s="15"/>
       <c r="O648" s="3"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -15139,25 +16303,25 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D698" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C700" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="464">
   <si>
     <t>description</t>
   </si>
@@ -1452,13 +1452,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1730,8 +1745,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,8 +2165,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2659,6 +2921,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2666,7 +3210,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2840,49 +3384,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3315,7 +3904,7 @@
         <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>460</v>
       </c>
       <c r="G2" t="s">
         <v>79</v>
@@ -3395,7 +3984,7 @@
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>457</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -3469,7 +4058,7 @@
         <v>387</v>
       </c>
       <c r="F4" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H4" t="s">
         <v>351</v>
@@ -3540,7 +4129,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>328</v>
+        <v>462</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -3602,7 +4191,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>329</v>
+        <v>458</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -3658,7 +4247,7 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
@@ -3714,7 +4303,7 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -3767,7 +4356,7 @@
         <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>463</v>
       </c>
       <c r="I9" t="s">
         <v>390</v>
@@ -3808,7 +4397,7 @@
         <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -3845,6 +4434,9 @@
       <c r="E11" t="s">
         <v>274</v>
       </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -3877,6 +4469,9 @@
       <c r="E12" t="s">
         <v>263</v>
       </c>
+      <c r="F12" t="s">
+        <v>324</v>
+      </c>
       <c r="I12" t="s">
         <v>81</v>
       </c>
@@ -3906,6 +4501,9 @@
       <c r="E13" t="s">
         <v>316</v>
       </c>
+      <c r="F13" t="s">
+        <v>325</v>
+      </c>
       <c r="I13" t="s">
         <v>82</v>
       </c>
@@ -4110,7 +4708,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>459</v>
       </c>
       <c r="E23" t="s">
         <v>290</v>
@@ -4124,7 +4722,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
         <v>279</v>
@@ -4138,7 +4736,7 @@
         <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>430</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
@@ -4152,7 +4750,7 @@
         <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>430</v>
       </c>
       <c r="E26" t="s">
         <v>282</v>
@@ -4163,7 +4761,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -4174,7 +4772,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="s">
         <v>283</v>
@@ -4185,7 +4783,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>284</v>
@@ -4196,7 +4794,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
         <v>216</v>
@@ -4207,7 +4805,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>275</v>
@@ -4218,7 +4816,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>285</v>
@@ -4229,7 +4827,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
         <v>260</v>
@@ -4239,6 +4837,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
       <c r="E34" t="s">
         <v>330</v>
       </c>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="466">
   <si>
     <t>description</t>
   </si>
@@ -1467,13 +1467,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="87" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1839,8 +1845,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2318,8 +2512,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -3203,6 +3703,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3210,7 +4274,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3429,49 +4493,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3796,7 +4950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5188,7 +6342,7 @@
         <v>433</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78">
@@ -5196,7 +6350,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -5204,7 +6358,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -5212,7 +6366,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81">
@@ -5220,7 +6374,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -5228,7 +6382,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>446</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -5236,7 +6390,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84">
@@ -5244,7 +6398,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85">
@@ -5252,7 +6406,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -5260,7 +6414,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -5268,7 +6422,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -5276,7 +6430,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -5284,7 +6438,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90">
@@ -5292,7 +6446,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -5300,7 +6454,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -5308,116 +6462,121 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1473,13 +1473,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="102" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2033,8 +2036,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2818,8 +2915,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4267,6 +4517,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4274,7 +4806,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4583,49 +5115,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4950,7 +5527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6286,7 +6863,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>143</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71">
@@ -6294,7 +6871,7 @@
         <v>408</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72">
@@ -6302,7 +6879,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -6310,7 +6887,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -6318,7 +6895,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -6326,7 +6903,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -6334,7 +6911,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -6342,7 +6919,7 @@
         <v>433</v>
       </c>
       <c r="U77" t="s">
-        <v>465</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -6350,7 +6927,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>201</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79">
@@ -6358,7 +6935,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -6366,7 +6943,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -6374,7 +6951,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82">
@@ -6382,7 +6959,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -6390,7 +6967,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>446</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -6398,7 +6975,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85">
@@ -6406,7 +6983,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
@@ -6414,7 +6991,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -6422,7 +6999,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -6430,7 +7007,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -6438,7 +7015,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -6446,7 +7023,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91">
@@ -6454,7 +7031,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -6462,121 +7039,126 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="468">
   <si>
     <t>description</t>
   </si>
@@ -1476,13 +1476,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="102" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2130,8 +2133,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3068,8 +3165,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4799,6 +5049,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4806,7 +5338,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5160,49 +5692,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="91" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="92" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5860,7 +6437,7 @@
         <v>336</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H5" t="s">
         <v>348</v>
@@ -5922,7 +6499,7 @@
         <v>388</v>
       </c>
       <c r="F6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -5978,7 +6555,7 @@
         <v>366</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>458</v>
       </c>
       <c r="I7" t="s">
         <v>80</v>
@@ -6034,7 +6611,7 @@
         <v>367</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -6087,7 +6664,7 @@
         <v>306</v>
       </c>
       <c r="F9" t="s">
-        <v>463</v>
+        <v>329</v>
       </c>
       <c r="I9" t="s">
         <v>390</v>
@@ -6128,7 +6705,7 @@
         <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>463</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -6166,7 +6743,7 @@
         <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -6201,7 +6778,7 @@
         <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I12" t="s">
         <v>81</v>
@@ -6233,7 +6810,7 @@
         <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I13" t="s">
         <v>82</v>
@@ -6263,6 +6840,9 @@
       </c>
       <c r="E14" t="s">
         <v>264</v>
+      </c>
+      <c r="F14" t="s">
+        <v>325</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="469">
   <si>
     <t>description</t>
   </si>
@@ -1479,13 +1479,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="117" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2227,8 +2230,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3318,8 +3509,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5331,6 +5828,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5338,7 +6399,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5737,49 +6798,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="106" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="120" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6845,7 +7996,7 @@
         <v>325</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>468</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -6874,7 +8025,7 @@
         <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" t="s">
         <v>96</v>
@@ -6900,7 +8051,7 @@
         <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>84</v>
       </c>
       <c r="N16" t="s">
         <v>252</v>
@@ -6923,7 +8074,7 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>380</v>
       </c>
       <c r="U17" t="s">
         <v>105</v>
@@ -6940,7 +8091,7 @@
         <v>90</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>106</v>
@@ -6957,7 +8108,7 @@
         <v>296</v>
       </c>
       <c r="I19" t="s">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="U19" t="s">
         <v>107</v>
@@ -6974,7 +8125,7 @@
         <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>452</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
         <v>108</v>
@@ -6991,7 +8142,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="U21" t="s">
         <v>109</v>
@@ -7008,7 +8159,7 @@
         <v>299</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>110</v>
@@ -7023,6 +8174,9 @@
       </c>
       <c r="E23" t="s">
         <v>290</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>111</v>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="471">
   <si>
     <t>description</t>
   </si>
@@ -1482,13 +1482,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="147" x14ac:knownFonts="1">
+  <fonts count="177" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2418,8 +2424,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3815,8 +4009,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6392,6 +6892,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6399,7 +7463,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6888,49 +7952,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="136" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="137" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="149" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="150" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="152" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="159" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7434,7 +8588,7 @@
         <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>469</v>
       </c>
       <c r="D3" t="s">
         <v>365</v>
@@ -7508,7 +8662,7 @@
         <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -7579,7 +8733,7 @@
         <v>375</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>470</v>
       </c>
       <c r="D5" t="s">
         <v>451</v>
@@ -7644,7 +8798,7 @@
         <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>388</v>
@@ -7700,7 +8854,7 @@
         <v>377</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
         <v>366</v>
@@ -7756,7 +8910,7 @@
         <v>378</v>
       </c>
       <c r="C8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E8" t="s">
         <v>367</v>
@@ -7809,7 +8963,7 @@
         <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>306</v>
@@ -7850,7 +9004,7 @@
         <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
         <v>352</v>
@@ -7888,7 +9042,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
         <v>274</v>
@@ -7923,7 +9077,7 @@
         <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
         <v>263</v>
@@ -7955,7 +9109,7 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
         <v>316</v>
@@ -7987,7 +9141,7 @@
         <v>239</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>264</v>
@@ -8019,7 +9173,7 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>265</v>
@@ -8045,7 +9199,7 @@
         <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="E16" t="s">
         <v>317</v>
@@ -8068,7 +9222,7 @@
         <v>431</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>386</v>
       </c>
       <c r="E17" t="s">
         <v>89</v>
@@ -8085,7 +9239,7 @@
         <v>421</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>422</v>
       </c>
       <c r="E18" t="s">
         <v>90</v>
@@ -8102,7 +9256,7 @@
         <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
         <v>296</v>
@@ -8119,7 +9273,7 @@
         <v>403</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>297</v>
@@ -8136,7 +9290,7 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
         <v>298</v>
@@ -8153,7 +9307,7 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>299</v>
@@ -8170,7 +9324,7 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="E23" t="s">
         <v>290</v>
@@ -8187,7 +9341,7 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
         <v>279</v>
@@ -8201,7 +9355,7 @@
         <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>459</v>
       </c>
       <c r="E25" t="s">
         <v>76</v>
@@ -8215,7 +9369,7 @@
         <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>430</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
         <v>282</v>
@@ -8226,7 +9380,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
         <v>266</v>
@@ -8237,7 +9391,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="E28" t="s">
         <v>283</v>
@@ -8248,7 +9402,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>284</v>
@@ -8259,7 +9413,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
         <v>216</v>
@@ -8270,7 +9424,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>275</v>
@@ -8281,7 +9435,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>285</v>
@@ -8292,7 +9446,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
         <v>260</v>
@@ -8303,7 +9457,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
         <v>330</v>
@@ -8313,6 +9467,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" t="s">
         <v>307</v>
       </c>
@@ -8321,6 +9478,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
       <c r="E36" t="s">
         <v>261</v>
       </c>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="472">
   <si>
     <t>description</t>
   </si>
@@ -1488,13 +1488,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="177" x14ac:knownFonts="1">
+  <fonts count="192" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2612,8 +2615,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="328">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4315,8 +4412,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="339">
     <border>
       <left/>
       <right/>
@@ -7456,6 +7706,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7463,7 +7995,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="217">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8042,49 +8574,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="165" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="166" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="167" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8409,7 +8986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9621,7 +10198,7 @@
         <v>268</v>
       </c>
       <c r="U53" t="s">
-        <v>132</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54">
@@ -9629,7 +10206,7 @@
         <v>292</v>
       </c>
       <c r="U54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -9637,7 +10214,7 @@
         <v>293</v>
       </c>
       <c r="U55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -9645,7 +10222,7 @@
         <v>294</v>
       </c>
       <c r="U56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -9653,7 +10230,7 @@
         <v>303</v>
       </c>
       <c r="U57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -9661,7 +10238,7 @@
         <v>312</v>
       </c>
       <c r="U58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -9669,7 +10246,7 @@
         <v>337</v>
       </c>
       <c r="U59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -9677,7 +10254,7 @@
         <v>309</v>
       </c>
       <c r="U60" t="s">
-        <v>448</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -9685,7 +10262,7 @@
         <v>310</v>
       </c>
       <c r="U61" t="s">
-        <v>214</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62">
@@ -9693,7 +10270,7 @@
         <v>369</v>
       </c>
       <c r="U62" t="s">
-        <v>389</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63">
@@ -9701,7 +10278,7 @@
         <v>370</v>
       </c>
       <c r="U63" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64">
@@ -9709,7 +10286,7 @@
         <v>345</v>
       </c>
       <c r="U64" t="s">
-        <v>139</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65">
@@ -9717,7 +10294,7 @@
         <v>313</v>
       </c>
       <c r="U65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -9725,7 +10302,7 @@
         <v>269</v>
       </c>
       <c r="U66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -9733,7 +10310,7 @@
         <v>353</v>
       </c>
       <c r="U67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -9741,7 +10318,7 @@
         <v>314</v>
       </c>
       <c r="U68" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -9749,7 +10326,7 @@
         <v>423</v>
       </c>
       <c r="U69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
@@ -9757,7 +10334,7 @@
         <v>304</v>
       </c>
       <c r="U70" t="s">
-        <v>466</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -9765,7 +10342,7 @@
         <v>408</v>
       </c>
       <c r="U71" t="s">
-        <v>143</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72">
@@ -9773,7 +10350,7 @@
         <v>262</v>
       </c>
       <c r="U72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -9781,7 +10358,7 @@
         <v>344</v>
       </c>
       <c r="U73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -9789,7 +10366,7 @@
         <v>280</v>
       </c>
       <c r="U74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -9797,7 +10374,7 @@
         <v>286</v>
       </c>
       <c r="U75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -9805,7 +10382,7 @@
         <v>291</v>
       </c>
       <c r="U76" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -9813,7 +10390,7 @@
         <v>433</v>
       </c>
       <c r="U77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
@@ -9821,7 +10398,7 @@
         <v>332</v>
       </c>
       <c r="U78" t="s">
-        <v>465</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -9829,7 +10406,7 @@
         <v>270</v>
       </c>
       <c r="U79" t="s">
-        <v>201</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80">
@@ -9837,7 +10414,7 @@
         <v>281</v>
       </c>
       <c r="U80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -9845,7 +10422,7 @@
         <v>287</v>
       </c>
       <c r="U81" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -9853,7 +10430,7 @@
         <v>276</v>
       </c>
       <c r="U82" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83">
@@ -9861,7 +10438,7 @@
         <v>271</v>
       </c>
       <c r="U83" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -9869,7 +10446,7 @@
         <v>288</v>
       </c>
       <c r="U84" t="s">
-        <v>446</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -9877,7 +10454,7 @@
         <v>272</v>
       </c>
       <c r="U85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="86">
@@ -9885,7 +10462,7 @@
         <v>273</v>
       </c>
       <c r="U86" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
     </row>
     <row r="87">
@@ -9893,7 +10470,7 @@
         <v>305</v>
       </c>
       <c r="U87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -9901,7 +10478,7 @@
         <v>311</v>
       </c>
       <c r="U88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -9909,7 +10486,7 @@
         <v>295</v>
       </c>
       <c r="U89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -9917,7 +10494,7 @@
         <v>340</v>
       </c>
       <c r="U90" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -9925,7 +10502,7 @@
         <v>277</v>
       </c>
       <c r="U91" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92">
@@ -9933,126 +10510,131 @@
         <v>278</v>
       </c>
       <c r="U92" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1491,13 +1492,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="192" x14ac:knownFonts="1">
+  <fonts count="208" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2709,8 +2728,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="328">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4565,8 +4685,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="339">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7988,6 +8261,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7995,7 +8550,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8619,49 +9174,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="303" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="177" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="306" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="179" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="309" borderId="326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="180" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="181" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="312" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="182" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="315" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="318" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="321" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="187" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="327" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="189" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="324" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8986,7 +9589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9005,75 +9608,78 @@
         <v>371</v>
       </c>
       <c r="C1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>347</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>333</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>196</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>239</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>407</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>431</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>421</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>357</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>403</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>54</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>432</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9085,1556 +9691,1576 @@
         <v>372</v>
       </c>
       <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>460</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>349</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>315</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>384</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>434</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>424</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>435</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>253</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>217</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>409</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>438</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>426</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>381</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>404</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>97</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>171</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>176</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>183</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>440</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>373</v>
       </c>
       <c r="C3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" t="s">
         <v>469</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>365</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>350</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>341</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>436</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>240</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>218</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>410</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>427</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>382</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>405</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>98</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>172</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>177</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>364</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>184</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>374</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>387</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>461</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>351</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>238</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>335</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>241</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>219</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>411</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>428</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>358</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>406</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>354</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>173</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>178</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>184</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>441</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>375</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>470</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>451</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>336</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>467</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>348</v>
       </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>475</v>
+      </c>
+      <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>242</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>220</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>412</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>429</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>359</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>355</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>174</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>179</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>185</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>442</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>376</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>388</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>462</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>243</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>391</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>413</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>361</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>99</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>455</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>180</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>186</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>443</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>377</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>224</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>366</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>458</v>
       </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>315</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>244</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>425</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>414</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>360</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>100</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>456</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>181</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>187</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>444</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>378</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>318</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>367</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>328</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>245</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>415</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>362</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>101</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>175</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>182</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>188</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>445</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>306</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>329</v>
       </c>
-      <c r="I9" t="s">
-        <v>390</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>92</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>246</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>416</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>363</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>209</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>189</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>315</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>352</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>463</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>437</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>247</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>417</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>257</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>190</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="s">
         <v>255</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>274</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>322</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>453</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>93</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>248</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>258</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>319</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>263</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>323</v>
       </c>
-      <c r="I12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>249</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>102</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" t="s">
         <v>341</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>324</v>
       </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>94</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>254</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>326</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>264</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>325</v>
       </c>
-      <c r="I14" t="s">
-        <v>468</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>95</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>250</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>103</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>265</v>
       </c>
-      <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>468</v>
+      </c>
+      <c r="N15" t="s">
         <v>96</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>251</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>104</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>385</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>317</v>
       </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
         <v>252</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>75</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>431</v>
-      </c>
-      <c r="C17" t="s">
+        <v>407</v>
+      </c>
+      <c r="D17" t="s">
         <v>386</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>89</v>
       </c>
-      <c r="I17" t="s">
-        <v>380</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
         <v>105</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C18" t="s">
+        <v>431</v>
+      </c>
+      <c r="D18" t="s">
         <v>422</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>380</v>
+      </c>
+      <c r="V18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>296</v>
       </c>
-      <c r="I19" t="s">
-        <v>399</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>403</v>
-      </c>
-      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>297</v>
       </c>
-      <c r="I20" t="s">
-        <v>85</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>399</v>
+      </c>
+      <c r="V20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D21" t="s">
         <v>256</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>298</v>
       </c>
-      <c r="I21" t="s">
-        <v>452</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>299</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>452</v>
+      </c>
+      <c r="V22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
         <v>321</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>290</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>279</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
         <v>459</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>76</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>282</v>
+      </c>
+      <c r="V26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>227</v>
       </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
-      <c r="E26" t="s">
-        <v>282</v>
-      </c>
-      <c r="U26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>226</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>266</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>430</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>284</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>216</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>275</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>67</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>285</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>68</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>260</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>330</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>70</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>307</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>71</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>261</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>308</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>267</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>212</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>289</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>300</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>301</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>343</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>342</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>211</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>320</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>339</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>368</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>302</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>356</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>331</v>
+      </c>
+      <c r="V52" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>331</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>268</v>
+      </c>
+      <c r="V53" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>268</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>292</v>
+      </c>
+      <c r="V54" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>292</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>293</v>
+      </c>
+      <c r="V55" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>293</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>294</v>
+      </c>
+      <c r="V56" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>294</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>303</v>
+      </c>
+      <c r="V57" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>303</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>312</v>
+      </c>
+      <c r="V58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>312</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>337</v>
+      </c>
+      <c r="V59" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>337</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>309</v>
+      </c>
+      <c r="V60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>309</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>310</v>
+      </c>
+      <c r="V61" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>310</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>369</v>
+      </c>
+      <c r="V62" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>369</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>370</v>
+      </c>
+      <c r="V63" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>370</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>345</v>
+      </c>
+      <c r="V64" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>345</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>313</v>
+      </c>
+      <c r="V65" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>313</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>269</v>
+      </c>
+      <c r="V66" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>269</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>353</v>
+      </c>
+      <c r="V67" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>353</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>314</v>
+      </c>
+      <c r="V68" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>314</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>423</v>
+      </c>
+      <c r="V69" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>423</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>304</v>
+      </c>
+      <c r="V70" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>304</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>408</v>
+      </c>
+      <c r="V71" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>408</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>262</v>
+      </c>
+      <c r="V72" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>262</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>344</v>
+      </c>
+      <c r="V73" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>344</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>280</v>
+      </c>
+      <c r="V74" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>280</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>286</v>
+      </c>
+      <c r="V75" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>286</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>291</v>
+      </c>
+      <c r="V76" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>291</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>433</v>
+      </c>
+      <c r="V77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>433</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>332</v>
+      </c>
+      <c r="V78" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>332</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>270</v>
+      </c>
+      <c r="V79" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>270</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>281</v>
+      </c>
+      <c r="V80" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>281</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>287</v>
+      </c>
+      <c r="V81" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>287</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>276</v>
+      </c>
+      <c r="V82" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>276</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>271</v>
+      </c>
+      <c r="V83" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>271</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>288</v>
+      </c>
+      <c r="V84" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>288</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>272</v>
+      </c>
+      <c r="V85" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>272</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>273</v>
+      </c>
+      <c r="V86" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>273</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>305</v>
+      </c>
+      <c r="V87" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>305</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>311</v>
+      </c>
+      <c r="V88" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>311</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>295</v>
+      </c>
+      <c r="V89" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>295</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>340</v>
+      </c>
+      <c r="V90" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>340</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>277</v>
+      </c>
+      <c r="V91" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>277</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>278</v>
+      </c>
+      <c r="V92" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>278</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1510,13 +1510,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="208" x14ac:knownFonts="1">
+  <fonts count="224" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2829,8 +2832,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4838,8 +4942,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8543,6 +8800,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8550,7 +9089,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="249">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9219,52 +9758,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9709,7 +10296,7 @@
         <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>349</v>
+        <v>478</v>
       </c>
       <c r="J2" t="s">
         <v>315</v>
@@ -9792,7 +10379,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J3" t="s">
         <v>341</v>
@@ -9863,7 +10450,7 @@
         <v>461</v>
       </c>
       <c r="I4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J4" t="s">
         <v>238</v>
@@ -9934,7 +10521,7 @@
         <v>467</v>
       </c>
       <c r="I5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J5" t="s">
         <v>475</v>
@@ -9994,6 +10581,9 @@
       </c>
       <c r="G6" t="s">
         <v>462</v>
+      </c>
+      <c r="I6" t="s">
+        <v>348</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7014" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7975" uniqueCount="483">
   <si>
     <t>description</t>
   </si>
@@ -1513,13 +1513,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="224" x14ac:knownFonts="1">
+  <fonts count="256" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2933,8 +2945,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5095,8 +5309,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9082,6 +9602,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9089,7 +10173,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="281">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9806,52 +10890,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="210" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="213" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="214" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="224" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="227" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="230" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10176,7 +11356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11044,7 +12224,7 @@
         <v>296</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="V19" t="s">
         <v>107</v>
@@ -11061,7 +12241,7 @@
         <v>297</v>
       </c>
       <c r="J20" t="s">
-        <v>399</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>108</v>
@@ -11078,7 +12258,7 @@
         <v>298</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>399</v>
       </c>
       <c r="V21" t="s">
         <v>109</v>
@@ -11095,7 +12275,7 @@
         <v>299</v>
       </c>
       <c r="J22" t="s">
-        <v>452</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
         <v>110</v>
@@ -11112,7 +12292,7 @@
         <v>290</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="V23" t="s">
         <v>111</v>
@@ -11129,7 +12309,7 @@
         <v>279</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>112</v>
@@ -11145,6 +12325,9 @@
       <c r="F25" t="s">
         <v>76</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>113</v>
       </c>
@@ -11179,7 +12362,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="F28" t="s">
         <v>283</v>
@@ -11190,7 +12373,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>64</v>
+        <v>480</v>
       </c>
       <c r="F29" t="s">
         <v>284</v>
@@ -11201,7 +12384,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>65</v>
+        <v>430</v>
       </c>
       <c r="F30" t="s">
         <v>216</v>
@@ -11212,7 +12395,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
         <v>275</v>
@@ -11223,7 +12406,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
         <v>285</v>
@@ -11234,7 +12417,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
         <v>260</v>
@@ -11245,7 +12428,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
         <v>330</v>
@@ -11256,7 +12439,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>307</v>
@@ -11267,7 +12450,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
         <v>261</v>
@@ -11277,6 +12460,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
       <c r="F37" t="s">
         <v>308</v>
       </c>
@@ -11285,6 +12471,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
       <c r="F38" t="s">
         <v>267</v>
       </c>
@@ -11569,7 +12758,7 @@
         <v>344</v>
       </c>
       <c r="V73" t="s">
-        <v>143</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74">
@@ -11577,7 +12766,7 @@
         <v>280</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -11585,7 +12774,7 @@
         <v>286</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -11593,7 +12782,7 @@
         <v>291</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -11601,7 +12790,7 @@
         <v>433</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -11609,7 +12798,7 @@
         <v>332</v>
       </c>
       <c r="V78" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -11617,7 +12806,7 @@
         <v>270</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
@@ -11625,7 +12814,7 @@
         <v>281</v>
       </c>
       <c r="V80" t="s">
-        <v>465</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -11633,7 +12822,7 @@
         <v>287</v>
       </c>
       <c r="V81" t="s">
-        <v>201</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82">
@@ -11641,7 +12830,7 @@
         <v>276</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83">
@@ -11649,7 +12838,7 @@
         <v>271</v>
       </c>
       <c r="V83" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -11657,7 +12846,7 @@
         <v>288</v>
       </c>
       <c r="V84" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85">
@@ -11665,7 +12854,7 @@
         <v>272</v>
       </c>
       <c r="V85" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86">
@@ -11673,7 +12862,7 @@
         <v>273</v>
       </c>
       <c r="V86" t="s">
-        <v>446</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87">
@@ -11681,7 +12870,7 @@
         <v>305</v>
       </c>
       <c r="V87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88">
@@ -11689,7 +12878,7 @@
         <v>311</v>
       </c>
       <c r="V88" t="s">
-        <v>204</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89">
@@ -11697,7 +12886,7 @@
         <v>295</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
@@ -11705,7 +12894,7 @@
         <v>340</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -11713,7 +12902,7 @@
         <v>277</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -11721,136 +12910,141 @@
         <v>278</v>
       </c>
       <c r="V92" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>150</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>450</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7975" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8469" uniqueCount="497">
   <si>
     <t>description</t>
   </si>
@@ -1525,13 +1526,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="256" x14ac:knownFonts="1">
+  <fonts count="272" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3147,8 +3190,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5615,8 +5759,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10166,6 +10463,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10173,7 +10752,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="297">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10986,52 +11565,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="242" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="243" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="245" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="246" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11356,7 +11983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11405,48 +12032,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N1" t="s">
         <v>196</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>239</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>407</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>431</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>421</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>357</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>403</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>54</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>432</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11488,48 +12118,51 @@
         <v>434</v>
       </c>
       <c r="M2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
         <v>424</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>435</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>253</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>217</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>409</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>438</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>426</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>381</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>404</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>171</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>183</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>440</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11556,7 +12189,7 @@
         <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="I3" t="s">
         <v>349</v>
@@ -11570,43 +12203,46 @@
       <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>489</v>
+      </c>
+      <c r="O3" t="s">
         <v>436</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>240</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>410</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>427</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>382</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>405</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>98</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>172</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>177</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>364</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11629,6 +12265,9 @@
       <c r="G4" t="s">
         <v>461</v>
       </c>
+      <c r="H4" t="s">
+        <v>485</v>
+      </c>
       <c r="I4" t="s">
         <v>350</v>
       </c>
@@ -11641,43 +12280,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>241</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>411</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>428</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>358</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>406</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>354</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>173</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>178</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>184</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>441</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11709,40 +12351,40 @@
       <c r="L5" t="s">
         <v>87</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>242</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>220</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>412</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>429</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>359</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>355</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>174</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>179</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>185</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>442</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11771,37 +12413,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>243</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>391</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>413</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>361</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>99</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>455</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>180</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>186</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>443</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11827,37 +12469,37 @@
       <c r="L7" t="s">
         <v>315</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>425</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>414</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>360</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>100</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>456</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>181</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>187</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>444</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11883,34 +12525,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>91</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>245</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>415</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>362</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>101</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>175</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>182</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>188</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>445</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -11936,26 +12578,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>92</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>246</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>416</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>363</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>209</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>189</v>
       </c>
-      <c r="AA9" t="s">
-        <v>235</v>
+      <c r="AB9" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="10">
@@ -11977,23 +12619,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>437</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>247</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>417</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>257</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>190</v>
       </c>
-      <c r="AA10" t="s">
-        <v>236</v>
+      <c r="AB10" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="11">
@@ -12013,22 +12655,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>453</v>
-      </c>
-      <c r="N11" t="s">
+        <v>486</v>
+      </c>
+      <c r="O11" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>248</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>258</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
-        <v>237</v>
+      <c r="AB11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -12048,24 +12690,27 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>453</v>
+      </c>
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>249</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>102</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>191</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>483</v>
       </c>
       <c r="D13" t="s">
         <v>341</v>
@@ -12080,24 +12725,27 @@
         <v>81</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>487</v>
+      </c>
+      <c r="O13" t="s">
         <v>94</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>254</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>326</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>192</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -12112,24 +12760,24 @@
         <v>82</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>95</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>250</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>103</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -12140,22 +12788,25 @@
       <c r="J15" t="s">
         <v>468</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>96</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>251</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>104</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="D16" t="s">
         <v>385</v>
@@ -12166,19 +12817,22 @@
       <c r="J16" t="s">
         <v>83</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="s">
         <v>252</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>75</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>386</v>
@@ -12189,16 +12843,16 @@
       <c r="J17" t="s">
         <v>84</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>105</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D18" t="s">
         <v>422</v>
@@ -12209,13 +12863,13 @@
       <c r="J18" t="s">
         <v>380</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D19" t="s">
         <v>60</v>
@@ -12226,13 +12880,13 @@
       <c r="J19" t="s">
         <v>482</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -12243,13 +12897,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="D21" t="s">
         <v>256</v>
@@ -12260,13 +12914,13 @@
       <c r="J21" t="s">
         <v>399</v>
       </c>
-      <c r="V21" t="s">
-        <v>109</v>
+      <c r="W21" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>403</v>
       </c>
       <c r="D22" t="s">
         <v>62</v>
@@ -12277,13 +12931,13 @@
       <c r="J22" t="s">
         <v>85</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>321</v>
@@ -12294,13 +12948,13 @@
       <c r="J23" t="s">
         <v>452</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>63</v>
@@ -12311,13 +12965,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
         <v>459</v>
@@ -12328,13 +12982,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>225</v>
@@ -12342,13 +12996,13 @@
       <c r="F26" t="s">
         <v>282</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
         <v>226</v>
@@ -12356,18 +13010,21 @@
       <c r="F27" t="s">
         <v>266</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
       <c r="D28" t="s">
         <v>479</v>
       </c>
       <c r="F28" t="s">
         <v>283</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>115</v>
       </c>
     </row>
@@ -12378,7 +13035,7 @@
       <c r="F29" t="s">
         <v>284</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12389,7 +13046,7 @@
       <c r="F30" t="s">
         <v>216</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12400,7 +13057,7 @@
       <c r="F31" t="s">
         <v>275</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12411,7 +13068,7 @@
       <c r="F32" t="s">
         <v>285</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12422,7 +13079,7 @@
       <c r="F33" t="s">
         <v>260</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12433,7 +13090,7 @@
       <c r="F34" t="s">
         <v>330</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12444,7 +13101,7 @@
       <c r="F35" t="s">
         <v>307</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12455,7 +13112,7 @@
       <c r="F36" t="s">
         <v>261</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>338</v>
       </c>
     </row>
@@ -12466,7 +13123,7 @@
       <c r="F37" t="s">
         <v>308</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>439</v>
       </c>
     </row>
@@ -12477,7 +13134,7 @@
       <c r="F38" t="s">
         <v>267</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>400</v>
       </c>
     </row>
@@ -12485,7 +13142,7 @@
       <c r="F39" t="s">
         <v>78</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12493,7 +13150,7 @@
       <c r="F40" t="s">
         <v>212</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12501,7 +13158,7 @@
       <c r="F41" t="s">
         <v>289</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12509,7 +13166,7 @@
       <c r="F42" t="s">
         <v>300</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12517,7 +13174,7 @@
       <c r="F43" t="s">
         <v>301</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12525,7 +13182,7 @@
       <c r="F44" t="s">
         <v>343</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12533,7 +13190,7 @@
       <c r="F45" t="s">
         <v>342</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>449</v>
       </c>
     </row>
@@ -12541,7 +13198,7 @@
       <c r="F46" t="s">
         <v>211</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>213</v>
       </c>
     </row>
@@ -12549,7 +13206,7 @@
       <c r="F47" t="s">
         <v>320</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>77</v>
       </c>
     </row>
@@ -12557,7 +13214,7 @@
       <c r="F48" t="s">
         <v>339</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12565,7 +13222,7 @@
       <c r="F49" t="s">
         <v>368</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12573,7 +13230,7 @@
       <c r="F50" t="s">
         <v>302</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12581,470 +13238,485 @@
       <c r="F51" t="s">
         <v>356</v>
       </c>
-      <c r="V51" t="s">
-        <v>476</v>
+      <c r="W51" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>331</v>
       </c>
-      <c r="V52" t="s">
-        <v>131</v>
+      <c r="W52" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>268</v>
       </c>
-      <c r="V53" t="s">
-        <v>346</v>
+      <c r="W53" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>292</v>
       </c>
-      <c r="V54" t="s">
-        <v>471</v>
+      <c r="W54" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>293</v>
       </c>
-      <c r="V55" t="s">
-        <v>132</v>
+      <c r="W55" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>294</v>
       </c>
-      <c r="V56" t="s">
-        <v>133</v>
+      <c r="W56" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>303</v>
       </c>
-      <c r="V57" t="s">
-        <v>134</v>
+      <c r="W57" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>312</v>
       </c>
-      <c r="V58" t="s">
-        <v>135</v>
+      <c r="W58" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>337</v>
       </c>
-      <c r="V59" t="s">
-        <v>136</v>
+      <c r="W59" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>309</v>
       </c>
-      <c r="V60" t="s">
-        <v>137</v>
+      <c r="W60" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>310</v>
       </c>
-      <c r="V61" t="s">
-        <v>138</v>
+      <c r="W61" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>369</v>
       </c>
-      <c r="V62" t="s">
-        <v>448</v>
+      <c r="W62" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>370</v>
       </c>
-      <c r="V63" t="s">
-        <v>214</v>
+      <c r="W63" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>345</v>
       </c>
-      <c r="V64" t="s">
-        <v>389</v>
+      <c r="W64" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>313</v>
       </c>
-      <c r="V65" t="s">
-        <v>454</v>
+      <c r="W65" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>269</v>
       </c>
-      <c r="V66" t="s">
-        <v>139</v>
+      <c r="W66" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>353</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>314</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>423</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>304</v>
       </c>
-      <c r="V70" t="s">
-        <v>197</v>
+      <c r="W70" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>408</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>262</v>
       </c>
-      <c r="V72" t="s">
-        <v>466</v>
+      <c r="W72" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>344</v>
       </c>
-      <c r="V73" t="s">
-        <v>481</v>
+      <c r="W73" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>280</v>
       </c>
-      <c r="V74" t="s">
-        <v>143</v>
+      <c r="W74" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>286</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>291</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>433</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>332</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>270</v>
       </c>
-      <c r="V79" t="s">
-        <v>199</v>
+      <c r="W79" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>281</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>287</v>
       </c>
-      <c r="V81" t="s">
-        <v>465</v>
+      <c r="W81" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>276</v>
       </c>
-      <c r="V82" t="s">
-        <v>201</v>
+      <c r="W82" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>271</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>288</v>
       </c>
-      <c r="V84" t="s">
-        <v>215</v>
+      <c r="W84" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>272</v>
       </c>
-      <c r="V85" t="s">
-        <v>148</v>
+      <c r="W85" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>273</v>
       </c>
-      <c r="V86" t="s">
-        <v>203</v>
+      <c r="W86" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>305</v>
       </c>
-      <c r="V87" t="s">
-        <v>446</v>
+      <c r="W87" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>311</v>
       </c>
-      <c r="V88" t="s">
-        <v>447</v>
+      <c r="W88" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>295</v>
       </c>
-      <c r="V89" t="s">
-        <v>204</v>
+      <c r="W89" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>340</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>277</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>278</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>170</v>
       </c>
     </row>

--- a/artifact/script/rdbms-01.xlsx
+++ b/artifact/script/rdbms-01.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8469" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9994" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1568,13 +1569,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="272" x14ac:knownFonts="1">
+  <fonts count="320" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3291,8 +3343,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5912,8 +6267,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+